--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD-TEST.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD-TEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/test_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3699C8-9B2C-5B45-9094-3BE167760E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{BA3699C8-9B2C-5B45-9094-3BE167760E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE61E4B9-376A-4E5D-982F-7A07779ABCBD}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1620" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,27 @@
     <sheet name="Regression Test Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Regression Test Plan - ${APP_VERSION} - ${BUILD_ENV}  </t>
   </si>
@@ -37,7 +53,10 @@
     <t>Build Info</t>
   </si>
   <si>
-    <t>Topic Message Push Notifications</t>
+    <t>Time and Date Testing Was Completed:</t>
+  </si>
+  <si>
+    <t>mm/dd/yy - 00:00 AM/PM</t>
   </si>
   <si>
     <t>App Version:</t>
@@ -46,7 +65,7 @@
     <t>${APP_VERSION} (${BUILD_NUMBER})</t>
   </si>
   <si>
-    <t>TM received within 3 seconds</t>
+    <t>General</t>
   </si>
   <si>
     <t>Environment:</t>
@@ -55,7 +74,7 @@
     <t>${BUILD_ENV}</t>
   </si>
   <si>
-    <t>TM received with app closed</t>
+    <t>Build version, number, and environment verified on Profile tab - ${APP_VERSION} (${BUILD_NUMBER}) ${BUILD_ENV}</t>
   </si>
   <si>
     <t>Branch:</t>
@@ -64,46 +83,52 @@
     <t>${BUILD_BRANCH}</t>
   </si>
   <si>
+    <t>Topic Message Push Notifications</t>
+  </si>
+  <si>
+    <t>TM received within 3 seconds</t>
+  </si>
+  <si>
+    <t>Test Results</t>
+  </si>
+  <si>
+    <t>TM received with app closed</t>
+  </si>
+  <si>
+    <t>PASS:</t>
+  </si>
+  <si>
     <t>TM received with app in background</t>
+  </si>
+  <si>
+    <t>FAIL:</t>
   </si>
   <si>
     <t>TM for topic `(TEST) Campus Announcements` received</t>
   </si>
   <si>
-    <t>Test Results</t>
+    <t>FOLLOW-UP:</t>
   </si>
   <si>
     <t>TM for topic `(TEST) Free Food` received</t>
   </si>
   <si>
-    <t>PASS:</t>
+    <t>N/A:</t>
   </si>
   <si>
     <t>TM for topic `(TEST) Student Announcements` received (Student login required)</t>
   </si>
   <si>
-    <t>FAIL:</t>
-  </si>
-  <si>
-    <t>FOLLOW-UP:</t>
-  </si>
-  <si>
     <t>Regression Test Result</t>
   </si>
   <si>
-    <t>N/A:</t>
+    <t>Tools</t>
   </si>
   <si>
     <t>PASS / FAIL</t>
   </si>
   <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Build version, number, and environment verified on Profile tab - ${APP_VERSION} (${BUILD_NUMBER}) ${BUILD_ENV}</t>
+    <t>Notification Tool (PROD-TEST)</t>
   </si>
   <si>
     <t>Barcode Generator (Code128) - Random</t>
@@ -123,15 +148,12 @@
   <si>
     <t>Barcode Generator (2D) - Invalid Barcode</t>
   </si>
-  <si>
-    <t>Notification Tool (PROD-TEST)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -222,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +311,14 @@
         <bgColor rgb="FFE0F7FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3AA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -374,23 +402,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,13 +463,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,61 +484,46 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -501,6 +538,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,21 +944,21 @@
   <dimension ref="A1:U943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="103.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="2"/>
+    <col min="1" max="1" width="103.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="49.5">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -941,19 +984,18 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="29"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -970,19 +1012,21 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>26</v>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A3" s="37" t="s">
+        <v>5</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="25"/>
       <c r="D3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="E3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -999,18 +1043,19 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>27</v>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
       </c>
+      <c r="B4" s="15"/>
       <c r="C4" s="25"/>
       <c r="D4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="E4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1027,19 +1072,18 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
+    <row r="5" spans="1:21" ht="28.5">
+      <c r="A5" s="32" t="s">
+        <v>12</v>
       </c>
-      <c r="B5" s="15"/>
       <c r="C5" s="25"/>
       <c r="D5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="E5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1056,14 +1100,13 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>8</v>
+    <row r="6" spans="1:21">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1080,16 +1123,16 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="18" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1106,16 +1149,16 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="24" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1132,16 +1175,16 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="24" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1158,16 +1201,16 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
-        <v>17</v>
+    <row r="10" spans="1:21">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1184,16 +1227,16 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>19</v>
+    <row r="11" spans="1:21">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1210,15 +1253,14 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
+    <row r="12" spans="1:21">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1235,16 +1277,17 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
-        <v>24</v>
+    <row r="13" spans="1:21">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1261,13 +1304,16 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C14" s="27"/>
-      <c r="D14" s="41" t="s">
-        <v>34</v>
+    <row r="14" spans="1:21">
+      <c r="A14" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1284,15 +1330,15 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="38" t="s">
-        <v>28</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="33" t="s">
+        <v>31</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1309,15 +1355,15 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="39" t="s">
-        <v>29</v>
+      <c r="C16" s="1"/>
+      <c r="D16" s="34" t="s">
+        <v>32</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1334,14 +1380,14 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="38" t="s">
-        <v>30</v>
+      <c r="C17" s="1"/>
+      <c r="D17" s="33" t="s">
+        <v>33</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1358,14 +1404,14 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="39" t="s">
-        <v>31</v>
+      <c r="C18" s="1"/>
+      <c r="D18" s="34" t="s">
+        <v>34</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1382,14 +1428,14 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="38" t="s">
-        <v>32</v>
+      <c r="C19" s="1"/>
+      <c r="D19" s="33" t="s">
+        <v>35</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1406,14 +1452,14 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21">
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="39" t="s">
-        <v>33</v>
+      <c r="C20" s="1"/>
+      <c r="D20" s="34" t="s">
+        <v>36</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1430,12 +1476,12 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="40"/>
-      <c r="F21" s="27"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="35"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1452,11 +1498,11 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21">
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="C22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1473,7 +1519,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
@@ -1496,7 +1542,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21">
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -1519,7 +1565,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -1542,7 +1588,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21">
       <c r="A26" s="7"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -1565,7 +1611,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -1588,7 +1634,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21">
       <c r="A28" s="7"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
@@ -1611,7 +1657,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -1634,7 +1680,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
@@ -1657,7 +1703,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21">
       <c r="A31" s="7"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
@@ -1680,7 +1726,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21">
       <c r="A32" s="7"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
@@ -1703,7 +1749,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
@@ -1726,7 +1772,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21">
       <c r="A34" s="7"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
@@ -1749,7 +1795,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21">
       <c r="A35" s="7"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
@@ -1772,7 +1818,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21">
       <c r="A36" s="7"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
@@ -1795,7 +1841,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
@@ -1818,7 +1864,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21">
       <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
@@ -1841,7 +1887,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21">
       <c r="A39" s="7"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
@@ -1864,7 +1910,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21">
       <c r="A40" s="7"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
@@ -1887,7 +1933,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21">
       <c r="A41" s="7"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
@@ -1910,7 +1956,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21">
       <c r="A42" s="7"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
@@ -1933,7 +1979,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21">
       <c r="A43" s="7"/>
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
@@ -1956,7 +2002,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21">
       <c r="A44" s="7"/>
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
@@ -1979,7 +2025,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21">
       <c r="A45" s="7"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
@@ -2002,7 +2048,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21">
       <c r="A46" s="7"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
@@ -2025,7 +2071,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21">
       <c r="A47" s="7"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
@@ -2048,7 +2094,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21">
       <c r="A48" s="7"/>
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
@@ -2071,7 +2117,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21">
       <c r="A49" s="7"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
@@ -2094,7 +2140,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21">
       <c r="A50" s="7"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
@@ -2117,7 +2163,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21">
       <c r="A51" s="7"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
@@ -2140,7 +2186,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21">
       <c r="A52" s="7"/>
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
@@ -2163,7 +2209,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21">
       <c r="A53" s="7"/>
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
@@ -2186,7 +2232,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21">
       <c r="A54" s="7"/>
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
@@ -2209,7 +2255,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21">
       <c r="A55" s="7"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
@@ -2232,7 +2278,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21">
       <c r="A56" s="7"/>
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
@@ -2255,7 +2301,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21">
       <c r="A57" s="7"/>
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
@@ -2278,7 +2324,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21">
       <c r="A58" s="7"/>
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
@@ -2301,7 +2347,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21">
       <c r="A59" s="7"/>
       <c r="B59" s="3"/>
       <c r="C59" s="1"/>
@@ -2324,7 +2370,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21">
       <c r="A60" s="7"/>
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
@@ -2347,7 +2393,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21">
       <c r="A61" s="7"/>
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
@@ -2370,7 +2416,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21">
       <c r="A62" s="7"/>
       <c r="B62" s="3"/>
       <c r="C62" s="1"/>
@@ -2393,7 +2439,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21">
       <c r="A63" s="7"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
@@ -2416,7 +2462,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21">
       <c r="A64" s="7"/>
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
@@ -2439,7 +2485,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21">
       <c r="A65" s="7"/>
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
@@ -2462,7 +2508,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21">
       <c r="A66" s="7"/>
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
@@ -2485,7 +2531,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21">
       <c r="A67" s="7"/>
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
@@ -2508,7 +2554,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21">
       <c r="A68" s="7"/>
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
@@ -2531,7 +2577,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21">
       <c r="A69" s="7"/>
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
@@ -2554,7 +2600,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21">
       <c r="A70" s="7"/>
       <c r="B70" s="3"/>
       <c r="C70" s="1"/>
@@ -2577,7 +2623,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21">
       <c r="A71" s="7"/>
       <c r="B71" s="3"/>
       <c r="C71" s="1"/>
@@ -2600,7 +2646,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21">
       <c r="A72" s="7"/>
       <c r="B72" s="3"/>
       <c r="C72" s="1"/>
@@ -2623,7 +2669,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21">
       <c r="A73" s="7"/>
       <c r="B73" s="3"/>
       <c r="C73" s="1"/>
@@ -2646,7 +2692,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21">
       <c r="A74" s="7"/>
       <c r="B74" s="3"/>
       <c r="C74" s="1"/>
@@ -2669,7 +2715,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="7"/>
       <c r="B75" s="3"/>
       <c r="C75" s="1"/>
@@ -2692,7 +2738,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="7"/>
       <c r="B76" s="3"/>
       <c r="C76" s="1"/>
@@ -2715,7 +2761,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="7"/>
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
@@ -2738,7 +2784,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="7"/>
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
@@ -2761,7 +2807,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="7"/>
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
@@ -2784,7 +2830,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="7"/>
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
@@ -2807,7 +2853,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="7"/>
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
@@ -2830,7 +2876,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="7"/>
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
@@ -2853,7 +2899,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="7"/>
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
@@ -2876,7 +2922,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="7"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
@@ -2899,7 +2945,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="7"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
@@ -2922,7 +2968,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="7"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
@@ -2945,7 +2991,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="7"/>
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
@@ -2968,7 +3014,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="7"/>
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
@@ -2991,7 +3037,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="7"/>
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
@@ -3014,7 +3060,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="7"/>
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
@@ -3037,7 +3083,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="7"/>
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
@@ -3060,7 +3106,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="7"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
@@ -3083,7 +3129,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="7"/>
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
@@ -3106,7 +3152,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="7"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
@@ -3129,7 +3175,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="7"/>
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
@@ -3152,7 +3198,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="7"/>
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
@@ -3175,7 +3221,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="7"/>
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
@@ -3198,7 +3244,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="7"/>
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
@@ -3221,7 +3267,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="7"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
@@ -3244,7 +3290,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="7"/>
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
@@ -3267,7 +3313,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="7"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
@@ -3290,7 +3336,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="7"/>
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
@@ -3313,7 +3359,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="7"/>
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
@@ -3336,7 +3382,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="7"/>
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
@@ -3359,7 +3405,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="7"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
@@ -3382,7 +3428,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="7"/>
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
@@ -3405,7 +3451,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="7"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
@@ -3428,7 +3474,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="7"/>
       <c r="B108" s="3"/>
       <c r="C108" s="1"/>
@@ -3451,7 +3497,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="7"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1"/>
@@ -3474,7 +3520,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="7"/>
       <c r="B110" s="3"/>
       <c r="C110" s="1"/>
@@ -3497,7 +3543,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="7"/>
       <c r="B111" s="3"/>
       <c r="C111" s="1"/>
@@ -3520,7 +3566,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="7"/>
       <c r="B112" s="3"/>
       <c r="C112" s="1"/>
@@ -3543,7 +3589,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="7"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1"/>
@@ -3566,7 +3612,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="7"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1"/>
@@ -3589,7 +3635,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="7"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1"/>
@@ -3612,7 +3658,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="7"/>
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
@@ -3635,7 +3681,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="7"/>
       <c r="B117" s="3"/>
       <c r="C117" s="1"/>
@@ -3658,7 +3704,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="7"/>
       <c r="B118" s="3"/>
       <c r="C118" s="1"/>
@@ -3681,7 +3727,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="7"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1"/>
@@ -3704,7 +3750,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="7"/>
       <c r="B120" s="3"/>
       <c r="C120" s="1"/>
@@ -3727,7 +3773,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="7"/>
       <c r="B121" s="3"/>
       <c r="C121" s="1"/>
@@ -3750,7 +3796,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="7"/>
       <c r="B122" s="3"/>
       <c r="C122" s="1"/>
@@ -3773,7 +3819,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="7"/>
       <c r="B123" s="3"/>
       <c r="C123" s="1"/>
@@ -3796,7 +3842,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="7"/>
       <c r="B124" s="3"/>
       <c r="C124" s="1"/>
@@ -3819,7 +3865,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="7"/>
       <c r="B125" s="3"/>
       <c r="C125" s="1"/>
@@ -3842,7 +3888,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="7"/>
       <c r="B126" s="3"/>
       <c r="C126" s="1"/>
@@ -3865,7 +3911,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="7"/>
       <c r="B127" s="3"/>
       <c r="C127" s="1"/>
@@ -3888,7 +3934,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="7"/>
       <c r="B128" s="3"/>
       <c r="C128" s="1"/>
@@ -3911,7 +3957,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="7"/>
       <c r="B129" s="3"/>
       <c r="C129" s="1"/>
@@ -3934,7 +3980,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="7"/>
       <c r="B130" s="3"/>
       <c r="C130" s="1"/>
@@ -3957,7 +4003,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="7"/>
       <c r="B131" s="3"/>
       <c r="C131" s="1"/>
@@ -3980,7 +4026,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="7"/>
       <c r="B132" s="3"/>
       <c r="C132" s="1"/>
@@ -4003,7 +4049,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="7"/>
       <c r="B133" s="3"/>
       <c r="C133" s="1"/>
@@ -4026,7 +4072,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="7"/>
       <c r="B134" s="3"/>
       <c r="C134" s="1"/>
@@ -4049,7 +4095,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="7"/>
       <c r="B135" s="3"/>
       <c r="C135" s="1"/>
@@ -4072,7 +4118,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="7"/>
       <c r="B136" s="3"/>
       <c r="C136" s="1"/>
@@ -4095,7 +4141,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="7"/>
       <c r="B137" s="3"/>
       <c r="C137" s="1"/>
@@ -4118,7 +4164,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="7"/>
       <c r="B138" s="3"/>
       <c r="C138" s="1"/>
@@ -4141,7 +4187,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="7"/>
       <c r="B139" s="3"/>
       <c r="C139" s="1"/>
@@ -4164,7 +4210,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="7"/>
       <c r="B140" s="3"/>
       <c r="C140" s="1"/>
@@ -4187,7 +4233,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="7"/>
       <c r="B141" s="3"/>
       <c r="C141" s="1"/>
@@ -4210,7 +4256,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="7"/>
       <c r="B142" s="3"/>
       <c r="C142" s="1"/>
@@ -4233,7 +4279,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="7"/>
       <c r="B143" s="3"/>
       <c r="C143" s="1"/>
@@ -4256,7 +4302,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="7"/>
       <c r="B144" s="3"/>
       <c r="C144" s="1"/>
@@ -4279,7 +4325,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="7"/>
       <c r="B145" s="3"/>
       <c r="C145" s="1"/>
@@ -4302,7 +4348,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="7"/>
       <c r="B146" s="3"/>
       <c r="C146" s="1"/>
@@ -4325,7 +4371,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="7"/>
       <c r="B147" s="3"/>
       <c r="C147" s="1"/>
@@ -4348,7 +4394,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="7"/>
       <c r="B148" s="3"/>
       <c r="C148" s="1"/>
@@ -4371,7 +4417,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="7"/>
       <c r="B149" s="3"/>
       <c r="C149" s="1"/>
@@ -4394,7 +4440,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="7"/>
       <c r="B150" s="3"/>
       <c r="C150" s="1"/>
@@ -4417,7 +4463,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="7"/>
       <c r="B151" s="3"/>
       <c r="C151" s="1"/>
@@ -4440,7 +4486,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="7"/>
       <c r="B152" s="3"/>
       <c r="C152" s="1"/>
@@ -4463,7 +4509,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="7"/>
       <c r="B153" s="3"/>
       <c r="C153" s="1"/>
@@ -4486,7 +4532,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="7"/>
       <c r="B154" s="3"/>
       <c r="C154" s="1"/>
@@ -4509,7 +4555,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="7"/>
       <c r="B155" s="3"/>
       <c r="C155" s="1"/>
@@ -4532,7 +4578,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="7"/>
       <c r="B156" s="3"/>
       <c r="C156" s="1"/>
@@ -4555,7 +4601,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="7"/>
       <c r="B157" s="3"/>
       <c r="C157" s="1"/>
@@ -4578,7 +4624,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="7"/>
       <c r="B158" s="3"/>
       <c r="C158" s="1"/>
@@ -4601,7 +4647,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="7"/>
       <c r="B159" s="3"/>
       <c r="C159" s="1"/>
@@ -4624,7 +4670,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="7"/>
       <c r="B160" s="3"/>
       <c r="C160" s="1"/>
@@ -4647,7 +4693,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="7"/>
       <c r="B161" s="3"/>
       <c r="C161" s="1"/>
@@ -4670,7 +4716,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="7"/>
       <c r="B162" s="3"/>
       <c r="C162" s="1"/>
@@ -4693,7 +4739,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="7"/>
       <c r="B163" s="3"/>
       <c r="C163" s="1"/>
@@ -4716,7 +4762,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="7"/>
       <c r="B164" s="3"/>
       <c r="C164" s="1"/>
@@ -4739,7 +4785,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="7"/>
       <c r="B165" s="3"/>
       <c r="C165" s="1"/>
@@ -4762,7 +4808,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="7"/>
       <c r="B166" s="3"/>
       <c r="C166" s="1"/>
@@ -4785,7 +4831,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="7"/>
       <c r="B167" s="3"/>
       <c r="C167" s="1"/>
@@ -4808,7 +4854,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="7"/>
       <c r="B168" s="3"/>
       <c r="C168" s="1"/>
@@ -4831,7 +4877,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="7"/>
       <c r="B169" s="3"/>
       <c r="C169" s="1"/>
@@ -4854,7 +4900,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21">
       <c r="A170" s="7"/>
       <c r="B170" s="3"/>
       <c r="C170" s="1"/>
@@ -4877,7 +4923,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21">
       <c r="A171" s="7"/>
       <c r="B171" s="3"/>
       <c r="C171" s="1"/>
@@ -4900,7 +4946,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21">
       <c r="A172" s="7"/>
       <c r="B172" s="3"/>
       <c r="C172" s="1"/>
@@ -4923,7 +4969,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21">
       <c r="A173" s="7"/>
       <c r="B173" s="3"/>
       <c r="C173" s="1"/>
@@ -4946,7 +4992,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21">
       <c r="A174" s="7"/>
       <c r="B174" s="3"/>
       <c r="C174" s="1"/>
@@ -4969,7 +5015,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21">
       <c r="A175" s="7"/>
       <c r="B175" s="3"/>
       <c r="C175" s="1"/>
@@ -4992,7 +5038,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21">
       <c r="A176" s="7"/>
       <c r="B176" s="3"/>
       <c r="C176" s="1"/>
@@ -5015,7 +5061,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:21">
       <c r="A177" s="7"/>
       <c r="B177" s="3"/>
       <c r="C177" s="1"/>
@@ -5038,7 +5084,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:21">
       <c r="A178" s="7"/>
       <c r="B178" s="3"/>
       <c r="C178" s="1"/>
@@ -5061,7 +5107,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:21">
       <c r="A179" s="7"/>
       <c r="B179" s="3"/>
       <c r="C179" s="1"/>
@@ -5084,7 +5130,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:21">
       <c r="A180" s="7"/>
       <c r="B180" s="3"/>
       <c r="C180" s="1"/>
@@ -5107,7 +5153,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:21">
       <c r="A181" s="7"/>
       <c r="B181" s="3"/>
       <c r="C181" s="1"/>
@@ -5130,7 +5176,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:21">
       <c r="A182" s="7"/>
       <c r="B182" s="3"/>
       <c r="C182" s="1"/>
@@ -5153,7 +5199,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:21">
       <c r="A183" s="7"/>
       <c r="B183" s="3"/>
       <c r="C183" s="1"/>
@@ -5176,7 +5222,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:21">
       <c r="A184" s="7"/>
       <c r="B184" s="3"/>
       <c r="C184" s="1"/>
@@ -5199,7 +5245,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:21">
       <c r="A185" s="7"/>
       <c r="B185" s="3"/>
       <c r="C185" s="1"/>
@@ -5222,7 +5268,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:21">
       <c r="A186" s="7"/>
       <c r="B186" s="3"/>
       <c r="C186" s="1"/>
@@ -5245,7 +5291,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:21">
       <c r="A187" s="7"/>
       <c r="B187" s="3"/>
       <c r="C187" s="1"/>
@@ -5268,7 +5314,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:21">
       <c r="A188" s="7"/>
       <c r="B188" s="3"/>
       <c r="C188" s="1"/>
@@ -5291,7 +5337,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:21">
       <c r="A189" s="7"/>
       <c r="B189" s="3"/>
       <c r="C189" s="1"/>
@@ -5314,7 +5360,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:21">
       <c r="A190" s="7"/>
       <c r="B190" s="3"/>
       <c r="C190" s="1"/>
@@ -5337,7 +5383,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:21">
       <c r="A191" s="7"/>
       <c r="B191" s="3"/>
       <c r="C191" s="1"/>
@@ -5360,7 +5406,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:21">
       <c r="A192" s="7"/>
       <c r="B192" s="3"/>
       <c r="C192" s="1"/>
@@ -5383,7 +5429,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:21">
       <c r="A193" s="7"/>
       <c r="B193" s="3"/>
       <c r="C193" s="1"/>
@@ -5406,7 +5452,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:21">
       <c r="A194" s="7"/>
       <c r="B194" s="3"/>
       <c r="C194" s="1"/>
@@ -5429,7 +5475,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:21">
       <c r="A195" s="7"/>
       <c r="B195" s="3"/>
       <c r="C195" s="1"/>
@@ -5452,7 +5498,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:21">
       <c r="A196" s="7"/>
       <c r="B196" s="3"/>
       <c r="C196" s="1"/>
@@ -5475,7 +5521,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:21">
       <c r="A197" s="7"/>
       <c r="B197" s="3"/>
       <c r="C197" s="1"/>
@@ -5498,7 +5544,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:21">
       <c r="A198" s="7"/>
       <c r="B198" s="3"/>
       <c r="C198" s="1"/>
@@ -5521,7 +5567,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:21">
       <c r="A199" s="7"/>
       <c r="B199" s="3"/>
       <c r="C199" s="1"/>
@@ -5544,7 +5590,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:21">
       <c r="A200" s="7"/>
       <c r="B200" s="3"/>
       <c r="C200" s="1"/>
@@ -5567,7 +5613,7 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:21">
       <c r="A201" s="7"/>
       <c r="B201" s="3"/>
       <c r="C201" s="1"/>
@@ -5590,7 +5636,7 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:21">
       <c r="A202" s="7"/>
       <c r="B202" s="3"/>
       <c r="C202" s="1"/>
@@ -5613,7 +5659,7 @@
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:21">
       <c r="A203" s="7"/>
       <c r="B203" s="3"/>
       <c r="C203" s="1"/>
@@ -5636,7 +5682,7 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:21">
       <c r="A204" s="7"/>
       <c r="B204" s="3"/>
       <c r="C204" s="1"/>
@@ -5659,7 +5705,7 @@
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:21">
       <c r="A205" s="7"/>
       <c r="B205" s="3"/>
       <c r="C205" s="1"/>
@@ -5682,7 +5728,7 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:21">
       <c r="A206" s="7"/>
       <c r="B206" s="3"/>
       <c r="C206" s="1"/>
@@ -5705,7 +5751,7 @@
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:21">
       <c r="A207" s="7"/>
       <c r="B207" s="3"/>
       <c r="C207" s="1"/>
@@ -5728,7 +5774,7 @@
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:21">
       <c r="A208" s="7"/>
       <c r="B208" s="3"/>
       <c r="C208" s="1"/>
@@ -5751,7 +5797,7 @@
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:21">
       <c r="A209" s="7"/>
       <c r="B209" s="3"/>
       <c r="C209" s="1"/>
@@ -5774,7 +5820,7 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:21">
       <c r="A210" s="7"/>
       <c r="B210" s="3"/>
       <c r="C210" s="1"/>
@@ -5797,7 +5843,7 @@
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:21">
       <c r="A211" s="7"/>
       <c r="B211" s="3"/>
       <c r="C211" s="1"/>
@@ -5820,7 +5866,7 @@
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:21">
       <c r="A212" s="7"/>
       <c r="B212" s="3"/>
       <c r="C212" s="1"/>
@@ -5843,7 +5889,7 @@
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:21">
       <c r="A213" s="7"/>
       <c r="B213" s="3"/>
       <c r="C213" s="1"/>
@@ -5866,7 +5912,7 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:21">
       <c r="A214" s="7"/>
       <c r="B214" s="3"/>
       <c r="C214" s="1"/>
@@ -5889,7 +5935,7 @@
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:21">
       <c r="A215" s="7"/>
       <c r="B215" s="3"/>
       <c r="C215" s="1"/>
@@ -5912,7 +5958,7 @@
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:21">
       <c r="A216" s="7"/>
       <c r="B216" s="3"/>
       <c r="C216" s="1"/>
@@ -5935,7 +5981,7 @@
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:21">
       <c r="A217" s="7"/>
       <c r="B217" s="3"/>
       <c r="C217" s="1"/>
@@ -5958,7 +6004,7 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:21">
       <c r="A218" s="7"/>
       <c r="B218" s="3"/>
       <c r="C218" s="1"/>
@@ -5981,7 +6027,7 @@
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:21">
       <c r="A219" s="7"/>
       <c r="B219" s="3"/>
       <c r="C219" s="1"/>
@@ -6004,7 +6050,7 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:21">
       <c r="A220" s="7"/>
       <c r="B220" s="3"/>
       <c r="C220" s="1"/>
@@ -6027,7 +6073,7 @@
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:21">
       <c r="A221" s="7"/>
       <c r="B221" s="3"/>
       <c r="C221" s="1"/>
@@ -6050,7 +6096,7 @@
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:21">
       <c r="A222" s="7"/>
       <c r="B222" s="3"/>
       <c r="C222" s="1"/>
@@ -6073,7 +6119,7 @@
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:21">
       <c r="A223" s="7"/>
       <c r="B223" s="3"/>
       <c r="C223" s="1"/>
@@ -6096,7 +6142,7 @@
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:21">
       <c r="A224" s="7"/>
       <c r="B224" s="3"/>
       <c r="C224" s="1"/>
@@ -6119,7 +6165,7 @@
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:21">
       <c r="A225" s="7"/>
       <c r="B225" s="3"/>
       <c r="C225" s="1"/>
@@ -6142,7 +6188,7 @@
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:21">
       <c r="A226" s="7"/>
       <c r="B226" s="3"/>
       <c r="C226" s="1"/>
@@ -6165,7 +6211,7 @@
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:21">
       <c r="A227" s="7"/>
       <c r="B227" s="3"/>
       <c r="C227" s="1"/>
@@ -6188,7 +6234,7 @@
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:21">
       <c r="A228" s="7"/>
       <c r="B228" s="3"/>
       <c r="C228" s="1"/>
@@ -6211,7 +6257,7 @@
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:21">
       <c r="A229" s="7"/>
       <c r="B229" s="3"/>
       <c r="C229" s="1"/>
@@ -6234,7 +6280,7 @@
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:21">
       <c r="A230" s="7"/>
       <c r="B230" s="3"/>
       <c r="C230" s="1"/>
@@ -6257,7 +6303,7 @@
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:21">
       <c r="A231" s="7"/>
       <c r="B231" s="3"/>
       <c r="C231" s="1"/>
@@ -6280,7 +6326,7 @@
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:21">
       <c r="A232" s="7"/>
       <c r="B232" s="3"/>
       <c r="C232" s="1"/>
@@ -6303,7 +6349,7 @@
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:21">
       <c r="A233" s="7"/>
       <c r="B233" s="3"/>
       <c r="C233" s="1"/>
@@ -6326,7 +6372,7 @@
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:21">
       <c r="A234" s="7"/>
       <c r="B234" s="3"/>
       <c r="C234" s="1"/>
@@ -6349,7 +6395,7 @@
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:21">
       <c r="A235" s="7"/>
       <c r="B235" s="3"/>
       <c r="C235" s="1"/>
@@ -6372,7 +6418,7 @@
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:21">
       <c r="A236" s="7"/>
       <c r="B236" s="3"/>
       <c r="C236" s="1"/>
@@ -6395,7 +6441,7 @@
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:21">
       <c r="A237" s="7"/>
       <c r="B237" s="3"/>
       <c r="C237" s="1"/>
@@ -6418,7 +6464,7 @@
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:21">
       <c r="A238" s="7"/>
       <c r="B238" s="3"/>
       <c r="C238" s="1"/>
@@ -6441,7 +6487,7 @@
       <c r="T238" s="1"/>
       <c r="U238" s="1"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:21">
       <c r="A239" s="7"/>
       <c r="B239" s="3"/>
       <c r="C239" s="1"/>
@@ -6464,7 +6510,7 @@
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:21">
       <c r="A240" s="7"/>
       <c r="B240" s="3"/>
       <c r="C240" s="1"/>
@@ -6487,7 +6533,7 @@
       <c r="T240" s="1"/>
       <c r="U240" s="1"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:21">
       <c r="A241" s="7"/>
       <c r="B241" s="3"/>
       <c r="C241" s="1"/>
@@ -6510,7 +6556,7 @@
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:21">
       <c r="A242" s="7"/>
       <c r="B242" s="3"/>
       <c r="C242" s="1"/>
@@ -6533,7 +6579,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:21">
       <c r="A243" s="7"/>
       <c r="B243" s="3"/>
       <c r="C243" s="1"/>
@@ -6556,7 +6602,7 @@
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:21">
       <c r="A244" s="7"/>
       <c r="B244" s="3"/>
       <c r="C244" s="1"/>
@@ -6579,7 +6625,7 @@
       <c r="T244" s="1"/>
       <c r="U244" s="1"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:21">
       <c r="A245" s="7"/>
       <c r="B245" s="3"/>
       <c r="C245" s="1"/>
@@ -6602,7 +6648,7 @@
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:21">
       <c r="A246" s="7"/>
       <c r="B246" s="3"/>
       <c r="C246" s="1"/>
@@ -6625,7 +6671,7 @@
       <c r="T246" s="1"/>
       <c r="U246" s="1"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:21">
       <c r="A247" s="7"/>
       <c r="B247" s="3"/>
       <c r="C247" s="1"/>
@@ -6648,7 +6694,7 @@
       <c r="T247" s="1"/>
       <c r="U247" s="1"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:21">
       <c r="A248" s="7"/>
       <c r="B248" s="3"/>
       <c r="C248" s="1"/>
@@ -6671,7 +6717,7 @@
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:21">
       <c r="A249" s="7"/>
       <c r="B249" s="3"/>
       <c r="C249" s="1"/>
@@ -6694,7 +6740,7 @@
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:21">
       <c r="A250" s="7"/>
       <c r="B250" s="3"/>
       <c r="C250" s="1"/>
@@ -6717,7 +6763,7 @@
       <c r="T250" s="1"/>
       <c r="U250" s="1"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:21">
       <c r="A251" s="7"/>
       <c r="B251" s="3"/>
       <c r="C251" s="1"/>
@@ -6740,7 +6786,7 @@
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:21">
       <c r="A252" s="7"/>
       <c r="B252" s="3"/>
       <c r="C252" s="1"/>
@@ -6763,7 +6809,7 @@
       <c r="T252" s="1"/>
       <c r="U252" s="1"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:21">
       <c r="A253" s="7"/>
       <c r="B253" s="3"/>
       <c r="C253" s="1"/>
@@ -6786,7 +6832,7 @@
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:21">
       <c r="A254" s="7"/>
       <c r="B254" s="3"/>
       <c r="C254" s="1"/>
@@ -6809,7 +6855,7 @@
       <c r="T254" s="1"/>
       <c r="U254" s="1"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:21">
       <c r="A255" s="7"/>
       <c r="B255" s="3"/>
       <c r="C255" s="1"/>
@@ -6832,7 +6878,7 @@
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:21">
       <c r="A256" s="7"/>
       <c r="B256" s="3"/>
       <c r="C256" s="1"/>
@@ -6855,7 +6901,7 @@
       <c r="T256" s="1"/>
       <c r="U256" s="1"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:21">
       <c r="A257" s="7"/>
       <c r="B257" s="3"/>
       <c r="C257" s="1"/>
@@ -6878,7 +6924,7 @@
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:21">
       <c r="A258" s="7"/>
       <c r="B258" s="3"/>
       <c r="C258" s="1"/>
@@ -6901,7 +6947,7 @@
       <c r="T258" s="1"/>
       <c r="U258" s="1"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:21">
       <c r="A259" s="7"/>
       <c r="B259" s="3"/>
       <c r="C259" s="1"/>
@@ -6924,7 +6970,7 @@
       <c r="T259" s="1"/>
       <c r="U259" s="1"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:21">
       <c r="A260" s="7"/>
       <c r="B260" s="3"/>
       <c r="C260" s="1"/>
@@ -6947,7 +6993,7 @@
       <c r="T260" s="1"/>
       <c r="U260" s="1"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:21">
       <c r="A261" s="7"/>
       <c r="B261" s="3"/>
       <c r="C261" s="1"/>
@@ -6970,7 +7016,7 @@
       <c r="T261" s="1"/>
       <c r="U261" s="1"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:21">
       <c r="A262" s="7"/>
       <c r="B262" s="3"/>
       <c r="C262" s="1"/>
@@ -6993,7 +7039,7 @@
       <c r="T262" s="1"/>
       <c r="U262" s="1"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:21">
       <c r="A263" s="7"/>
       <c r="B263" s="3"/>
       <c r="C263" s="1"/>
@@ -7016,7 +7062,7 @@
       <c r="T263" s="1"/>
       <c r="U263" s="1"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:21">
       <c r="A264" s="7"/>
       <c r="B264" s="3"/>
       <c r="C264" s="1"/>
@@ -7039,7 +7085,7 @@
       <c r="T264" s="1"/>
       <c r="U264" s="1"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:21">
       <c r="A265" s="7"/>
       <c r="B265" s="3"/>
       <c r="C265" s="1"/>
@@ -7062,7 +7108,7 @@
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:21">
       <c r="A266" s="7"/>
       <c r="B266" s="3"/>
       <c r="C266" s="1"/>
@@ -7085,7 +7131,7 @@
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:21">
       <c r="A267" s="7"/>
       <c r="B267" s="3"/>
       <c r="C267" s="1"/>
@@ -7108,7 +7154,7 @@
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:21">
       <c r="A268" s="7"/>
       <c r="B268" s="3"/>
       <c r="C268" s="1"/>
@@ -7131,7 +7177,7 @@
       <c r="T268" s="1"/>
       <c r="U268" s="1"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:21">
       <c r="A269" s="7"/>
       <c r="B269" s="3"/>
       <c r="C269" s="1"/>
@@ -7154,7 +7200,7 @@
       <c r="T269" s="1"/>
       <c r="U269" s="1"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:21">
       <c r="A270" s="7"/>
       <c r="B270" s="3"/>
       <c r="C270" s="1"/>
@@ -7177,7 +7223,7 @@
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:21">
       <c r="A271" s="7"/>
       <c r="B271" s="3"/>
       <c r="C271" s="1"/>
@@ -7200,7 +7246,7 @@
       <c r="T271" s="1"/>
       <c r="U271" s="1"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:21">
       <c r="A272" s="7"/>
       <c r="B272" s="3"/>
       <c r="C272" s="1"/>
@@ -7223,7 +7269,7 @@
       <c r="T272" s="1"/>
       <c r="U272" s="1"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:21">
       <c r="A273" s="7"/>
       <c r="B273" s="3"/>
       <c r="C273" s="1"/>
@@ -7246,7 +7292,7 @@
       <c r="T273" s="1"/>
       <c r="U273" s="1"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:21">
       <c r="A274" s="7"/>
       <c r="B274" s="3"/>
       <c r="C274" s="1"/>
@@ -7269,7 +7315,7 @@
       <c r="T274" s="1"/>
       <c r="U274" s="1"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:21">
       <c r="A275" s="7"/>
       <c r="B275" s="3"/>
       <c r="C275" s="1"/>
@@ -7292,7 +7338,7 @@
       <c r="T275" s="1"/>
       <c r="U275" s="1"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:21">
       <c r="A276" s="7"/>
       <c r="B276" s="3"/>
       <c r="C276" s="1"/>
@@ -7315,7 +7361,7 @@
       <c r="T276" s="1"/>
       <c r="U276" s="1"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:21">
       <c r="A277" s="7"/>
       <c r="B277" s="3"/>
       <c r="C277" s="1"/>
@@ -7338,7 +7384,7 @@
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:21">
       <c r="A278" s="7"/>
       <c r="B278" s="3"/>
       <c r="C278" s="1"/>
@@ -7361,7 +7407,7 @@
       <c r="T278" s="1"/>
       <c r="U278" s="1"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:21">
       <c r="A279" s="7"/>
       <c r="B279" s="3"/>
       <c r="C279" s="1"/>
@@ -7384,7 +7430,7 @@
       <c r="T279" s="1"/>
       <c r="U279" s="1"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:21">
       <c r="A280" s="7"/>
       <c r="B280" s="3"/>
       <c r="C280" s="1"/>
@@ -7407,7 +7453,7 @@
       <c r="T280" s="1"/>
       <c r="U280" s="1"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:21">
       <c r="A281" s="7"/>
       <c r="B281" s="3"/>
       <c r="C281" s="1"/>
@@ -7430,7 +7476,7 @@
       <c r="T281" s="1"/>
       <c r="U281" s="1"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:21">
       <c r="A282" s="7"/>
       <c r="B282" s="3"/>
       <c r="C282" s="1"/>
@@ -7453,7 +7499,7 @@
       <c r="T282" s="1"/>
       <c r="U282" s="1"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:21">
       <c r="A283" s="7"/>
       <c r="B283" s="3"/>
       <c r="C283" s="1"/>
@@ -7476,7 +7522,7 @@
       <c r="T283" s="1"/>
       <c r="U283" s="1"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:21">
       <c r="A284" s="7"/>
       <c r="B284" s="3"/>
       <c r="C284" s="1"/>
@@ -7499,7 +7545,7 @@
       <c r="T284" s="1"/>
       <c r="U284" s="1"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:21">
       <c r="A285" s="7"/>
       <c r="B285" s="3"/>
       <c r="C285" s="1"/>
@@ -7522,7 +7568,7 @@
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:21">
       <c r="A286" s="7"/>
       <c r="B286" s="3"/>
       <c r="C286" s="1"/>
@@ -7545,7 +7591,7 @@
       <c r="T286" s="1"/>
       <c r="U286" s="1"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:21">
       <c r="A287" s="7"/>
       <c r="B287" s="3"/>
       <c r="C287" s="1"/>
@@ -7568,7 +7614,7 @@
       <c r="T287" s="1"/>
       <c r="U287" s="1"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:21">
       <c r="A288" s="7"/>
       <c r="B288" s="3"/>
       <c r="C288" s="1"/>
@@ -7591,7 +7637,7 @@
       <c r="T288" s="1"/>
       <c r="U288" s="1"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:21">
       <c r="A289" s="7"/>
       <c r="B289" s="3"/>
       <c r="C289" s="1"/>
@@ -7614,7 +7660,7 @@
       <c r="T289" s="1"/>
       <c r="U289" s="1"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:21">
       <c r="A290" s="7"/>
       <c r="B290" s="3"/>
       <c r="C290" s="1"/>
@@ -7637,7 +7683,7 @@
       <c r="T290" s="1"/>
       <c r="U290" s="1"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:21">
       <c r="A291" s="7"/>
       <c r="B291" s="3"/>
       <c r="C291" s="1"/>
@@ -7660,7 +7706,7 @@
       <c r="T291" s="1"/>
       <c r="U291" s="1"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:21">
       <c r="A292" s="7"/>
       <c r="B292" s="3"/>
       <c r="C292" s="1"/>
@@ -7683,7 +7729,7 @@
       <c r="T292" s="1"/>
       <c r="U292" s="1"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:21">
       <c r="A293" s="7"/>
       <c r="B293" s="3"/>
       <c r="C293" s="1"/>
@@ -7706,7 +7752,7 @@
       <c r="T293" s="1"/>
       <c r="U293" s="1"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:21">
       <c r="A294" s="7"/>
       <c r="B294" s="3"/>
       <c r="C294" s="1"/>
@@ -7729,7 +7775,7 @@
       <c r="T294" s="1"/>
       <c r="U294" s="1"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:21">
       <c r="A295" s="7"/>
       <c r="B295" s="3"/>
       <c r="C295" s="1"/>
@@ -7752,7 +7798,7 @@
       <c r="T295" s="1"/>
       <c r="U295" s="1"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:21">
       <c r="A296" s="7"/>
       <c r="B296" s="3"/>
       <c r="C296" s="1"/>
@@ -7775,7 +7821,7 @@
       <c r="T296" s="1"/>
       <c r="U296" s="1"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:21">
       <c r="A297" s="7"/>
       <c r="B297" s="3"/>
       <c r="C297" s="1"/>
@@ -7798,7 +7844,7 @@
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:21">
       <c r="A298" s="7"/>
       <c r="B298" s="3"/>
       <c r="C298" s="1"/>
@@ -7821,7 +7867,7 @@
       <c r="T298" s="1"/>
       <c r="U298" s="1"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:21">
       <c r="A299" s="7"/>
       <c r="B299" s="3"/>
       <c r="C299" s="1"/>
@@ -7844,7 +7890,7 @@
       <c r="T299" s="1"/>
       <c r="U299" s="1"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:21">
       <c r="A300" s="7"/>
       <c r="B300" s="3"/>
       <c r="C300" s="1"/>
@@ -7867,7 +7913,7 @@
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:21">
       <c r="A301" s="7"/>
       <c r="B301" s="3"/>
       <c r="C301" s="1"/>
@@ -7890,7 +7936,7 @@
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:21">
       <c r="A302" s="7"/>
       <c r="B302" s="3"/>
       <c r="C302" s="1"/>
@@ -7913,7 +7959,7 @@
       <c r="T302" s="1"/>
       <c r="U302" s="1"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:21">
       <c r="A303" s="7"/>
       <c r="B303" s="3"/>
       <c r="C303" s="1"/>
@@ -7936,7 +7982,7 @@
       <c r="T303" s="1"/>
       <c r="U303" s="1"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:21">
       <c r="A304" s="7"/>
       <c r="B304" s="3"/>
       <c r="C304" s="1"/>
@@ -7959,7 +8005,7 @@
       <c r="T304" s="1"/>
       <c r="U304" s="1"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:21">
       <c r="A305" s="7"/>
       <c r="B305" s="3"/>
       <c r="C305" s="1"/>
@@ -7982,7 +8028,7 @@
       <c r="T305" s="1"/>
       <c r="U305" s="1"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:21">
       <c r="A306" s="7"/>
       <c r="B306" s="3"/>
       <c r="C306" s="1"/>
@@ -8005,7 +8051,7 @@
       <c r="T306" s="1"/>
       <c r="U306" s="1"/>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:21">
       <c r="A307" s="7"/>
       <c r="B307" s="3"/>
       <c r="C307" s="1"/>
@@ -8028,7 +8074,7 @@
       <c r="T307" s="1"/>
       <c r="U307" s="1"/>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:21">
       <c r="A308" s="7"/>
       <c r="B308" s="3"/>
       <c r="C308" s="1"/>
@@ -8051,7 +8097,7 @@
       <c r="T308" s="1"/>
       <c r="U308" s="1"/>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:21">
       <c r="A309" s="7"/>
       <c r="B309" s="3"/>
       <c r="C309" s="1"/>
@@ -8074,7 +8120,7 @@
       <c r="T309" s="1"/>
       <c r="U309" s="1"/>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:21">
       <c r="A310" s="7"/>
       <c r="B310" s="3"/>
       <c r="C310" s="1"/>
@@ -8097,7 +8143,7 @@
       <c r="T310" s="1"/>
       <c r="U310" s="1"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:21">
       <c r="A311" s="7"/>
       <c r="B311" s="3"/>
       <c r="C311" s="1"/>
@@ -8120,7 +8166,7 @@
       <c r="T311" s="1"/>
       <c r="U311" s="1"/>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:21">
       <c r="A312" s="7"/>
       <c r="B312" s="3"/>
       <c r="C312" s="1"/>
@@ -8143,7 +8189,7 @@
       <c r="T312" s="1"/>
       <c r="U312" s="1"/>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:21">
       <c r="A313" s="7"/>
       <c r="B313" s="3"/>
       <c r="C313" s="1"/>
@@ -8166,7 +8212,7 @@
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:21">
       <c r="A314" s="7"/>
       <c r="B314" s="3"/>
       <c r="C314" s="1"/>
@@ -8189,7 +8235,7 @@
       <c r="T314" s="1"/>
       <c r="U314" s="1"/>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:21">
       <c r="A315" s="7"/>
       <c r="B315" s="3"/>
       <c r="C315" s="1"/>
@@ -8212,7 +8258,7 @@
       <c r="T315" s="1"/>
       <c r="U315" s="1"/>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:21">
       <c r="A316" s="7"/>
       <c r="B316" s="3"/>
       <c r="C316" s="1"/>
@@ -8235,7 +8281,7 @@
       <c r="T316" s="1"/>
       <c r="U316" s="1"/>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:21">
       <c r="A317" s="7"/>
       <c r="B317" s="3"/>
       <c r="C317" s="1"/>
@@ -8258,7 +8304,7 @@
       <c r="T317" s="1"/>
       <c r="U317" s="1"/>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:21">
       <c r="A318" s="7"/>
       <c r="B318" s="3"/>
       <c r="C318" s="1"/>
@@ -8281,7 +8327,7 @@
       <c r="T318" s="1"/>
       <c r="U318" s="1"/>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:21">
       <c r="A319" s="7"/>
       <c r="B319" s="3"/>
       <c r="C319" s="1"/>
@@ -8304,7 +8350,7 @@
       <c r="T319" s="1"/>
       <c r="U319" s="1"/>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:21">
       <c r="A320" s="7"/>
       <c r="B320" s="3"/>
       <c r="C320" s="1"/>
@@ -8327,7 +8373,7 @@
       <c r="T320" s="1"/>
       <c r="U320" s="1"/>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:21">
       <c r="A321" s="7"/>
       <c r="B321" s="3"/>
       <c r="C321" s="1"/>
@@ -8350,7 +8396,7 @@
       <c r="T321" s="1"/>
       <c r="U321" s="1"/>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:21">
       <c r="A322" s="7"/>
       <c r="B322" s="3"/>
       <c r="C322" s="1"/>
@@ -8373,7 +8419,7 @@
       <c r="T322" s="1"/>
       <c r="U322" s="1"/>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:21">
       <c r="A323" s="7"/>
       <c r="B323" s="3"/>
       <c r="C323" s="1"/>
@@ -8396,7 +8442,7 @@
       <c r="T323" s="1"/>
       <c r="U323" s="1"/>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:21">
       <c r="A324" s="7"/>
       <c r="B324" s="3"/>
       <c r="C324" s="1"/>
@@ -8419,7 +8465,7 @@
       <c r="T324" s="1"/>
       <c r="U324" s="1"/>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:21">
       <c r="A325" s="7"/>
       <c r="B325" s="3"/>
       <c r="C325" s="1"/>
@@ -8442,7 +8488,7 @@
       <c r="T325" s="1"/>
       <c r="U325" s="1"/>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:21">
       <c r="A326" s="7"/>
       <c r="B326" s="3"/>
       <c r="C326" s="1"/>
@@ -8465,7 +8511,7 @@
       <c r="T326" s="1"/>
       <c r="U326" s="1"/>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:21">
       <c r="A327" s="7"/>
       <c r="B327" s="3"/>
       <c r="C327" s="1"/>
@@ -8488,7 +8534,7 @@
       <c r="T327" s="1"/>
       <c r="U327" s="1"/>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:21">
       <c r="A328" s="7"/>
       <c r="B328" s="3"/>
       <c r="C328" s="1"/>
@@ -8511,7 +8557,7 @@
       <c r="T328" s="1"/>
       <c r="U328" s="1"/>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:21">
       <c r="A329" s="7"/>
       <c r="B329" s="3"/>
       <c r="C329" s="1"/>
@@ -8534,7 +8580,7 @@
       <c r="T329" s="1"/>
       <c r="U329" s="1"/>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:21">
       <c r="A330" s="7"/>
       <c r="B330" s="3"/>
       <c r="C330" s="1"/>
@@ -8557,7 +8603,7 @@
       <c r="T330" s="1"/>
       <c r="U330" s="1"/>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:21">
       <c r="A331" s="7"/>
       <c r="B331" s="3"/>
       <c r="C331" s="1"/>
@@ -8580,7 +8626,7 @@
       <c r="T331" s="1"/>
       <c r="U331" s="1"/>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:21">
       <c r="A332" s="7"/>
       <c r="B332" s="3"/>
       <c r="C332" s="1"/>
@@ -8603,7 +8649,7 @@
       <c r="T332" s="1"/>
       <c r="U332" s="1"/>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:21">
       <c r="A333" s="7"/>
       <c r="B333" s="3"/>
       <c r="C333" s="1"/>
@@ -8626,7 +8672,7 @@
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:21">
       <c r="A334" s="7"/>
       <c r="B334" s="3"/>
       <c r="C334" s="1"/>
@@ -8649,7 +8695,7 @@
       <c r="T334" s="1"/>
       <c r="U334" s="1"/>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:21">
       <c r="A335" s="7"/>
       <c r="B335" s="3"/>
       <c r="C335" s="1"/>
@@ -8672,7 +8718,7 @@
       <c r="T335" s="1"/>
       <c r="U335" s="1"/>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:21">
       <c r="A336" s="7"/>
       <c r="B336" s="3"/>
       <c r="C336" s="1"/>
@@ -8695,7 +8741,7 @@
       <c r="T336" s="1"/>
       <c r="U336" s="1"/>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:21">
       <c r="A337" s="7"/>
       <c r="B337" s="3"/>
       <c r="C337" s="1"/>
@@ -8718,7 +8764,7 @@
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:21">
       <c r="A338" s="7"/>
       <c r="B338" s="3"/>
       <c r="C338" s="1"/>
@@ -8741,7 +8787,7 @@
       <c r="T338" s="1"/>
       <c r="U338" s="1"/>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:21">
       <c r="A339" s="7"/>
       <c r="B339" s="3"/>
       <c r="C339" s="1"/>
@@ -8764,7 +8810,7 @@
       <c r="T339" s="1"/>
       <c r="U339" s="1"/>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:21">
       <c r="A340" s="7"/>
       <c r="B340" s="3"/>
       <c r="C340" s="1"/>
@@ -8787,7 +8833,7 @@
       <c r="T340" s="1"/>
       <c r="U340" s="1"/>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:21">
       <c r="A341" s="7"/>
       <c r="B341" s="3"/>
       <c r="C341" s="1"/>
@@ -8810,7 +8856,7 @@
       <c r="T341" s="1"/>
       <c r="U341" s="1"/>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:21">
       <c r="A342" s="7"/>
       <c r="B342" s="3"/>
       <c r="C342" s="1"/>
@@ -8833,7 +8879,7 @@
       <c r="T342" s="1"/>
       <c r="U342" s="1"/>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:21">
       <c r="A343" s="7"/>
       <c r="B343" s="3"/>
       <c r="C343" s="1"/>
@@ -8856,7 +8902,7 @@
       <c r="T343" s="1"/>
       <c r="U343" s="1"/>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:21">
       <c r="A344" s="7"/>
       <c r="B344" s="3"/>
       <c r="C344" s="1"/>
@@ -8879,7 +8925,7 @@
       <c r="T344" s="1"/>
       <c r="U344" s="1"/>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:21">
       <c r="A345" s="7"/>
       <c r="B345" s="3"/>
       <c r="C345" s="1"/>
@@ -8902,7 +8948,7 @@
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:21">
       <c r="A346" s="7"/>
       <c r="B346" s="3"/>
       <c r="C346" s="1"/>
@@ -8925,7 +8971,7 @@
       <c r="T346" s="1"/>
       <c r="U346" s="1"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:21">
       <c r="A347" s="7"/>
       <c r="B347" s="3"/>
       <c r="C347" s="1"/>
@@ -8948,7 +8994,7 @@
       <c r="T347" s="1"/>
       <c r="U347" s="1"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:21">
       <c r="A348" s="7"/>
       <c r="B348" s="3"/>
       <c r="C348" s="1"/>
@@ -8971,7 +9017,7 @@
       <c r="T348" s="1"/>
       <c r="U348" s="1"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:21">
       <c r="A349" s="7"/>
       <c r="B349" s="3"/>
       <c r="C349" s="1"/>
@@ -8994,7 +9040,7 @@
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:21">
       <c r="A350" s="7"/>
       <c r="B350" s="3"/>
       <c r="C350" s="1"/>
@@ -9017,7 +9063,7 @@
       <c r="T350" s="1"/>
       <c r="U350" s="1"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:21">
       <c r="A351" s="7"/>
       <c r="B351" s="3"/>
       <c r="C351" s="1"/>
@@ -9040,7 +9086,7 @@
       <c r="T351" s="1"/>
       <c r="U351" s="1"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:21">
       <c r="A352" s="7"/>
       <c r="B352" s="3"/>
       <c r="C352" s="1"/>
@@ -9063,7 +9109,7 @@
       <c r="T352" s="1"/>
       <c r="U352" s="1"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:21">
       <c r="A353" s="7"/>
       <c r="B353" s="3"/>
       <c r="C353" s="1"/>
@@ -9086,7 +9132,7 @@
       <c r="T353" s="1"/>
       <c r="U353" s="1"/>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:21">
       <c r="A354" s="7"/>
       <c r="B354" s="3"/>
       <c r="C354" s="1"/>
@@ -9109,7 +9155,7 @@
       <c r="T354" s="1"/>
       <c r="U354" s="1"/>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:21">
       <c r="A355" s="7"/>
       <c r="B355" s="3"/>
       <c r="C355" s="1"/>
@@ -9132,7 +9178,7 @@
       <c r="T355" s="1"/>
       <c r="U355" s="1"/>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:21">
       <c r="A356" s="7"/>
       <c r="B356" s="3"/>
       <c r="C356" s="1"/>
@@ -9155,7 +9201,7 @@
       <c r="T356" s="1"/>
       <c r="U356" s="1"/>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:21">
       <c r="A357" s="7"/>
       <c r="B357" s="3"/>
       <c r="C357" s="1"/>
@@ -9178,7 +9224,7 @@
       <c r="T357" s="1"/>
       <c r="U357" s="1"/>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:21">
       <c r="A358" s="7"/>
       <c r="B358" s="3"/>
       <c r="C358" s="1"/>
@@ -9201,7 +9247,7 @@
       <c r="T358" s="1"/>
       <c r="U358" s="1"/>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:21">
       <c r="A359" s="7"/>
       <c r="B359" s="3"/>
       <c r="C359" s="1"/>
@@ -9224,7 +9270,7 @@
       <c r="T359" s="1"/>
       <c r="U359" s="1"/>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:21">
       <c r="A360" s="7"/>
       <c r="B360" s="3"/>
       <c r="C360" s="1"/>
@@ -9247,7 +9293,7 @@
       <c r="T360" s="1"/>
       <c r="U360" s="1"/>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:21">
       <c r="A361" s="7"/>
       <c r="B361" s="3"/>
       <c r="C361" s="1"/>
@@ -9270,7 +9316,7 @@
       <c r="T361" s="1"/>
       <c r="U361" s="1"/>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:21">
       <c r="A362" s="7"/>
       <c r="B362" s="3"/>
       <c r="C362" s="1"/>
@@ -9293,7 +9339,7 @@
       <c r="T362" s="1"/>
       <c r="U362" s="1"/>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:21">
       <c r="A363" s="7"/>
       <c r="B363" s="3"/>
       <c r="C363" s="1"/>
@@ -9316,7 +9362,7 @@
       <c r="T363" s="1"/>
       <c r="U363" s="1"/>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:21">
       <c r="A364" s="7"/>
       <c r="B364" s="3"/>
       <c r="C364" s="1"/>
@@ -9339,7 +9385,7 @@
       <c r="T364" s="1"/>
       <c r="U364" s="1"/>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:21">
       <c r="A365" s="7"/>
       <c r="B365" s="3"/>
       <c r="C365" s="1"/>
@@ -9362,7 +9408,7 @@
       <c r="T365" s="1"/>
       <c r="U365" s="1"/>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:21">
       <c r="A366" s="7"/>
       <c r="B366" s="3"/>
       <c r="C366" s="1"/>
@@ -9385,7 +9431,7 @@
       <c r="T366" s="1"/>
       <c r="U366" s="1"/>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:21">
       <c r="A367" s="7"/>
       <c r="B367" s="3"/>
       <c r="C367" s="1"/>
@@ -9408,7 +9454,7 @@
       <c r="T367" s="1"/>
       <c r="U367" s="1"/>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:21">
       <c r="A368" s="7"/>
       <c r="B368" s="3"/>
       <c r="C368" s="1"/>
@@ -9431,7 +9477,7 @@
       <c r="T368" s="1"/>
       <c r="U368" s="1"/>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:21">
       <c r="A369" s="7"/>
       <c r="B369" s="3"/>
       <c r="C369" s="1"/>
@@ -9454,7 +9500,7 @@
       <c r="T369" s="1"/>
       <c r="U369" s="1"/>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:21">
       <c r="A370" s="7"/>
       <c r="B370" s="3"/>
       <c r="C370" s="1"/>
@@ -9477,7 +9523,7 @@
       <c r="T370" s="1"/>
       <c r="U370" s="1"/>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:21">
       <c r="A371" s="7"/>
       <c r="B371" s="3"/>
       <c r="C371" s="1"/>
@@ -9500,7 +9546,7 @@
       <c r="T371" s="1"/>
       <c r="U371" s="1"/>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:21">
       <c r="A372" s="7"/>
       <c r="B372" s="3"/>
       <c r="C372" s="1"/>
@@ -9523,7 +9569,7 @@
       <c r="T372" s="1"/>
       <c r="U372" s="1"/>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:21">
       <c r="A373" s="7"/>
       <c r="B373" s="3"/>
       <c r="C373" s="1"/>
@@ -9546,7 +9592,7 @@
       <c r="T373" s="1"/>
       <c r="U373" s="1"/>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:21">
       <c r="A374" s="7"/>
       <c r="B374" s="3"/>
       <c r="C374" s="1"/>
@@ -9569,7 +9615,7 @@
       <c r="T374" s="1"/>
       <c r="U374" s="1"/>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:21">
       <c r="A375" s="7"/>
       <c r="B375" s="3"/>
       <c r="C375" s="1"/>
@@ -9592,7 +9638,7 @@
       <c r="T375" s="1"/>
       <c r="U375" s="1"/>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:21">
       <c r="A376" s="7"/>
       <c r="B376" s="3"/>
       <c r="C376" s="1"/>
@@ -9615,7 +9661,7 @@
       <c r="T376" s="1"/>
       <c r="U376" s="1"/>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:21">
       <c r="A377" s="7"/>
       <c r="B377" s="3"/>
       <c r="C377" s="1"/>
@@ -9638,7 +9684,7 @@
       <c r="T377" s="1"/>
       <c r="U377" s="1"/>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:21">
       <c r="A378" s="7"/>
       <c r="B378" s="3"/>
       <c r="C378" s="1"/>
@@ -9661,7 +9707,7 @@
       <c r="T378" s="1"/>
       <c r="U378" s="1"/>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:21">
       <c r="A379" s="7"/>
       <c r="B379" s="3"/>
       <c r="C379" s="1"/>
@@ -9684,7 +9730,7 @@
       <c r="T379" s="1"/>
       <c r="U379" s="1"/>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:21">
       <c r="A380" s="7"/>
       <c r="B380" s="3"/>
       <c r="C380" s="1"/>
@@ -9707,7 +9753,7 @@
       <c r="T380" s="1"/>
       <c r="U380" s="1"/>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:21">
       <c r="A381" s="7"/>
       <c r="B381" s="3"/>
       <c r="C381" s="1"/>
@@ -9730,7 +9776,7 @@
       <c r="T381" s="1"/>
       <c r="U381" s="1"/>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:21">
       <c r="A382" s="7"/>
       <c r="B382" s="3"/>
       <c r="C382" s="1"/>
@@ -9753,7 +9799,7 @@
       <c r="T382" s="1"/>
       <c r="U382" s="1"/>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:21">
       <c r="A383" s="7"/>
       <c r="B383" s="3"/>
       <c r="C383" s="1"/>
@@ -9776,7 +9822,7 @@
       <c r="T383" s="1"/>
       <c r="U383" s="1"/>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:21">
       <c r="A384" s="7"/>
       <c r="B384" s="3"/>
       <c r="C384" s="1"/>
@@ -9799,7 +9845,7 @@
       <c r="T384" s="1"/>
       <c r="U384" s="1"/>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:21">
       <c r="A385" s="7"/>
       <c r="B385" s="3"/>
       <c r="C385" s="1"/>
@@ -9822,7 +9868,7 @@
       <c r="T385" s="1"/>
       <c r="U385" s="1"/>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:21">
       <c r="A386" s="7"/>
       <c r="B386" s="3"/>
       <c r="C386" s="1"/>
@@ -9845,7 +9891,7 @@
       <c r="T386" s="1"/>
       <c r="U386" s="1"/>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:21">
       <c r="A387" s="7"/>
       <c r="B387" s="3"/>
       <c r="C387" s="1"/>
@@ -9868,7 +9914,7 @@
       <c r="T387" s="1"/>
       <c r="U387" s="1"/>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:21">
       <c r="A388" s="7"/>
       <c r="B388" s="3"/>
       <c r="C388" s="1"/>
@@ -9891,7 +9937,7 @@
       <c r="T388" s="1"/>
       <c r="U388" s="1"/>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:21">
       <c r="A389" s="7"/>
       <c r="B389" s="3"/>
       <c r="C389" s="1"/>
@@ -9914,7 +9960,7 @@
       <c r="T389" s="1"/>
       <c r="U389" s="1"/>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:21">
       <c r="A390" s="7"/>
       <c r="B390" s="3"/>
       <c r="C390" s="1"/>
@@ -9937,7 +9983,7 @@
       <c r="T390" s="1"/>
       <c r="U390" s="1"/>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:21">
       <c r="A391" s="7"/>
       <c r="B391" s="3"/>
       <c r="C391" s="1"/>
@@ -9960,7 +10006,7 @@
       <c r="T391" s="1"/>
       <c r="U391" s="1"/>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:21">
       <c r="A392" s="7"/>
       <c r="B392" s="3"/>
       <c r="C392" s="1"/>
@@ -9983,7 +10029,7 @@
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:21">
       <c r="A393" s="7"/>
       <c r="B393" s="3"/>
       <c r="C393" s="1"/>
@@ -10006,7 +10052,7 @@
       <c r="T393" s="1"/>
       <c r="U393" s="1"/>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:21">
       <c r="A394" s="7"/>
       <c r="B394" s="3"/>
       <c r="C394" s="1"/>
@@ -10029,7 +10075,7 @@
       <c r="T394" s="1"/>
       <c r="U394" s="1"/>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:21">
       <c r="A395" s="7"/>
       <c r="B395" s="3"/>
       <c r="C395" s="1"/>
@@ -10052,7 +10098,7 @@
       <c r="T395" s="1"/>
       <c r="U395" s="1"/>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:21">
       <c r="A396" s="7"/>
       <c r="B396" s="3"/>
       <c r="C396" s="1"/>
@@ -10075,7 +10121,7 @@
       <c r="T396" s="1"/>
       <c r="U396" s="1"/>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:21">
       <c r="A397" s="7"/>
       <c r="B397" s="3"/>
       <c r="C397" s="1"/>
@@ -10098,7 +10144,7 @@
       <c r="T397" s="1"/>
       <c r="U397" s="1"/>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:21">
       <c r="A398" s="7"/>
       <c r="B398" s="3"/>
       <c r="C398" s="1"/>
@@ -10121,7 +10167,7 @@
       <c r="T398" s="1"/>
       <c r="U398" s="1"/>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:21">
       <c r="A399" s="7"/>
       <c r="B399" s="3"/>
       <c r="C399" s="1"/>
@@ -10144,7 +10190,7 @@
       <c r="T399" s="1"/>
       <c r="U399" s="1"/>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:21">
       <c r="A400" s="7"/>
       <c r="B400" s="3"/>
       <c r="C400" s="1"/>
@@ -10167,7 +10213,7 @@
       <c r="T400" s="1"/>
       <c r="U400" s="1"/>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:21">
       <c r="A401" s="7"/>
       <c r="B401" s="3"/>
       <c r="C401" s="1"/>
@@ -10190,7 +10236,7 @@
       <c r="T401" s="1"/>
       <c r="U401" s="1"/>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:21">
       <c r="A402" s="7"/>
       <c r="B402" s="3"/>
       <c r="C402" s="1"/>
@@ -10213,7 +10259,7 @@
       <c r="T402" s="1"/>
       <c r="U402" s="1"/>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:21">
       <c r="A403" s="7"/>
       <c r="B403" s="3"/>
       <c r="C403" s="1"/>
@@ -10236,7 +10282,7 @@
       <c r="T403" s="1"/>
       <c r="U403" s="1"/>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:21">
       <c r="A404" s="7"/>
       <c r="B404" s="3"/>
       <c r="C404" s="1"/>
@@ -10259,7 +10305,7 @@
       <c r="T404" s="1"/>
       <c r="U404" s="1"/>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:21">
       <c r="A405" s="7"/>
       <c r="B405" s="3"/>
       <c r="C405" s="1"/>
@@ -10282,7 +10328,7 @@
       <c r="T405" s="1"/>
       <c r="U405" s="1"/>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:21">
       <c r="A406" s="7"/>
       <c r="B406" s="3"/>
       <c r="C406" s="1"/>
@@ -10305,7 +10351,7 @@
       <c r="T406" s="1"/>
       <c r="U406" s="1"/>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:21">
       <c r="A407" s="7"/>
       <c r="B407" s="3"/>
       <c r="C407" s="1"/>
@@ -10328,7 +10374,7 @@
       <c r="T407" s="1"/>
       <c r="U407" s="1"/>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:21">
       <c r="A408" s="7"/>
       <c r="B408" s="3"/>
       <c r="C408" s="1"/>
@@ -10351,7 +10397,7 @@
       <c r="T408" s="1"/>
       <c r="U408" s="1"/>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:21">
       <c r="A409" s="7"/>
       <c r="B409" s="3"/>
       <c r="C409" s="1"/>
@@ -10374,7 +10420,7 @@
       <c r="T409" s="1"/>
       <c r="U409" s="1"/>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:21">
       <c r="A410" s="7"/>
       <c r="B410" s="3"/>
       <c r="C410" s="1"/>
@@ -10397,7 +10443,7 @@
       <c r="T410" s="1"/>
       <c r="U410" s="1"/>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:21">
       <c r="A411" s="7"/>
       <c r="B411" s="3"/>
       <c r="C411" s="1"/>
@@ -10420,7 +10466,7 @@
       <c r="T411" s="1"/>
       <c r="U411" s="1"/>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:21">
       <c r="A412" s="7"/>
       <c r="B412" s="3"/>
       <c r="C412" s="1"/>
@@ -10443,7 +10489,7 @@
       <c r="T412" s="1"/>
       <c r="U412" s="1"/>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:21">
       <c r="A413" s="7"/>
       <c r="B413" s="3"/>
       <c r="C413" s="1"/>
@@ -10466,7 +10512,7 @@
       <c r="T413" s="1"/>
       <c r="U413" s="1"/>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:21">
       <c r="A414" s="7"/>
       <c r="B414" s="3"/>
       <c r="C414" s="1"/>
@@ -10489,7 +10535,7 @@
       <c r="T414" s="1"/>
       <c r="U414" s="1"/>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:21">
       <c r="A415" s="7"/>
       <c r="B415" s="3"/>
       <c r="C415" s="1"/>
@@ -10512,7 +10558,7 @@
       <c r="T415" s="1"/>
       <c r="U415" s="1"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:21">
       <c r="A416" s="7"/>
       <c r="B416" s="3"/>
       <c r="C416" s="1"/>
@@ -10535,7 +10581,7 @@
       <c r="T416" s="1"/>
       <c r="U416" s="1"/>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:21">
       <c r="A417" s="7"/>
       <c r="B417" s="3"/>
       <c r="C417" s="1"/>
@@ -10558,7 +10604,7 @@
       <c r="T417" s="1"/>
       <c r="U417" s="1"/>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:21">
       <c r="A418" s="7"/>
       <c r="B418" s="3"/>
       <c r="C418" s="1"/>
@@ -10581,7 +10627,7 @@
       <c r="T418" s="1"/>
       <c r="U418" s="1"/>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:21">
       <c r="A419" s="7"/>
       <c r="B419" s="3"/>
       <c r="C419" s="1"/>
@@ -10604,7 +10650,7 @@
       <c r="T419" s="1"/>
       <c r="U419" s="1"/>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:21">
       <c r="A420" s="7"/>
       <c r="B420" s="3"/>
       <c r="C420" s="1"/>
@@ -10627,7 +10673,7 @@
       <c r="T420" s="1"/>
       <c r="U420" s="1"/>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:21">
       <c r="A421" s="7"/>
       <c r="B421" s="3"/>
       <c r="C421" s="1"/>
@@ -10650,7 +10696,7 @@
       <c r="T421" s="1"/>
       <c r="U421" s="1"/>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:21">
       <c r="A422" s="7"/>
       <c r="B422" s="3"/>
       <c r="C422" s="1"/>
@@ -10673,7 +10719,7 @@
       <c r="T422" s="1"/>
       <c r="U422" s="1"/>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:21">
       <c r="A423" s="7"/>
       <c r="B423" s="3"/>
       <c r="C423" s="1"/>
@@ -10696,7 +10742,7 @@
       <c r="T423" s="1"/>
       <c r="U423" s="1"/>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:21">
       <c r="A424" s="7"/>
       <c r="B424" s="3"/>
       <c r="C424" s="1"/>
@@ -10719,7 +10765,7 @@
       <c r="T424" s="1"/>
       <c r="U424" s="1"/>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:21">
       <c r="A425" s="7"/>
       <c r="B425" s="3"/>
       <c r="C425" s="1"/>
@@ -10742,7 +10788,7 @@
       <c r="T425" s="1"/>
       <c r="U425" s="1"/>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:21">
       <c r="A426" s="7"/>
       <c r="B426" s="3"/>
       <c r="C426" s="1"/>
@@ -10765,7 +10811,7 @@
       <c r="T426" s="1"/>
       <c r="U426" s="1"/>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:21">
       <c r="A427" s="7"/>
       <c r="B427" s="3"/>
       <c r="C427" s="1"/>
@@ -10788,7 +10834,7 @@
       <c r="T427" s="1"/>
       <c r="U427" s="1"/>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:21">
       <c r="A428" s="7"/>
       <c r="B428" s="3"/>
       <c r="C428" s="1"/>
@@ -10811,7 +10857,7 @@
       <c r="T428" s="1"/>
       <c r="U428" s="1"/>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:21">
       <c r="A429" s="7"/>
       <c r="B429" s="3"/>
       <c r="C429" s="1"/>
@@ -10834,7 +10880,7 @@
       <c r="T429" s="1"/>
       <c r="U429" s="1"/>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:21">
       <c r="A430" s="7"/>
       <c r="B430" s="3"/>
       <c r="C430" s="1"/>
@@ -10857,7 +10903,7 @@
       <c r="T430" s="1"/>
       <c r="U430" s="1"/>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:21">
       <c r="A431" s="7"/>
       <c r="B431" s="3"/>
       <c r="C431" s="1"/>
@@ -10880,7 +10926,7 @@
       <c r="T431" s="1"/>
       <c r="U431" s="1"/>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:21">
       <c r="A432" s="7"/>
       <c r="B432" s="3"/>
       <c r="C432" s="1"/>
@@ -10903,7 +10949,7 @@
       <c r="T432" s="1"/>
       <c r="U432" s="1"/>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:21">
       <c r="A433" s="7"/>
       <c r="B433" s="3"/>
       <c r="C433" s="1"/>
@@ -10926,7 +10972,7 @@
       <c r="T433" s="1"/>
       <c r="U433" s="1"/>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:21">
       <c r="A434" s="7"/>
       <c r="B434" s="3"/>
       <c r="C434" s="1"/>
@@ -10949,7 +10995,7 @@
       <c r="T434" s="1"/>
       <c r="U434" s="1"/>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:21">
       <c r="A435" s="7"/>
       <c r="B435" s="3"/>
       <c r="C435" s="1"/>
@@ -10972,7 +11018,7 @@
       <c r="T435" s="1"/>
       <c r="U435" s="1"/>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:21">
       <c r="A436" s="7"/>
       <c r="B436" s="3"/>
       <c r="C436" s="1"/>
@@ -10995,7 +11041,7 @@
       <c r="T436" s="1"/>
       <c r="U436" s="1"/>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:21">
       <c r="A437" s="7"/>
       <c r="B437" s="3"/>
       <c r="C437" s="1"/>
@@ -11018,7 +11064,7 @@
       <c r="T437" s="1"/>
       <c r="U437" s="1"/>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:21">
       <c r="A438" s="7"/>
       <c r="B438" s="3"/>
       <c r="C438" s="1"/>
@@ -11041,7 +11087,7 @@
       <c r="T438" s="1"/>
       <c r="U438" s="1"/>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:21">
       <c r="A439" s="7"/>
       <c r="B439" s="3"/>
       <c r="C439" s="1"/>
@@ -11064,7 +11110,7 @@
       <c r="T439" s="1"/>
       <c r="U439" s="1"/>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:21">
       <c r="A440" s="7"/>
       <c r="B440" s="3"/>
       <c r="C440" s="1"/>
@@ -11087,7 +11133,7 @@
       <c r="T440" s="1"/>
       <c r="U440" s="1"/>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:21">
       <c r="A441" s="7"/>
       <c r="B441" s="3"/>
       <c r="C441" s="1"/>
@@ -11110,7 +11156,7 @@
       <c r="T441" s="1"/>
       <c r="U441" s="1"/>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:21">
       <c r="A442" s="7"/>
       <c r="B442" s="3"/>
       <c r="C442" s="1"/>
@@ -11133,7 +11179,7 @@
       <c r="T442" s="1"/>
       <c r="U442" s="1"/>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:21">
       <c r="A443" s="7"/>
       <c r="B443" s="3"/>
       <c r="C443" s="1"/>
@@ -11156,7 +11202,7 @@
       <c r="T443" s="1"/>
       <c r="U443" s="1"/>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:21">
       <c r="A444" s="7"/>
       <c r="B444" s="3"/>
       <c r="C444" s="1"/>
@@ -11179,7 +11225,7 @@
       <c r="T444" s="1"/>
       <c r="U444" s="1"/>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:21">
       <c r="A445" s="7"/>
       <c r="B445" s="3"/>
       <c r="C445" s="1"/>
@@ -11202,7 +11248,7 @@
       <c r="T445" s="1"/>
       <c r="U445" s="1"/>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:21">
       <c r="A446" s="7"/>
       <c r="B446" s="3"/>
       <c r="C446" s="1"/>
@@ -11225,7 +11271,7 @@
       <c r="T446" s="1"/>
       <c r="U446" s="1"/>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:21">
       <c r="A447" s="7"/>
       <c r="B447" s="3"/>
       <c r="C447" s="1"/>
@@ -11248,7 +11294,7 @@
       <c r="T447" s="1"/>
       <c r="U447" s="1"/>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:21">
       <c r="A448" s="7"/>
       <c r="B448" s="3"/>
       <c r="C448" s="1"/>
@@ -11271,7 +11317,7 @@
       <c r="T448" s="1"/>
       <c r="U448" s="1"/>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:21">
       <c r="A449" s="7"/>
       <c r="B449" s="3"/>
       <c r="C449" s="1"/>
@@ -11294,7 +11340,7 @@
       <c r="T449" s="1"/>
       <c r="U449" s="1"/>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:21">
       <c r="A450" s="7"/>
       <c r="B450" s="3"/>
       <c r="C450" s="1"/>
@@ -11317,7 +11363,7 @@
       <c r="T450" s="1"/>
       <c r="U450" s="1"/>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:21">
       <c r="A451" s="7"/>
       <c r="B451" s="3"/>
       <c r="C451" s="1"/>
@@ -11340,7 +11386,7 @@
       <c r="T451" s="1"/>
       <c r="U451" s="1"/>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:21">
       <c r="A452" s="7"/>
       <c r="B452" s="3"/>
       <c r="C452" s="1"/>
@@ -11363,7 +11409,7 @@
       <c r="T452" s="1"/>
       <c r="U452" s="1"/>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:21">
       <c r="A453" s="7"/>
       <c r="B453" s="3"/>
       <c r="C453" s="1"/>
@@ -11386,7 +11432,7 @@
       <c r="T453" s="1"/>
       <c r="U453" s="1"/>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:21">
       <c r="A454" s="7"/>
       <c r="B454" s="3"/>
       <c r="C454" s="1"/>
@@ -11409,7 +11455,7 @@
       <c r="T454" s="1"/>
       <c r="U454" s="1"/>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:21">
       <c r="A455" s="7"/>
       <c r="B455" s="3"/>
       <c r="C455" s="1"/>
@@ -11432,7 +11478,7 @@
       <c r="T455" s="1"/>
       <c r="U455" s="1"/>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:21">
       <c r="A456" s="7"/>
       <c r="B456" s="3"/>
       <c r="C456" s="1"/>
@@ -11455,7 +11501,7 @@
       <c r="T456" s="1"/>
       <c r="U456" s="1"/>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:21">
       <c r="A457" s="7"/>
       <c r="B457" s="3"/>
       <c r="C457" s="1"/>
@@ -11478,7 +11524,7 @@
       <c r="T457" s="1"/>
       <c r="U457" s="1"/>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:21">
       <c r="A458" s="7"/>
       <c r="B458" s="3"/>
       <c r="C458" s="1"/>
@@ -11501,7 +11547,7 @@
       <c r="T458" s="1"/>
       <c r="U458" s="1"/>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:21">
       <c r="A459" s="7"/>
       <c r="B459" s="3"/>
       <c r="C459" s="1"/>
@@ -11524,7 +11570,7 @@
       <c r="T459" s="1"/>
       <c r="U459" s="1"/>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:21">
       <c r="A460" s="7"/>
       <c r="B460" s="3"/>
       <c r="C460" s="1"/>
@@ -11547,7 +11593,7 @@
       <c r="T460" s="1"/>
       <c r="U460" s="1"/>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:21">
       <c r="A461" s="7"/>
       <c r="B461" s="3"/>
       <c r="C461" s="1"/>
@@ -11570,7 +11616,7 @@
       <c r="T461" s="1"/>
       <c r="U461" s="1"/>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:21">
       <c r="A462" s="7"/>
       <c r="B462" s="3"/>
       <c r="C462" s="1"/>
@@ -11593,7 +11639,7 @@
       <c r="T462" s="1"/>
       <c r="U462" s="1"/>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:21">
       <c r="A463" s="7"/>
       <c r="B463" s="3"/>
       <c r="C463" s="1"/>
@@ -11616,7 +11662,7 @@
       <c r="T463" s="1"/>
       <c r="U463" s="1"/>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:21">
       <c r="A464" s="7"/>
       <c r="B464" s="3"/>
       <c r="C464" s="1"/>
@@ -11639,7 +11685,7 @@
       <c r="T464" s="1"/>
       <c r="U464" s="1"/>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:21">
       <c r="A465" s="7"/>
       <c r="B465" s="3"/>
       <c r="C465" s="1"/>
@@ -11662,7 +11708,7 @@
       <c r="T465" s="1"/>
       <c r="U465" s="1"/>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:21">
       <c r="A466" s="7"/>
       <c r="B466" s="3"/>
       <c r="C466" s="1"/>
@@ -11685,7 +11731,7 @@
       <c r="T466" s="1"/>
       <c r="U466" s="1"/>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:21">
       <c r="A467" s="7"/>
       <c r="B467" s="3"/>
       <c r="C467" s="1"/>
@@ -11708,7 +11754,7 @@
       <c r="T467" s="1"/>
       <c r="U467" s="1"/>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:21">
       <c r="A468" s="7"/>
       <c r="B468" s="3"/>
       <c r="C468" s="1"/>
@@ -11731,7 +11777,7 @@
       <c r="T468" s="1"/>
       <c r="U468" s="1"/>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:21">
       <c r="A469" s="7"/>
       <c r="B469" s="3"/>
       <c r="C469" s="1"/>
@@ -11754,7 +11800,7 @@
       <c r="T469" s="1"/>
       <c r="U469" s="1"/>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:21">
       <c r="A470" s="7"/>
       <c r="B470" s="3"/>
       <c r="C470" s="1"/>
@@ -11777,7 +11823,7 @@
       <c r="T470" s="1"/>
       <c r="U470" s="1"/>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:21">
       <c r="A471" s="7"/>
       <c r="B471" s="3"/>
       <c r="C471" s="1"/>
@@ -11800,7 +11846,7 @@
       <c r="T471" s="1"/>
       <c r="U471" s="1"/>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:21">
       <c r="A472" s="7"/>
       <c r="B472" s="3"/>
       <c r="C472" s="1"/>
@@ -11823,7 +11869,7 @@
       <c r="T472" s="1"/>
       <c r="U472" s="1"/>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:21">
       <c r="A473" s="7"/>
       <c r="B473" s="3"/>
       <c r="C473" s="1"/>
@@ -11846,7 +11892,7 @@
       <c r="T473" s="1"/>
       <c r="U473" s="1"/>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:21">
       <c r="A474" s="7"/>
       <c r="B474" s="3"/>
       <c r="C474" s="1"/>
@@ -11869,7 +11915,7 @@
       <c r="T474" s="1"/>
       <c r="U474" s="1"/>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:21">
       <c r="A475" s="7"/>
       <c r="B475" s="3"/>
       <c r="C475" s="1"/>
@@ -11892,7 +11938,7 @@
       <c r="T475" s="1"/>
       <c r="U475" s="1"/>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:21">
       <c r="A476" s="7"/>
       <c r="B476" s="3"/>
       <c r="C476" s="1"/>
@@ -11915,7 +11961,7 @@
       <c r="T476" s="1"/>
       <c r="U476" s="1"/>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:21">
       <c r="A477" s="7"/>
       <c r="B477" s="3"/>
       <c r="C477" s="1"/>
@@ -11938,7 +11984,7 @@
       <c r="T477" s="1"/>
       <c r="U477" s="1"/>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:21">
       <c r="A478" s="7"/>
       <c r="B478" s="3"/>
       <c r="C478" s="1"/>
@@ -11961,7 +12007,7 @@
       <c r="T478" s="1"/>
       <c r="U478" s="1"/>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:21">
       <c r="A479" s="7"/>
       <c r="B479" s="3"/>
       <c r="C479" s="1"/>
@@ -11984,7 +12030,7 @@
       <c r="T479" s="1"/>
       <c r="U479" s="1"/>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:21">
       <c r="A480" s="7"/>
       <c r="B480" s="3"/>
       <c r="C480" s="1"/>
@@ -12007,7 +12053,7 @@
       <c r="T480" s="1"/>
       <c r="U480" s="1"/>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:21">
       <c r="A481" s="7"/>
       <c r="B481" s="3"/>
       <c r="C481" s="1"/>
@@ -12030,7 +12076,7 @@
       <c r="T481" s="1"/>
       <c r="U481" s="1"/>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:21">
       <c r="A482" s="7"/>
       <c r="B482" s="3"/>
       <c r="C482" s="1"/>
@@ -12053,7 +12099,7 @@
       <c r="T482" s="1"/>
       <c r="U482" s="1"/>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:21">
       <c r="A483" s="7"/>
       <c r="B483" s="3"/>
       <c r="C483" s="1"/>
@@ -12076,7 +12122,7 @@
       <c r="T483" s="1"/>
       <c r="U483" s="1"/>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:21">
       <c r="A484" s="7"/>
       <c r="B484" s="3"/>
       <c r="C484" s="1"/>
@@ -12099,7 +12145,7 @@
       <c r="T484" s="1"/>
       <c r="U484" s="1"/>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:21">
       <c r="A485" s="7"/>
       <c r="B485" s="3"/>
       <c r="C485" s="1"/>
@@ -12122,7 +12168,7 @@
       <c r="T485" s="1"/>
       <c r="U485" s="1"/>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:21">
       <c r="A486" s="7"/>
       <c r="B486" s="3"/>
       <c r="C486" s="1"/>
@@ -12145,7 +12191,7 @@
       <c r="T486" s="1"/>
       <c r="U486" s="1"/>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:21">
       <c r="A487" s="7"/>
       <c r="B487" s="3"/>
       <c r="C487" s="1"/>
@@ -12168,7 +12214,7 @@
       <c r="T487" s="1"/>
       <c r="U487" s="1"/>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:21">
       <c r="A488" s="7"/>
       <c r="B488" s="3"/>
       <c r="C488" s="1"/>
@@ -12191,7 +12237,7 @@
       <c r="T488" s="1"/>
       <c r="U488" s="1"/>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:21">
       <c r="A489" s="7"/>
       <c r="B489" s="3"/>
       <c r="C489" s="1"/>
@@ -12214,7 +12260,7 @@
       <c r="T489" s="1"/>
       <c r="U489" s="1"/>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:21">
       <c r="A490" s="7"/>
       <c r="B490" s="3"/>
       <c r="C490" s="1"/>
@@ -12237,7 +12283,7 @@
       <c r="T490" s="1"/>
       <c r="U490" s="1"/>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:21">
       <c r="A491" s="7"/>
       <c r="B491" s="3"/>
       <c r="C491" s="1"/>
@@ -12260,7 +12306,7 @@
       <c r="T491" s="1"/>
       <c r="U491" s="1"/>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:21">
       <c r="A492" s="7"/>
       <c r="B492" s="3"/>
       <c r="C492" s="1"/>
@@ -12283,7 +12329,7 @@
       <c r="T492" s="1"/>
       <c r="U492" s="1"/>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:21">
       <c r="A493" s="7"/>
       <c r="B493" s="3"/>
       <c r="C493" s="1"/>
@@ -12306,7 +12352,7 @@
       <c r="T493" s="1"/>
       <c r="U493" s="1"/>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:21">
       <c r="A494" s="7"/>
       <c r="B494" s="3"/>
       <c r="C494" s="1"/>
@@ -12329,7 +12375,7 @@
       <c r="T494" s="1"/>
       <c r="U494" s="1"/>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:21">
       <c r="A495" s="7"/>
       <c r="B495" s="3"/>
       <c r="C495" s="1"/>
@@ -12352,7 +12398,7 @@
       <c r="T495" s="1"/>
       <c r="U495" s="1"/>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:21">
       <c r="A496" s="7"/>
       <c r="B496" s="3"/>
       <c r="C496" s="1"/>
@@ -12375,7 +12421,7 @@
       <c r="T496" s="1"/>
       <c r="U496" s="1"/>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:21">
       <c r="A497" s="7"/>
       <c r="B497" s="3"/>
       <c r="C497" s="1"/>
@@ -12398,7 +12444,7 @@
       <c r="T497" s="1"/>
       <c r="U497" s="1"/>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:21">
       <c r="A498" s="7"/>
       <c r="B498" s="3"/>
       <c r="C498" s="1"/>
@@ -12421,7 +12467,7 @@
       <c r="T498" s="1"/>
       <c r="U498" s="1"/>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:21">
       <c r="A499" s="7"/>
       <c r="B499" s="3"/>
       <c r="C499" s="1"/>
@@ -12444,7 +12490,7 @@
       <c r="T499" s="1"/>
       <c r="U499" s="1"/>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:21">
       <c r="A500" s="7"/>
       <c r="B500" s="3"/>
       <c r="C500" s="1"/>
@@ -12467,7 +12513,7 @@
       <c r="T500" s="1"/>
       <c r="U500" s="1"/>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:21">
       <c r="A501" s="7"/>
       <c r="B501" s="3"/>
       <c r="C501" s="1"/>
@@ -12490,7 +12536,7 @@
       <c r="T501" s="1"/>
       <c r="U501" s="1"/>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:21">
       <c r="A502" s="7"/>
       <c r="B502" s="3"/>
       <c r="C502" s="1"/>
@@ -12513,7 +12559,7 @@
       <c r="T502" s="1"/>
       <c r="U502" s="1"/>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:21">
       <c r="A503" s="7"/>
       <c r="B503" s="3"/>
       <c r="C503" s="1"/>
@@ -12536,7 +12582,7 @@
       <c r="T503" s="1"/>
       <c r="U503" s="1"/>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:21">
       <c r="A504" s="7"/>
       <c r="B504" s="3"/>
       <c r="C504" s="1"/>
@@ -12559,7 +12605,7 @@
       <c r="T504" s="1"/>
       <c r="U504" s="1"/>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:21">
       <c r="A505" s="7"/>
       <c r="B505" s="3"/>
       <c r="C505" s="1"/>
@@ -12582,7 +12628,7 @@
       <c r="T505" s="1"/>
       <c r="U505" s="1"/>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:21">
       <c r="A506" s="7"/>
       <c r="B506" s="3"/>
       <c r="C506" s="1"/>
@@ -12605,7 +12651,7 @@
       <c r="T506" s="1"/>
       <c r="U506" s="1"/>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:21">
       <c r="A507" s="7"/>
       <c r="B507" s="3"/>
       <c r="C507" s="1"/>
@@ -12628,7 +12674,7 @@
       <c r="T507" s="1"/>
       <c r="U507" s="1"/>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:21">
       <c r="A508" s="7"/>
       <c r="B508" s="3"/>
       <c r="C508" s="1"/>
@@ -12651,7 +12697,7 @@
       <c r="T508" s="1"/>
       <c r="U508" s="1"/>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:21">
       <c r="A509" s="7"/>
       <c r="B509" s="3"/>
       <c r="C509" s="1"/>
@@ -12674,7 +12720,7 @@
       <c r="T509" s="1"/>
       <c r="U509" s="1"/>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:21">
       <c r="A510" s="7"/>
       <c r="B510" s="3"/>
       <c r="C510" s="1"/>
@@ -12697,7 +12743,7 @@
       <c r="T510" s="1"/>
       <c r="U510" s="1"/>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:21">
       <c r="A511" s="7"/>
       <c r="B511" s="3"/>
       <c r="C511" s="1"/>
@@ -12720,7 +12766,7 @@
       <c r="T511" s="1"/>
       <c r="U511" s="1"/>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:21">
       <c r="A512" s="7"/>
       <c r="B512" s="3"/>
       <c r="C512" s="1"/>
@@ -12743,7 +12789,7 @@
       <c r="T512" s="1"/>
       <c r="U512" s="1"/>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:21">
       <c r="A513" s="7"/>
       <c r="B513" s="3"/>
       <c r="C513" s="1"/>
@@ -12766,7 +12812,7 @@
       <c r="T513" s="1"/>
       <c r="U513" s="1"/>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:21">
       <c r="A514" s="7"/>
       <c r="B514" s="3"/>
       <c r="C514" s="1"/>
@@ -12789,7 +12835,7 @@
       <c r="T514" s="1"/>
       <c r="U514" s="1"/>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:21">
       <c r="A515" s="7"/>
       <c r="B515" s="3"/>
       <c r="C515" s="1"/>
@@ -12812,7 +12858,7 @@
       <c r="T515" s="1"/>
       <c r="U515" s="1"/>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:21">
       <c r="A516" s="7"/>
       <c r="B516" s="3"/>
       <c r="C516" s="1"/>
@@ -12835,7 +12881,7 @@
       <c r="T516" s="1"/>
       <c r="U516" s="1"/>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:21">
       <c r="A517" s="7"/>
       <c r="B517" s="3"/>
       <c r="C517" s="1"/>
@@ -12858,7 +12904,7 @@
       <c r="T517" s="1"/>
       <c r="U517" s="1"/>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:21">
       <c r="A518" s="7"/>
       <c r="B518" s="3"/>
       <c r="C518" s="1"/>
@@ -12881,7 +12927,7 @@
       <c r="T518" s="1"/>
       <c r="U518" s="1"/>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:21">
       <c r="A519" s="7"/>
       <c r="B519" s="3"/>
       <c r="C519" s="1"/>
@@ -12904,7 +12950,7 @@
       <c r="T519" s="1"/>
       <c r="U519" s="1"/>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:21">
       <c r="A520" s="7"/>
       <c r="B520" s="3"/>
       <c r="C520" s="1"/>
@@ -12927,7 +12973,7 @@
       <c r="T520" s="1"/>
       <c r="U520" s="1"/>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:21">
       <c r="A521" s="7"/>
       <c r="B521" s="3"/>
       <c r="C521" s="1"/>
@@ -12950,7 +12996,7 @@
       <c r="T521" s="1"/>
       <c r="U521" s="1"/>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:21">
       <c r="A522" s="7"/>
       <c r="B522" s="3"/>
       <c r="C522" s="1"/>
@@ -12973,7 +13019,7 @@
       <c r="T522" s="1"/>
       <c r="U522" s="1"/>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:21">
       <c r="A523" s="7"/>
       <c r="B523" s="3"/>
       <c r="C523" s="1"/>
@@ -12996,7 +13042,7 @@
       <c r="T523" s="1"/>
       <c r="U523" s="1"/>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:21">
       <c r="A524" s="7"/>
       <c r="B524" s="3"/>
       <c r="C524" s="1"/>
@@ -13019,7 +13065,7 @@
       <c r="T524" s="1"/>
       <c r="U524" s="1"/>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:21">
       <c r="A525" s="7"/>
       <c r="B525" s="3"/>
       <c r="C525" s="1"/>
@@ -13042,7 +13088,7 @@
       <c r="T525" s="1"/>
       <c r="U525" s="1"/>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:21">
       <c r="A526" s="7"/>
       <c r="B526" s="3"/>
       <c r="C526" s="1"/>
@@ -13065,7 +13111,7 @@
       <c r="T526" s="1"/>
       <c r="U526" s="1"/>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:21">
       <c r="A527" s="7"/>
       <c r="B527" s="3"/>
       <c r="C527" s="1"/>
@@ -13088,7 +13134,7 @@
       <c r="T527" s="1"/>
       <c r="U527" s="1"/>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:21">
       <c r="A528" s="7"/>
       <c r="B528" s="3"/>
       <c r="C528" s="1"/>
@@ -13111,7 +13157,7 @@
       <c r="T528" s="1"/>
       <c r="U528" s="1"/>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:21">
       <c r="A529" s="7"/>
       <c r="B529" s="3"/>
       <c r="C529" s="1"/>
@@ -13134,7 +13180,7 @@
       <c r="T529" s="1"/>
       <c r="U529" s="1"/>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:21">
       <c r="A530" s="7"/>
       <c r="B530" s="3"/>
       <c r="C530" s="1"/>
@@ -13157,7 +13203,7 @@
       <c r="T530" s="1"/>
       <c r="U530" s="1"/>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:21">
       <c r="A531" s="7"/>
       <c r="B531" s="3"/>
       <c r="C531" s="1"/>
@@ -13180,7 +13226,7 @@
       <c r="T531" s="1"/>
       <c r="U531" s="1"/>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:21">
       <c r="A532" s="7"/>
       <c r="B532" s="3"/>
       <c r="C532" s="1"/>
@@ -13203,7 +13249,7 @@
       <c r="T532" s="1"/>
       <c r="U532" s="1"/>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:21">
       <c r="A533" s="7"/>
       <c r="B533" s="3"/>
       <c r="C533" s="1"/>
@@ -13226,7 +13272,7 @@
       <c r="T533" s="1"/>
       <c r="U533" s="1"/>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:21">
       <c r="A534" s="7"/>
       <c r="B534" s="3"/>
       <c r="C534" s="1"/>
@@ -13249,7 +13295,7 @@
       <c r="T534" s="1"/>
       <c r="U534" s="1"/>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:21">
       <c r="A535" s="7"/>
       <c r="B535" s="3"/>
       <c r="C535" s="1"/>
@@ -13272,7 +13318,7 @@
       <c r="T535" s="1"/>
       <c r="U535" s="1"/>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:21">
       <c r="A536" s="7"/>
       <c r="B536" s="3"/>
       <c r="C536" s="1"/>
@@ -13295,7 +13341,7 @@
       <c r="T536" s="1"/>
       <c r="U536" s="1"/>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:21">
       <c r="A537" s="7"/>
       <c r="B537" s="3"/>
       <c r="C537" s="1"/>
@@ -13318,7 +13364,7 @@
       <c r="T537" s="1"/>
       <c r="U537" s="1"/>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:21">
       <c r="A538" s="7"/>
       <c r="B538" s="3"/>
       <c r="C538" s="1"/>
@@ -13341,7 +13387,7 @@
       <c r="T538" s="1"/>
       <c r="U538" s="1"/>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:21">
       <c r="A539" s="7"/>
       <c r="B539" s="3"/>
       <c r="C539" s="1"/>
@@ -13364,7 +13410,7 @@
       <c r="T539" s="1"/>
       <c r="U539" s="1"/>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:21">
       <c r="A540" s="7"/>
       <c r="B540" s="3"/>
       <c r="C540" s="1"/>
@@ -13387,7 +13433,7 @@
       <c r="T540" s="1"/>
       <c r="U540" s="1"/>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:21">
       <c r="A541" s="7"/>
       <c r="B541" s="3"/>
       <c r="C541" s="1"/>
@@ -13410,7 +13456,7 @@
       <c r="T541" s="1"/>
       <c r="U541" s="1"/>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:21">
       <c r="A542" s="7"/>
       <c r="B542" s="3"/>
       <c r="C542" s="1"/>
@@ -13433,7 +13479,7 @@
       <c r="T542" s="1"/>
       <c r="U542" s="1"/>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:21">
       <c r="A543" s="7"/>
       <c r="B543" s="3"/>
       <c r="C543" s="1"/>
@@ -13456,7 +13502,7 @@
       <c r="T543" s="1"/>
       <c r="U543" s="1"/>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:21">
       <c r="A544" s="7"/>
       <c r="B544" s="3"/>
       <c r="C544" s="1"/>
@@ -13479,7 +13525,7 @@
       <c r="T544" s="1"/>
       <c r="U544" s="1"/>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:21">
       <c r="A545" s="7"/>
       <c r="B545" s="3"/>
       <c r="C545" s="1"/>
@@ -13502,7 +13548,7 @@
       <c r="T545" s="1"/>
       <c r="U545" s="1"/>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:21">
       <c r="A546" s="7"/>
       <c r="B546" s="3"/>
       <c r="C546" s="1"/>
@@ -13525,7 +13571,7 @@
       <c r="T546" s="1"/>
       <c r="U546" s="1"/>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:21">
       <c r="A547" s="7"/>
       <c r="B547" s="3"/>
       <c r="C547" s="1"/>
@@ -13548,7 +13594,7 @@
       <c r="T547" s="1"/>
       <c r="U547" s="1"/>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:21">
       <c r="A548" s="7"/>
       <c r="B548" s="3"/>
       <c r="C548" s="1"/>
@@ -13571,7 +13617,7 @@
       <c r="T548" s="1"/>
       <c r="U548" s="1"/>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:21">
       <c r="A549" s="7"/>
       <c r="B549" s="3"/>
       <c r="C549" s="1"/>
@@ -13594,7 +13640,7 @@
       <c r="T549" s="1"/>
       <c r="U549" s="1"/>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:21">
       <c r="A550" s="7"/>
       <c r="B550" s="3"/>
       <c r="C550" s="1"/>
@@ -13617,7 +13663,7 @@
       <c r="T550" s="1"/>
       <c r="U550" s="1"/>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:21">
       <c r="A551" s="7"/>
       <c r="B551" s="3"/>
       <c r="C551" s="1"/>
@@ -13640,7 +13686,7 @@
       <c r="T551" s="1"/>
       <c r="U551" s="1"/>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:21">
       <c r="A552" s="7"/>
       <c r="B552" s="3"/>
       <c r="C552" s="1"/>
@@ -13663,7 +13709,7 @@
       <c r="T552" s="1"/>
       <c r="U552" s="1"/>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:21">
       <c r="A553" s="7"/>
       <c r="B553" s="3"/>
       <c r="C553" s="1"/>
@@ -13686,7 +13732,7 @@
       <c r="T553" s="1"/>
       <c r="U553" s="1"/>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:21">
       <c r="A554" s="7"/>
       <c r="B554" s="3"/>
       <c r="C554" s="1"/>
@@ -13709,7 +13755,7 @@
       <c r="T554" s="1"/>
       <c r="U554" s="1"/>
     </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:21">
       <c r="A555" s="7"/>
       <c r="B555" s="3"/>
       <c r="C555" s="1"/>
@@ -13732,7 +13778,7 @@
       <c r="T555" s="1"/>
       <c r="U555" s="1"/>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:21">
       <c r="A556" s="7"/>
       <c r="B556" s="3"/>
       <c r="C556" s="1"/>
@@ -13755,7 +13801,7 @@
       <c r="T556" s="1"/>
       <c r="U556" s="1"/>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:21">
       <c r="A557" s="7"/>
       <c r="B557" s="3"/>
       <c r="C557" s="1"/>
@@ -13778,7 +13824,7 @@
       <c r="T557" s="1"/>
       <c r="U557" s="1"/>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:21">
       <c r="A558" s="7"/>
       <c r="B558" s="3"/>
       <c r="C558" s="1"/>
@@ -13801,7 +13847,7 @@
       <c r="T558" s="1"/>
       <c r="U558" s="1"/>
     </row>
-    <row r="559" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:21">
       <c r="A559" s="7"/>
       <c r="B559" s="3"/>
       <c r="C559" s="1"/>
@@ -13824,7 +13870,7 @@
       <c r="T559" s="1"/>
       <c r="U559" s="1"/>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:21">
       <c r="A560" s="7"/>
       <c r="B560" s="3"/>
       <c r="C560" s="1"/>
@@ -13847,7 +13893,7 @@
       <c r="T560" s="1"/>
       <c r="U560" s="1"/>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:21">
       <c r="A561" s="7"/>
       <c r="B561" s="3"/>
       <c r="C561" s="1"/>
@@ -13870,7 +13916,7 @@
       <c r="T561" s="1"/>
       <c r="U561" s="1"/>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:21">
       <c r="A562" s="7"/>
       <c r="B562" s="3"/>
       <c r="C562" s="1"/>
@@ -13893,7 +13939,7 @@
       <c r="T562" s="1"/>
       <c r="U562" s="1"/>
     </row>
-    <row r="563" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:21">
       <c r="A563" s="7"/>
       <c r="B563" s="3"/>
       <c r="C563" s="1"/>
@@ -13916,7 +13962,7 @@
       <c r="T563" s="1"/>
       <c r="U563" s="1"/>
     </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:21">
       <c r="A564" s="7"/>
       <c r="B564" s="3"/>
       <c r="C564" s="1"/>
@@ -13939,7 +13985,7 @@
       <c r="T564" s="1"/>
       <c r="U564" s="1"/>
     </row>
-    <row r="565" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:21">
       <c r="A565" s="7"/>
       <c r="B565" s="3"/>
       <c r="C565" s="1"/>
@@ -13962,7 +14008,7 @@
       <c r="T565" s="1"/>
       <c r="U565" s="1"/>
     </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:21">
       <c r="A566" s="7"/>
       <c r="B566" s="3"/>
       <c r="C566" s="1"/>
@@ -13985,7 +14031,7 @@
       <c r="T566" s="1"/>
       <c r="U566" s="1"/>
     </row>
-    <row r="567" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:21">
       <c r="A567" s="7"/>
       <c r="B567" s="3"/>
       <c r="C567" s="1"/>
@@ -14008,7 +14054,7 @@
       <c r="T567" s="1"/>
       <c r="U567" s="1"/>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:21">
       <c r="A568" s="7"/>
       <c r="B568" s="3"/>
       <c r="C568" s="1"/>
@@ -14031,7 +14077,7 @@
       <c r="T568" s="1"/>
       <c r="U568" s="1"/>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:21">
       <c r="A569" s="7"/>
       <c r="B569" s="3"/>
       <c r="C569" s="1"/>
@@ -14054,7 +14100,7 @@
       <c r="T569" s="1"/>
       <c r="U569" s="1"/>
     </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:21">
       <c r="A570" s="7"/>
       <c r="B570" s="3"/>
       <c r="C570" s="1"/>
@@ -14077,7 +14123,7 @@
       <c r="T570" s="1"/>
       <c r="U570" s="1"/>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:21">
       <c r="A571" s="7"/>
       <c r="B571" s="3"/>
       <c r="C571" s="1"/>
@@ -14100,7 +14146,7 @@
       <c r="T571" s="1"/>
       <c r="U571" s="1"/>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:21">
       <c r="A572" s="7"/>
       <c r="B572" s="3"/>
       <c r="C572" s="1"/>
@@ -14123,7 +14169,7 @@
       <c r="T572" s="1"/>
       <c r="U572" s="1"/>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:21">
       <c r="A573" s="7"/>
       <c r="B573" s="3"/>
       <c r="C573" s="1"/>
@@ -14146,7 +14192,7 @@
       <c r="T573" s="1"/>
       <c r="U573" s="1"/>
     </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:21">
       <c r="A574" s="7"/>
       <c r="B574" s="3"/>
       <c r="C574" s="1"/>
@@ -14169,7 +14215,7 @@
       <c r="T574" s="1"/>
       <c r="U574" s="1"/>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:21">
       <c r="A575" s="7"/>
       <c r="B575" s="3"/>
       <c r="C575" s="1"/>
@@ -14192,7 +14238,7 @@
       <c r="T575" s="1"/>
       <c r="U575" s="1"/>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:21">
       <c r="A576" s="7"/>
       <c r="B576" s="3"/>
       <c r="C576" s="1"/>
@@ -14215,7 +14261,7 @@
       <c r="T576" s="1"/>
       <c r="U576" s="1"/>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:21">
       <c r="A577" s="7"/>
       <c r="B577" s="3"/>
       <c r="C577" s="1"/>
@@ -14238,7 +14284,7 @@
       <c r="T577" s="1"/>
       <c r="U577" s="1"/>
     </row>
-    <row r="578" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:21">
       <c r="A578" s="7"/>
       <c r="B578" s="3"/>
       <c r="C578" s="1"/>
@@ -14261,7 +14307,7 @@
       <c r="T578" s="1"/>
       <c r="U578" s="1"/>
     </row>
-    <row r="579" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:21">
       <c r="A579" s="7"/>
       <c r="B579" s="3"/>
       <c r="C579" s="1"/>
@@ -14284,7 +14330,7 @@
       <c r="T579" s="1"/>
       <c r="U579" s="1"/>
     </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:21">
       <c r="A580" s="7"/>
       <c r="B580" s="3"/>
       <c r="C580" s="1"/>
@@ -14307,7 +14353,7 @@
       <c r="T580" s="1"/>
       <c r="U580" s="1"/>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:21">
       <c r="A581" s="7"/>
       <c r="B581" s="3"/>
       <c r="C581" s="1"/>
@@ -14330,7 +14376,7 @@
       <c r="T581" s="1"/>
       <c r="U581" s="1"/>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:21">
       <c r="A582" s="7"/>
       <c r="B582" s="3"/>
       <c r="C582" s="1"/>
@@ -14353,7 +14399,7 @@
       <c r="T582" s="1"/>
       <c r="U582" s="1"/>
     </row>
-    <row r="583" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:21">
       <c r="A583" s="7"/>
       <c r="B583" s="3"/>
       <c r="C583" s="1"/>
@@ -14376,7 +14422,7 @@
       <c r="T583" s="1"/>
       <c r="U583" s="1"/>
     </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:21">
       <c r="A584" s="7"/>
       <c r="B584" s="3"/>
       <c r="C584" s="1"/>
@@ -14399,7 +14445,7 @@
       <c r="T584" s="1"/>
       <c r="U584" s="1"/>
     </row>
-    <row r="585" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:21">
       <c r="A585" s="7"/>
       <c r="B585" s="3"/>
       <c r="C585" s="1"/>
@@ -14422,7 +14468,7 @@
       <c r="T585" s="1"/>
       <c r="U585" s="1"/>
     </row>
-    <row r="586" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:21">
       <c r="A586" s="7"/>
       <c r="B586" s="3"/>
       <c r="C586" s="1"/>
@@ -14445,7 +14491,7 @@
       <c r="T586" s="1"/>
       <c r="U586" s="1"/>
     </row>
-    <row r="587" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:21">
       <c r="A587" s="7"/>
       <c r="B587" s="3"/>
       <c r="C587" s="1"/>
@@ -14468,7 +14514,7 @@
       <c r="T587" s="1"/>
       <c r="U587" s="1"/>
     </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:21">
       <c r="A588" s="7"/>
       <c r="B588" s="3"/>
       <c r="C588" s="1"/>
@@ -14491,7 +14537,7 @@
       <c r="T588" s="1"/>
       <c r="U588" s="1"/>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:21">
       <c r="A589" s="7"/>
       <c r="B589" s="3"/>
       <c r="C589" s="1"/>
@@ -14514,7 +14560,7 @@
       <c r="T589" s="1"/>
       <c r="U589" s="1"/>
     </row>
-    <row r="590" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:21">
       <c r="A590" s="7"/>
       <c r="B590" s="3"/>
       <c r="C590" s="1"/>
@@ -14537,7 +14583,7 @@
       <c r="T590" s="1"/>
       <c r="U590" s="1"/>
     </row>
-    <row r="591" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:21">
       <c r="A591" s="7"/>
       <c r="B591" s="3"/>
       <c r="C591" s="1"/>
@@ -14560,7 +14606,7 @@
       <c r="T591" s="1"/>
       <c r="U591" s="1"/>
     </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:21">
       <c r="A592" s="7"/>
       <c r="B592" s="3"/>
       <c r="C592" s="1"/>
@@ -14583,7 +14629,7 @@
       <c r="T592" s="1"/>
       <c r="U592" s="1"/>
     </row>
-    <row r="593" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:21">
       <c r="A593" s="7"/>
       <c r="B593" s="3"/>
       <c r="C593" s="1"/>
@@ -14606,7 +14652,7 @@
       <c r="T593" s="1"/>
       <c r="U593" s="1"/>
     </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:21">
       <c r="A594" s="7"/>
       <c r="B594" s="3"/>
       <c r="C594" s="1"/>
@@ -14629,7 +14675,7 @@
       <c r="T594" s="1"/>
       <c r="U594" s="1"/>
     </row>
-    <row r="595" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:21">
       <c r="A595" s="7"/>
       <c r="B595" s="3"/>
       <c r="C595" s="1"/>
@@ -14652,7 +14698,7 @@
       <c r="T595" s="1"/>
       <c r="U595" s="1"/>
     </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:21">
       <c r="A596" s="7"/>
       <c r="B596" s="3"/>
       <c r="C596" s="1"/>
@@ -14675,7 +14721,7 @@
       <c r="T596" s="1"/>
       <c r="U596" s="1"/>
     </row>
-    <row r="597" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:21">
       <c r="A597" s="7"/>
       <c r="B597" s="3"/>
       <c r="C597" s="1"/>
@@ -14698,7 +14744,7 @@
       <c r="T597" s="1"/>
       <c r="U597" s="1"/>
     </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:21">
       <c r="A598" s="7"/>
       <c r="B598" s="3"/>
       <c r="C598" s="1"/>
@@ -14721,7 +14767,7 @@
       <c r="T598" s="1"/>
       <c r="U598" s="1"/>
     </row>
-    <row r="599" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:21">
       <c r="A599" s="7"/>
       <c r="B599" s="3"/>
       <c r="C599" s="1"/>
@@ -14744,7 +14790,7 @@
       <c r="T599" s="1"/>
       <c r="U599" s="1"/>
     </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:21">
       <c r="A600" s="7"/>
       <c r="B600" s="3"/>
       <c r="C600" s="1"/>
@@ -14767,7 +14813,7 @@
       <c r="T600" s="1"/>
       <c r="U600" s="1"/>
     </row>
-    <row r="601" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:21">
       <c r="A601" s="7"/>
       <c r="B601" s="3"/>
       <c r="C601" s="1"/>
@@ -14790,7 +14836,7 @@
       <c r="T601" s="1"/>
       <c r="U601" s="1"/>
     </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:21">
       <c r="A602" s="7"/>
       <c r="B602" s="3"/>
       <c r="C602" s="1"/>
@@ -14813,7 +14859,7 @@
       <c r="T602" s="1"/>
       <c r="U602" s="1"/>
     </row>
-    <row r="603" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:21">
       <c r="A603" s="7"/>
       <c r="B603" s="3"/>
       <c r="C603" s="1"/>
@@ -14836,7 +14882,7 @@
       <c r="T603" s="1"/>
       <c r="U603" s="1"/>
     </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:21">
       <c r="A604" s="7"/>
       <c r="B604" s="3"/>
       <c r="C604" s="1"/>
@@ -14859,7 +14905,7 @@
       <c r="T604" s="1"/>
       <c r="U604" s="1"/>
     </row>
-    <row r="605" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:21">
       <c r="A605" s="7"/>
       <c r="B605" s="3"/>
       <c r="C605" s="1"/>
@@ -14882,7 +14928,7 @@
       <c r="T605" s="1"/>
       <c r="U605" s="1"/>
     </row>
-    <row r="606" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:21">
       <c r="A606" s="7"/>
       <c r="B606" s="3"/>
       <c r="C606" s="1"/>
@@ -14905,7 +14951,7 @@
       <c r="T606" s="1"/>
       <c r="U606" s="1"/>
     </row>
-    <row r="607" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:21">
       <c r="A607" s="7"/>
       <c r="B607" s="3"/>
       <c r="C607" s="1"/>
@@ -14928,7 +14974,7 @@
       <c r="T607" s="1"/>
       <c r="U607" s="1"/>
     </row>
-    <row r="608" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:21">
       <c r="A608" s="7"/>
       <c r="B608" s="3"/>
       <c r="C608" s="1"/>
@@ -14951,7 +14997,7 @@
       <c r="T608" s="1"/>
       <c r="U608" s="1"/>
     </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:21">
       <c r="A609" s="7"/>
       <c r="B609" s="3"/>
       <c r="C609" s="1"/>
@@ -14974,7 +15020,7 @@
       <c r="T609" s="1"/>
       <c r="U609" s="1"/>
     </row>
-    <row r="610" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:21">
       <c r="A610" s="7"/>
       <c r="B610" s="3"/>
       <c r="C610" s="1"/>
@@ -14997,7 +15043,7 @@
       <c r="T610" s="1"/>
       <c r="U610" s="1"/>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:21">
       <c r="A611" s="7"/>
       <c r="B611" s="3"/>
       <c r="C611" s="1"/>
@@ -15020,7 +15066,7 @@
       <c r="T611" s="1"/>
       <c r="U611" s="1"/>
     </row>
-    <row r="612" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:21">
       <c r="A612" s="7"/>
       <c r="B612" s="3"/>
       <c r="C612" s="1"/>
@@ -15043,7 +15089,7 @@
       <c r="T612" s="1"/>
       <c r="U612" s="1"/>
     </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:21">
       <c r="A613" s="7"/>
       <c r="B613" s="3"/>
       <c r="C613" s="1"/>
@@ -15066,7 +15112,7 @@
       <c r="T613" s="1"/>
       <c r="U613" s="1"/>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:21">
       <c r="A614" s="7"/>
       <c r="B614" s="3"/>
       <c r="C614" s="1"/>
@@ -15089,7 +15135,7 @@
       <c r="T614" s="1"/>
       <c r="U614" s="1"/>
     </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:21">
       <c r="A615" s="7"/>
       <c r="B615" s="3"/>
       <c r="C615" s="1"/>
@@ -15112,7 +15158,7 @@
       <c r="T615" s="1"/>
       <c r="U615" s="1"/>
     </row>
-    <row r="616" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:21">
       <c r="A616" s="7"/>
       <c r="B616" s="3"/>
       <c r="C616" s="1"/>
@@ -15135,7 +15181,7 @@
       <c r="T616" s="1"/>
       <c r="U616" s="1"/>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:21">
       <c r="A617" s="7"/>
       <c r="B617" s="3"/>
       <c r="C617" s="1"/>
@@ -15158,7 +15204,7 @@
       <c r="T617" s="1"/>
       <c r="U617" s="1"/>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:21">
       <c r="A618" s="7"/>
       <c r="B618" s="3"/>
       <c r="C618" s="1"/>
@@ -15181,7 +15227,7 @@
       <c r="T618" s="1"/>
       <c r="U618" s="1"/>
     </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:21">
       <c r="A619" s="7"/>
       <c r="B619" s="3"/>
       <c r="C619" s="1"/>
@@ -15204,7 +15250,7 @@
       <c r="T619" s="1"/>
       <c r="U619" s="1"/>
     </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:21">
       <c r="A620" s="7"/>
       <c r="B620" s="3"/>
       <c r="C620" s="1"/>
@@ -15227,7 +15273,7 @@
       <c r="T620" s="1"/>
       <c r="U620" s="1"/>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:21">
       <c r="A621" s="7"/>
       <c r="B621" s="3"/>
       <c r="C621" s="1"/>
@@ -15250,7 +15296,7 @@
       <c r="T621" s="1"/>
       <c r="U621" s="1"/>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:21">
       <c r="A622" s="7"/>
       <c r="B622" s="3"/>
       <c r="C622" s="1"/>
@@ -15273,7 +15319,7 @@
       <c r="T622" s="1"/>
       <c r="U622" s="1"/>
     </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:21">
       <c r="A623" s="7"/>
       <c r="B623" s="3"/>
       <c r="C623" s="1"/>
@@ -15296,7 +15342,7 @@
       <c r="T623" s="1"/>
       <c r="U623" s="1"/>
     </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:21">
       <c r="A624" s="7"/>
       <c r="B624" s="3"/>
       <c r="C624" s="1"/>
@@ -15319,7 +15365,7 @@
       <c r="T624" s="1"/>
       <c r="U624" s="1"/>
     </row>
-    <row r="625" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:21">
       <c r="A625" s="7"/>
       <c r="B625" s="3"/>
       <c r="C625" s="1"/>
@@ -15342,7 +15388,7 @@
       <c r="T625" s="1"/>
       <c r="U625" s="1"/>
     </row>
-    <row r="626" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:21">
       <c r="A626" s="7"/>
       <c r="B626" s="3"/>
       <c r="C626" s="1"/>
@@ -15365,7 +15411,7 @@
       <c r="T626" s="1"/>
       <c r="U626" s="1"/>
     </row>
-    <row r="627" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:21">
       <c r="A627" s="7"/>
       <c r="B627" s="3"/>
       <c r="C627" s="1"/>
@@ -15388,7 +15434,7 @@
       <c r="T627" s="1"/>
       <c r="U627" s="1"/>
     </row>
-    <row r="628" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:21">
       <c r="A628" s="7"/>
       <c r="B628" s="3"/>
       <c r="C628" s="1"/>
@@ -15411,7 +15457,7 @@
       <c r="T628" s="1"/>
       <c r="U628" s="1"/>
     </row>
-    <row r="629" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:21">
       <c r="A629" s="7"/>
       <c r="B629" s="3"/>
       <c r="C629" s="1"/>
@@ -15434,7 +15480,7 @@
       <c r="T629" s="1"/>
       <c r="U629" s="1"/>
     </row>
-    <row r="630" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:21">
       <c r="A630" s="7"/>
       <c r="B630" s="3"/>
       <c r="C630" s="1"/>
@@ -15457,7 +15503,7 @@
       <c r="T630" s="1"/>
       <c r="U630" s="1"/>
     </row>
-    <row r="631" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:21">
       <c r="A631" s="7"/>
       <c r="B631" s="3"/>
       <c r="C631" s="1"/>
@@ -15480,7 +15526,7 @@
       <c r="T631" s="1"/>
       <c r="U631" s="1"/>
     </row>
-    <row r="632" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:21">
       <c r="A632" s="7"/>
       <c r="B632" s="3"/>
       <c r="C632" s="1"/>
@@ -15503,7 +15549,7 @@
       <c r="T632" s="1"/>
       <c r="U632" s="1"/>
     </row>
-    <row r="633" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:21">
       <c r="A633" s="7"/>
       <c r="B633" s="3"/>
       <c r="C633" s="1"/>
@@ -15526,7 +15572,7 @@
       <c r="T633" s="1"/>
       <c r="U633" s="1"/>
     </row>
-    <row r="634" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:21">
       <c r="A634" s="7"/>
       <c r="B634" s="3"/>
       <c r="C634" s="1"/>
@@ -15549,7 +15595,7 @@
       <c r="T634" s="1"/>
       <c r="U634" s="1"/>
     </row>
-    <row r="635" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:21">
       <c r="A635" s="7"/>
       <c r="B635" s="3"/>
       <c r="C635" s="1"/>
@@ -15572,7 +15618,7 @@
       <c r="T635" s="1"/>
       <c r="U635" s="1"/>
     </row>
-    <row r="636" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:21">
       <c r="A636" s="7"/>
       <c r="B636" s="3"/>
       <c r="C636" s="1"/>
@@ -15595,7 +15641,7 @@
       <c r="T636" s="1"/>
       <c r="U636" s="1"/>
     </row>
-    <row r="637" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:21">
       <c r="A637" s="7"/>
       <c r="B637" s="3"/>
       <c r="C637" s="1"/>
@@ -15618,7 +15664,7 @@
       <c r="T637" s="1"/>
       <c r="U637" s="1"/>
     </row>
-    <row r="638" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:21">
       <c r="A638" s="7"/>
       <c r="B638" s="3"/>
       <c r="C638" s="1"/>
@@ -15641,7 +15687,7 @@
       <c r="T638" s="1"/>
       <c r="U638" s="1"/>
     </row>
-    <row r="639" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:21">
       <c r="A639" s="7"/>
       <c r="B639" s="3"/>
       <c r="C639" s="1"/>
@@ -15664,7 +15710,7 @@
       <c r="T639" s="1"/>
       <c r="U639" s="1"/>
     </row>
-    <row r="640" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:21">
       <c r="A640" s="7"/>
       <c r="B640" s="3"/>
       <c r="C640" s="1"/>
@@ -15687,7 +15733,7 @@
       <c r="T640" s="1"/>
       <c r="U640" s="1"/>
     </row>
-    <row r="641" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:21">
       <c r="A641" s="7"/>
       <c r="B641" s="3"/>
       <c r="C641" s="1"/>
@@ -15710,7 +15756,7 @@
       <c r="T641" s="1"/>
       <c r="U641" s="1"/>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:21">
       <c r="A642" s="7"/>
       <c r="B642" s="3"/>
       <c r="C642" s="1"/>
@@ -15733,7 +15779,7 @@
       <c r="T642" s="1"/>
       <c r="U642" s="1"/>
     </row>
-    <row r="643" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:21">
       <c r="A643" s="7"/>
       <c r="B643" s="3"/>
       <c r="C643" s="1"/>
@@ -15756,7 +15802,7 @@
       <c r="T643" s="1"/>
       <c r="U643" s="1"/>
     </row>
-    <row r="644" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:21">
       <c r="A644" s="7"/>
       <c r="B644" s="3"/>
       <c r="C644" s="1"/>
@@ -15779,7 +15825,7 @@
       <c r="T644" s="1"/>
       <c r="U644" s="1"/>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:21">
       <c r="A645" s="7"/>
       <c r="B645" s="3"/>
       <c r="C645" s="1"/>
@@ -15802,7 +15848,7 @@
       <c r="T645" s="1"/>
       <c r="U645" s="1"/>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:21">
       <c r="A646" s="7"/>
       <c r="B646" s="3"/>
       <c r="C646" s="1"/>
@@ -15825,7 +15871,7 @@
       <c r="T646" s="1"/>
       <c r="U646" s="1"/>
     </row>
-    <row r="647" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:21">
       <c r="A647" s="7"/>
       <c r="B647" s="3"/>
       <c r="C647" s="1"/>
@@ -15848,7 +15894,7 @@
       <c r="T647" s="1"/>
       <c r="U647" s="1"/>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:21">
       <c r="A648" s="7"/>
       <c r="B648" s="3"/>
       <c r="C648" s="1"/>
@@ -15871,7 +15917,7 @@
       <c r="T648" s="1"/>
       <c r="U648" s="1"/>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:21">
       <c r="A649" s="7"/>
       <c r="B649" s="3"/>
       <c r="C649" s="1"/>
@@ -15894,7 +15940,7 @@
       <c r="T649" s="1"/>
       <c r="U649" s="1"/>
     </row>
-    <row r="650" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:21">
       <c r="A650" s="7"/>
       <c r="B650" s="3"/>
       <c r="C650" s="1"/>
@@ -15917,7 +15963,7 @@
       <c r="T650" s="1"/>
       <c r="U650" s="1"/>
     </row>
-    <row r="651" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:21">
       <c r="A651" s="7"/>
       <c r="B651" s="3"/>
       <c r="C651" s="1"/>
@@ -15940,7 +15986,7 @@
       <c r="T651" s="1"/>
       <c r="U651" s="1"/>
     </row>
-    <row r="652" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:21">
       <c r="A652" s="7"/>
       <c r="B652" s="3"/>
       <c r="C652" s="1"/>
@@ -15963,7 +16009,7 @@
       <c r="T652" s="1"/>
       <c r="U652" s="1"/>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:21">
       <c r="A653" s="7"/>
       <c r="B653" s="3"/>
       <c r="C653" s="1"/>
@@ -15986,7 +16032,7 @@
       <c r="T653" s="1"/>
       <c r="U653" s="1"/>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:21">
       <c r="A654" s="7"/>
       <c r="B654" s="3"/>
       <c r="C654" s="1"/>
@@ -16009,7 +16055,7 @@
       <c r="T654" s="1"/>
       <c r="U654" s="1"/>
     </row>
-    <row r="655" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:21">
       <c r="A655" s="7"/>
       <c r="B655" s="3"/>
       <c r="C655" s="1"/>
@@ -16032,7 +16078,7 @@
       <c r="T655" s="1"/>
       <c r="U655" s="1"/>
     </row>
-    <row r="656" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:21">
       <c r="A656" s="7"/>
       <c r="B656" s="3"/>
       <c r="C656" s="1"/>
@@ -16055,7 +16101,7 @@
       <c r="T656" s="1"/>
       <c r="U656" s="1"/>
     </row>
-    <row r="657" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:21">
       <c r="A657" s="7"/>
       <c r="B657" s="3"/>
       <c r="C657" s="1"/>
@@ -16078,7 +16124,7 @@
       <c r="T657" s="1"/>
       <c r="U657" s="1"/>
     </row>
-    <row r="658" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:21">
       <c r="A658" s="7"/>
       <c r="B658" s="3"/>
       <c r="C658" s="1"/>
@@ -16101,7 +16147,7 @@
       <c r="T658" s="1"/>
       <c r="U658" s="1"/>
     </row>
-    <row r="659" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:21">
       <c r="A659" s="7"/>
       <c r="B659" s="3"/>
       <c r="C659" s="1"/>
@@ -16124,7 +16170,7 @@
       <c r="T659" s="1"/>
       <c r="U659" s="1"/>
     </row>
-    <row r="660" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:21">
       <c r="A660" s="7"/>
       <c r="B660" s="3"/>
       <c r="C660" s="1"/>
@@ -16147,7 +16193,7 @@
       <c r="T660" s="1"/>
       <c r="U660" s="1"/>
     </row>
-    <row r="661" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:21">
       <c r="A661" s="7"/>
       <c r="B661" s="3"/>
       <c r="C661" s="1"/>
@@ -16170,7 +16216,7 @@
       <c r="T661" s="1"/>
       <c r="U661" s="1"/>
     </row>
-    <row r="662" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:21">
       <c r="A662" s="7"/>
       <c r="B662" s="3"/>
       <c r="C662" s="1"/>
@@ -16193,7 +16239,7 @@
       <c r="T662" s="1"/>
       <c r="U662" s="1"/>
     </row>
-    <row r="663" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:21">
       <c r="A663" s="7"/>
       <c r="B663" s="3"/>
       <c r="C663" s="1"/>
@@ -16216,7 +16262,7 @@
       <c r="T663" s="1"/>
       <c r="U663" s="1"/>
     </row>
-    <row r="664" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:21">
       <c r="A664" s="7"/>
       <c r="B664" s="3"/>
       <c r="C664" s="1"/>
@@ -16239,7 +16285,7 @@
       <c r="T664" s="1"/>
       <c r="U664" s="1"/>
     </row>
-    <row r="665" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:21">
       <c r="A665" s="7"/>
       <c r="B665" s="3"/>
       <c r="C665" s="1"/>
@@ -16262,7 +16308,7 @@
       <c r="T665" s="1"/>
       <c r="U665" s="1"/>
     </row>
-    <row r="666" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:21">
       <c r="A666" s="7"/>
       <c r="B666" s="3"/>
       <c r="C666" s="1"/>
@@ -16285,7 +16331,7 @@
       <c r="T666" s="1"/>
       <c r="U666" s="1"/>
     </row>
-    <row r="667" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:21">
       <c r="A667" s="7"/>
       <c r="B667" s="3"/>
       <c r="C667" s="1"/>
@@ -16308,7 +16354,7 @@
       <c r="T667" s="1"/>
       <c r="U667" s="1"/>
     </row>
-    <row r="668" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:21">
       <c r="A668" s="7"/>
       <c r="B668" s="3"/>
       <c r="C668" s="1"/>
@@ -16331,7 +16377,7 @@
       <c r="T668" s="1"/>
       <c r="U668" s="1"/>
     </row>
-    <row r="669" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:21">
       <c r="A669" s="7"/>
       <c r="B669" s="3"/>
       <c r="C669" s="1"/>
@@ -16354,7 +16400,7 @@
       <c r="T669" s="1"/>
       <c r="U669" s="1"/>
     </row>
-    <row r="670" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:21">
       <c r="A670" s="7"/>
       <c r="B670" s="3"/>
       <c r="C670" s="1"/>
@@ -16377,7 +16423,7 @@
       <c r="T670" s="1"/>
       <c r="U670" s="1"/>
     </row>
-    <row r="671" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:21">
       <c r="A671" s="7"/>
       <c r="B671" s="3"/>
       <c r="C671" s="1"/>
@@ -16400,7 +16446,7 @@
       <c r="T671" s="1"/>
       <c r="U671" s="1"/>
     </row>
-    <row r="672" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:21">
       <c r="A672" s="7"/>
       <c r="B672" s="3"/>
       <c r="C672" s="1"/>
@@ -16423,7 +16469,7 @@
       <c r="T672" s="1"/>
       <c r="U672" s="1"/>
     </row>
-    <row r="673" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:21">
       <c r="A673" s="7"/>
       <c r="B673" s="3"/>
       <c r="C673" s="1"/>
@@ -16446,7 +16492,7 @@
       <c r="T673" s="1"/>
       <c r="U673" s="1"/>
     </row>
-    <row r="674" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:21">
       <c r="A674" s="7"/>
       <c r="B674" s="3"/>
       <c r="C674" s="1"/>
@@ -16469,7 +16515,7 @@
       <c r="T674" s="1"/>
       <c r="U674" s="1"/>
     </row>
-    <row r="675" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:21">
       <c r="A675" s="7"/>
       <c r="B675" s="3"/>
       <c r="C675" s="1"/>
@@ -16492,7 +16538,7 @@
       <c r="T675" s="1"/>
       <c r="U675" s="1"/>
     </row>
-    <row r="676" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:21">
       <c r="A676" s="7"/>
       <c r="B676" s="3"/>
       <c r="C676" s="1"/>
@@ -16515,7 +16561,7 @@
       <c r="T676" s="1"/>
       <c r="U676" s="1"/>
     </row>
-    <row r="677" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:21">
       <c r="A677" s="7"/>
       <c r="B677" s="3"/>
       <c r="C677" s="1"/>
@@ -16538,7 +16584,7 @@
       <c r="T677" s="1"/>
       <c r="U677" s="1"/>
     </row>
-    <row r="678" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:21">
       <c r="A678" s="7"/>
       <c r="B678" s="3"/>
       <c r="C678" s="1"/>
@@ -16561,7 +16607,7 @@
       <c r="T678" s="1"/>
       <c r="U678" s="1"/>
     </row>
-    <row r="679" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:21">
       <c r="A679" s="7"/>
       <c r="B679" s="3"/>
       <c r="C679" s="1"/>
@@ -16584,7 +16630,7 @@
       <c r="T679" s="1"/>
       <c r="U679" s="1"/>
     </row>
-    <row r="680" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:21">
       <c r="A680" s="7"/>
       <c r="B680" s="3"/>
       <c r="C680" s="1"/>
@@ -16607,7 +16653,7 @@
       <c r="T680" s="1"/>
       <c r="U680" s="1"/>
     </row>
-    <row r="681" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:21">
       <c r="A681" s="7"/>
       <c r="B681" s="3"/>
       <c r="C681" s="1"/>
@@ -16630,7 +16676,7 @@
       <c r="T681" s="1"/>
       <c r="U681" s="1"/>
     </row>
-    <row r="682" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:21">
       <c r="A682" s="7"/>
       <c r="B682" s="3"/>
       <c r="C682" s="1"/>
@@ -16653,7 +16699,7 @@
       <c r="T682" s="1"/>
       <c r="U682" s="1"/>
     </row>
-    <row r="683" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:21">
       <c r="A683" s="7"/>
       <c r="B683" s="3"/>
       <c r="C683" s="1"/>
@@ -16676,7 +16722,7 @@
       <c r="T683" s="1"/>
       <c r="U683" s="1"/>
     </row>
-    <row r="684" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:21">
       <c r="A684" s="7"/>
       <c r="B684" s="3"/>
       <c r="C684" s="1"/>
@@ -16699,7 +16745,7 @@
       <c r="T684" s="1"/>
       <c r="U684" s="1"/>
     </row>
-    <row r="685" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:21">
       <c r="A685" s="7"/>
       <c r="B685" s="3"/>
       <c r="C685" s="1"/>
@@ -16722,7 +16768,7 @@
       <c r="T685" s="1"/>
       <c r="U685" s="1"/>
     </row>
-    <row r="686" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:21">
       <c r="A686" s="7"/>
       <c r="B686" s="3"/>
       <c r="C686" s="1"/>
@@ -16745,7 +16791,7 @@
       <c r="T686" s="1"/>
       <c r="U686" s="1"/>
     </row>
-    <row r="687" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:21">
       <c r="A687" s="7"/>
       <c r="B687" s="3"/>
       <c r="C687" s="1"/>
@@ -16768,7 +16814,7 @@
       <c r="T687" s="1"/>
       <c r="U687" s="1"/>
     </row>
-    <row r="688" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:21">
       <c r="A688" s="7"/>
       <c r="B688" s="3"/>
       <c r="C688" s="1"/>
@@ -16791,7 +16837,7 @@
       <c r="T688" s="1"/>
       <c r="U688" s="1"/>
     </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:21">
       <c r="A689" s="7"/>
       <c r="B689" s="3"/>
       <c r="C689" s="1"/>
@@ -16814,7 +16860,7 @@
       <c r="T689" s="1"/>
       <c r="U689" s="1"/>
     </row>
-    <row r="690" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:21">
       <c r="A690" s="7"/>
       <c r="B690" s="3"/>
       <c r="C690" s="1"/>
@@ -16837,7 +16883,7 @@
       <c r="T690" s="1"/>
       <c r="U690" s="1"/>
     </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:21">
       <c r="A691" s="7"/>
       <c r="B691" s="3"/>
       <c r="C691" s="1"/>
@@ -16860,7 +16906,7 @@
       <c r="T691" s="1"/>
       <c r="U691" s="1"/>
     </row>
-    <row r="692" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:21">
       <c r="A692" s="7"/>
       <c r="B692" s="3"/>
       <c r="C692" s="1"/>
@@ -16883,7 +16929,7 @@
       <c r="T692" s="1"/>
       <c r="U692" s="1"/>
     </row>
-    <row r="693" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:21">
       <c r="A693" s="7"/>
       <c r="B693" s="3"/>
       <c r="C693" s="1"/>
@@ -16906,7 +16952,7 @@
       <c r="T693" s="1"/>
       <c r="U693" s="1"/>
     </row>
-    <row r="694" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:21">
       <c r="A694" s="7"/>
       <c r="B694" s="3"/>
       <c r="C694" s="1"/>
@@ -16929,7 +16975,7 @@
       <c r="T694" s="1"/>
       <c r="U694" s="1"/>
     </row>
-    <row r="695" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:21">
       <c r="A695" s="7"/>
       <c r="B695" s="3"/>
       <c r="C695" s="1"/>
@@ -16952,7 +16998,7 @@
       <c r="T695" s="1"/>
       <c r="U695" s="1"/>
     </row>
-    <row r="696" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:21">
       <c r="A696" s="7"/>
       <c r="B696" s="3"/>
       <c r="C696" s="1"/>
@@ -16975,7 +17021,7 @@
       <c r="T696" s="1"/>
       <c r="U696" s="1"/>
     </row>
-    <row r="697" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:21">
       <c r="A697" s="7"/>
       <c r="B697" s="3"/>
       <c r="C697" s="1"/>
@@ -16998,7 +17044,7 @@
       <c r="T697" s="1"/>
       <c r="U697" s="1"/>
     </row>
-    <row r="698" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:21">
       <c r="A698" s="7"/>
       <c r="B698" s="3"/>
       <c r="C698" s="1"/>
@@ -17021,7 +17067,7 @@
       <c r="T698" s="1"/>
       <c r="U698" s="1"/>
     </row>
-    <row r="699" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:21">
       <c r="A699" s="7"/>
       <c r="B699" s="3"/>
       <c r="C699" s="1"/>
@@ -17044,7 +17090,7 @@
       <c r="T699" s="1"/>
       <c r="U699" s="1"/>
     </row>
-    <row r="700" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:21">
       <c r="A700" s="7"/>
       <c r="B700" s="3"/>
       <c r="C700" s="1"/>
@@ -17067,7 +17113,7 @@
       <c r="T700" s="1"/>
       <c r="U700" s="1"/>
     </row>
-    <row r="701" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:21">
       <c r="A701" s="7"/>
       <c r="B701" s="3"/>
       <c r="C701" s="1"/>
@@ -17090,7 +17136,7 @@
       <c r="T701" s="1"/>
       <c r="U701" s="1"/>
     </row>
-    <row r="702" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:21">
       <c r="A702" s="7"/>
       <c r="B702" s="3"/>
       <c r="C702" s="1"/>
@@ -17113,7 +17159,7 @@
       <c r="T702" s="1"/>
       <c r="U702" s="1"/>
     </row>
-    <row r="703" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:21">
       <c r="A703" s="7"/>
       <c r="B703" s="3"/>
       <c r="C703" s="1"/>
@@ -17136,7 +17182,7 @@
       <c r="T703" s="1"/>
       <c r="U703" s="1"/>
     </row>
-    <row r="704" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:21">
       <c r="A704" s="7"/>
       <c r="B704" s="3"/>
       <c r="C704" s="1"/>
@@ -17159,7 +17205,7 @@
       <c r="T704" s="1"/>
       <c r="U704" s="1"/>
     </row>
-    <row r="705" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:21">
       <c r="A705" s="7"/>
       <c r="B705" s="3"/>
       <c r="C705" s="1"/>
@@ -17182,7 +17228,7 @@
       <c r="T705" s="1"/>
       <c r="U705" s="1"/>
     </row>
-    <row r="706" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:21">
       <c r="A706" s="7"/>
       <c r="B706" s="3"/>
       <c r="C706" s="1"/>
@@ -17205,7 +17251,7 @@
       <c r="T706" s="1"/>
       <c r="U706" s="1"/>
     </row>
-    <row r="707" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:21">
       <c r="A707" s="7"/>
       <c r="B707" s="3"/>
       <c r="C707" s="1"/>
@@ -17228,7 +17274,7 @@
       <c r="T707" s="1"/>
       <c r="U707" s="1"/>
     </row>
-    <row r="708" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:21">
       <c r="A708" s="7"/>
       <c r="B708" s="3"/>
       <c r="C708" s="1"/>
@@ -17251,7 +17297,7 @@
       <c r="T708" s="1"/>
       <c r="U708" s="1"/>
     </row>
-    <row r="709" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:21">
       <c r="A709" s="7"/>
       <c r="B709" s="3"/>
       <c r="C709" s="1"/>
@@ -17274,7 +17320,7 @@
       <c r="T709" s="1"/>
       <c r="U709" s="1"/>
     </row>
-    <row r="710" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:21">
       <c r="A710" s="7"/>
       <c r="B710" s="3"/>
       <c r="C710" s="1"/>
@@ -17297,7 +17343,7 @@
       <c r="T710" s="1"/>
       <c r="U710" s="1"/>
     </row>
-    <row r="711" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:21">
       <c r="A711" s="7"/>
       <c r="B711" s="3"/>
       <c r="C711" s="1"/>
@@ -17320,7 +17366,7 @@
       <c r="T711" s="1"/>
       <c r="U711" s="1"/>
     </row>
-    <row r="712" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:21">
       <c r="A712" s="7"/>
       <c r="B712" s="3"/>
       <c r="C712" s="1"/>
@@ -17343,7 +17389,7 @@
       <c r="T712" s="1"/>
       <c r="U712" s="1"/>
     </row>
-    <row r="713" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:21">
       <c r="A713" s="7"/>
       <c r="B713" s="3"/>
       <c r="C713" s="1"/>
@@ -17366,7 +17412,7 @@
       <c r="T713" s="1"/>
       <c r="U713" s="1"/>
     </row>
-    <row r="714" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:21">
       <c r="A714" s="7"/>
       <c r="B714" s="3"/>
       <c r="C714" s="1"/>
@@ -17389,7 +17435,7 @@
       <c r="T714" s="1"/>
       <c r="U714" s="1"/>
     </row>
-    <row r="715" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:21">
       <c r="A715" s="7"/>
       <c r="B715" s="3"/>
       <c r="C715" s="1"/>
@@ -17412,7 +17458,7 @@
       <c r="T715" s="1"/>
       <c r="U715" s="1"/>
     </row>
-    <row r="716" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:21">
       <c r="A716" s="7"/>
       <c r="B716" s="3"/>
       <c r="C716" s="1"/>
@@ -17435,7 +17481,7 @@
       <c r="T716" s="1"/>
       <c r="U716" s="1"/>
     </row>
-    <row r="717" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:21">
       <c r="A717" s="7"/>
       <c r="B717" s="3"/>
       <c r="C717" s="1"/>
@@ -17458,7 +17504,7 @@
       <c r="T717" s="1"/>
       <c r="U717" s="1"/>
     </row>
-    <row r="718" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:21">
       <c r="A718" s="7"/>
       <c r="B718" s="3"/>
       <c r="C718" s="1"/>
@@ -17481,7 +17527,7 @@
       <c r="T718" s="1"/>
       <c r="U718" s="1"/>
     </row>
-    <row r="719" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:21">
       <c r="A719" s="7"/>
       <c r="B719" s="3"/>
       <c r="C719" s="1"/>
@@ -17504,7 +17550,7 @@
       <c r="T719" s="1"/>
       <c r="U719" s="1"/>
     </row>
-    <row r="720" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:21">
       <c r="A720" s="7"/>
       <c r="B720" s="3"/>
       <c r="C720" s="1"/>
@@ -17527,7 +17573,7 @@
       <c r="T720" s="1"/>
       <c r="U720" s="1"/>
     </row>
-    <row r="721" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:21">
       <c r="A721" s="7"/>
       <c r="B721" s="3"/>
       <c r="C721" s="1"/>
@@ -17550,7 +17596,7 @@
       <c r="T721" s="1"/>
       <c r="U721" s="1"/>
     </row>
-    <row r="722" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:21">
       <c r="A722" s="7"/>
       <c r="B722" s="3"/>
       <c r="C722" s="1"/>
@@ -17573,7 +17619,7 @@
       <c r="T722" s="1"/>
       <c r="U722" s="1"/>
     </row>
-    <row r="723" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:21">
       <c r="A723" s="7"/>
       <c r="B723" s="3"/>
       <c r="C723" s="1"/>
@@ -17596,7 +17642,7 @@
       <c r="T723" s="1"/>
       <c r="U723" s="1"/>
     </row>
-    <row r="724" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:21">
       <c r="A724" s="7"/>
       <c r="B724" s="3"/>
       <c r="C724" s="1"/>
@@ -17619,7 +17665,7 @@
       <c r="T724" s="1"/>
       <c r="U724" s="1"/>
     </row>
-    <row r="725" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:21">
       <c r="A725" s="7"/>
       <c r="B725" s="3"/>
       <c r="C725" s="1"/>
@@ -17642,7 +17688,7 @@
       <c r="T725" s="1"/>
       <c r="U725" s="1"/>
     </row>
-    <row r="726" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:21">
       <c r="A726" s="7"/>
       <c r="B726" s="3"/>
       <c r="C726" s="1"/>
@@ -17665,7 +17711,7 @@
       <c r="T726" s="1"/>
       <c r="U726" s="1"/>
     </row>
-    <row r="727" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:21">
       <c r="A727" s="7"/>
       <c r="B727" s="3"/>
       <c r="C727" s="1"/>
@@ -17688,7 +17734,7 @@
       <c r="T727" s="1"/>
       <c r="U727" s="1"/>
     </row>
-    <row r="728" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:21">
       <c r="A728" s="7"/>
       <c r="B728" s="3"/>
       <c r="C728" s="1"/>
@@ -17711,7 +17757,7 @@
       <c r="T728" s="1"/>
       <c r="U728" s="1"/>
     </row>
-    <row r="729" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:21">
       <c r="A729" s="7"/>
       <c r="B729" s="3"/>
       <c r="C729" s="1"/>
@@ -17734,7 +17780,7 @@
       <c r="T729" s="1"/>
       <c r="U729" s="1"/>
     </row>
-    <row r="730" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:21">
       <c r="A730" s="7"/>
       <c r="B730" s="3"/>
       <c r="C730" s="1"/>
@@ -17757,7 +17803,7 @@
       <c r="T730" s="1"/>
       <c r="U730" s="1"/>
     </row>
-    <row r="731" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:21">
       <c r="A731" s="7"/>
       <c r="B731" s="3"/>
       <c r="C731" s="1"/>
@@ -17780,7 +17826,7 @@
       <c r="T731" s="1"/>
       <c r="U731" s="1"/>
     </row>
-    <row r="732" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:21">
       <c r="A732" s="7"/>
       <c r="B732" s="3"/>
       <c r="C732" s="1"/>
@@ -17803,7 +17849,7 @@
       <c r="T732" s="1"/>
       <c r="U732" s="1"/>
     </row>
-    <row r="733" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:21">
       <c r="A733" s="7"/>
       <c r="B733" s="3"/>
       <c r="C733" s="1"/>
@@ -17826,7 +17872,7 @@
       <c r="T733" s="1"/>
       <c r="U733" s="1"/>
     </row>
-    <row r="734" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:21">
       <c r="A734" s="7"/>
       <c r="B734" s="3"/>
       <c r="C734" s="1"/>
@@ -17849,7 +17895,7 @@
       <c r="T734" s="1"/>
       <c r="U734" s="1"/>
     </row>
-    <row r="735" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:21">
       <c r="A735" s="7"/>
       <c r="B735" s="3"/>
       <c r="C735" s="1"/>
@@ -17872,7 +17918,7 @@
       <c r="T735" s="1"/>
       <c r="U735" s="1"/>
     </row>
-    <row r="736" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:21">
       <c r="A736" s="7"/>
       <c r="B736" s="3"/>
       <c r="C736" s="1"/>
@@ -17895,7 +17941,7 @@
       <c r="T736" s="1"/>
       <c r="U736" s="1"/>
     </row>
-    <row r="737" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:21">
       <c r="A737" s="7"/>
       <c r="B737" s="3"/>
       <c r="C737" s="1"/>
@@ -17918,7 +17964,7 @@
       <c r="T737" s="1"/>
       <c r="U737" s="1"/>
     </row>
-    <row r="738" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:21">
       <c r="A738" s="7"/>
       <c r="B738" s="3"/>
       <c r="C738" s="1"/>
@@ -17941,7 +17987,7 @@
       <c r="T738" s="1"/>
       <c r="U738" s="1"/>
     </row>
-    <row r="739" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:21">
       <c r="A739" s="7"/>
       <c r="B739" s="3"/>
       <c r="C739" s="1"/>
@@ -17964,7 +18010,7 @@
       <c r="T739" s="1"/>
       <c r="U739" s="1"/>
     </row>
-    <row r="740" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:21">
       <c r="A740" s="7"/>
       <c r="B740" s="3"/>
       <c r="C740" s="1"/>
@@ -17987,7 +18033,7 @@
       <c r="T740" s="1"/>
       <c r="U740" s="1"/>
     </row>
-    <row r="741" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:21">
       <c r="A741" s="7"/>
       <c r="B741" s="3"/>
       <c r="C741" s="1"/>
@@ -18010,7 +18056,7 @@
       <c r="T741" s="1"/>
       <c r="U741" s="1"/>
     </row>
-    <row r="742" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:21">
       <c r="A742" s="7"/>
       <c r="B742" s="3"/>
       <c r="C742" s="1"/>
@@ -18033,7 +18079,7 @@
       <c r="T742" s="1"/>
       <c r="U742" s="1"/>
     </row>
-    <row r="743" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:21">
       <c r="A743" s="7"/>
       <c r="B743" s="3"/>
       <c r="C743" s="1"/>
@@ -18056,7 +18102,7 @@
       <c r="T743" s="1"/>
       <c r="U743" s="1"/>
     </row>
-    <row r="744" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:21">
       <c r="A744" s="7"/>
       <c r="B744" s="3"/>
       <c r="C744" s="1"/>
@@ -18079,7 +18125,7 @@
       <c r="T744" s="1"/>
       <c r="U744" s="1"/>
     </row>
-    <row r="745" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:21">
       <c r="A745" s="7"/>
       <c r="B745" s="3"/>
       <c r="C745" s="1"/>
@@ -18102,7 +18148,7 @@
       <c r="T745" s="1"/>
       <c r="U745" s="1"/>
     </row>
-    <row r="746" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:21">
       <c r="A746" s="7"/>
       <c r="B746" s="3"/>
       <c r="C746" s="1"/>
@@ -18125,7 +18171,7 @@
       <c r="T746" s="1"/>
       <c r="U746" s="1"/>
     </row>
-    <row r="747" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:21">
       <c r="A747" s="7"/>
       <c r="B747" s="3"/>
       <c r="C747" s="1"/>
@@ -18148,7 +18194,7 @@
       <c r="T747" s="1"/>
       <c r="U747" s="1"/>
     </row>
-    <row r="748" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:21">
       <c r="A748" s="7"/>
       <c r="B748" s="3"/>
       <c r="C748" s="1"/>
@@ -18171,7 +18217,7 @@
       <c r="T748" s="1"/>
       <c r="U748" s="1"/>
     </row>
-    <row r="749" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:21">
       <c r="A749" s="7"/>
       <c r="B749" s="3"/>
       <c r="C749" s="1"/>
@@ -18194,7 +18240,7 @@
       <c r="T749" s="1"/>
       <c r="U749" s="1"/>
     </row>
-    <row r="750" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:21">
       <c r="A750" s="7"/>
       <c r="B750" s="3"/>
       <c r="C750" s="1"/>
@@ -18217,7 +18263,7 @@
       <c r="T750" s="1"/>
       <c r="U750" s="1"/>
     </row>
-    <row r="751" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:21">
       <c r="A751" s="7"/>
       <c r="B751" s="3"/>
       <c r="C751" s="1"/>
@@ -18240,7 +18286,7 @@
       <c r="T751" s="1"/>
       <c r="U751" s="1"/>
     </row>
-    <row r="752" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:21">
       <c r="A752" s="7"/>
       <c r="B752" s="3"/>
       <c r="C752" s="1"/>
@@ -18263,7 +18309,7 @@
       <c r="T752" s="1"/>
       <c r="U752" s="1"/>
     </row>
-    <row r="753" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:21">
       <c r="A753" s="7"/>
       <c r="B753" s="3"/>
       <c r="C753" s="1"/>
@@ -18286,7 +18332,7 @@
       <c r="T753" s="1"/>
       <c r="U753" s="1"/>
     </row>
-    <row r="754" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:21">
       <c r="A754" s="7"/>
       <c r="B754" s="3"/>
       <c r="C754" s="1"/>
@@ -18309,7 +18355,7 @@
       <c r="T754" s="1"/>
       <c r="U754" s="1"/>
     </row>
-    <row r="755" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:21">
       <c r="A755" s="7"/>
       <c r="B755" s="3"/>
       <c r="C755" s="1"/>
@@ -18332,7 +18378,7 @@
       <c r="T755" s="1"/>
       <c r="U755" s="1"/>
     </row>
-    <row r="756" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:21">
       <c r="A756" s="7"/>
       <c r="B756" s="3"/>
       <c r="C756" s="1"/>
@@ -18355,7 +18401,7 @@
       <c r="T756" s="1"/>
       <c r="U756" s="1"/>
     </row>
-    <row r="757" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:21">
       <c r="A757" s="7"/>
       <c r="B757" s="3"/>
       <c r="C757" s="1"/>
@@ -18378,7 +18424,7 @@
       <c r="T757" s="1"/>
       <c r="U757" s="1"/>
     </row>
-    <row r="758" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:21">
       <c r="A758" s="7"/>
       <c r="B758" s="3"/>
       <c r="C758" s="1"/>
@@ -18401,7 +18447,7 @@
       <c r="T758" s="1"/>
       <c r="U758" s="1"/>
     </row>
-    <row r="759" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:21">
       <c r="A759" s="7"/>
       <c r="B759" s="3"/>
       <c r="C759" s="1"/>
@@ -18424,7 +18470,7 @@
       <c r="T759" s="1"/>
       <c r="U759" s="1"/>
     </row>
-    <row r="760" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:21">
       <c r="A760" s="7"/>
       <c r="B760" s="3"/>
       <c r="C760" s="1"/>
@@ -18447,7 +18493,7 @@
       <c r="T760" s="1"/>
       <c r="U760" s="1"/>
     </row>
-    <row r="761" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:21">
       <c r="A761" s="7"/>
       <c r="B761" s="3"/>
       <c r="C761" s="1"/>
@@ -18470,7 +18516,7 @@
       <c r="T761" s="1"/>
       <c r="U761" s="1"/>
     </row>
-    <row r="762" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:21">
       <c r="A762" s="7"/>
       <c r="B762" s="3"/>
       <c r="C762" s="1"/>
@@ -18493,7 +18539,7 @@
       <c r="T762" s="1"/>
       <c r="U762" s="1"/>
     </row>
-    <row r="763" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:21">
       <c r="A763" s="7"/>
       <c r="B763" s="3"/>
       <c r="C763" s="1"/>
@@ -18516,7 +18562,7 @@
       <c r="T763" s="1"/>
       <c r="U763" s="1"/>
     </row>
-    <row r="764" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:21">
       <c r="A764" s="7"/>
       <c r="B764" s="3"/>
       <c r="C764" s="1"/>
@@ -18539,7 +18585,7 @@
       <c r="T764" s="1"/>
       <c r="U764" s="1"/>
     </row>
-    <row r="765" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:21">
       <c r="A765" s="7"/>
       <c r="B765" s="3"/>
       <c r="C765" s="1"/>
@@ -18562,7 +18608,7 @@
       <c r="T765" s="1"/>
       <c r="U765" s="1"/>
     </row>
-    <row r="766" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:21">
       <c r="A766" s="7"/>
       <c r="B766" s="3"/>
       <c r="C766" s="1"/>
@@ -18585,7 +18631,7 @@
       <c r="T766" s="1"/>
       <c r="U766" s="1"/>
     </row>
-    <row r="767" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:21">
       <c r="A767" s="7"/>
       <c r="B767" s="3"/>
       <c r="C767" s="1"/>
@@ -18608,7 +18654,7 @@
       <c r="T767" s="1"/>
       <c r="U767" s="1"/>
     </row>
-    <row r="768" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:21">
       <c r="A768" s="7"/>
       <c r="B768" s="3"/>
       <c r="C768" s="1"/>
@@ -18631,7 +18677,7 @@
       <c r="T768" s="1"/>
       <c r="U768" s="1"/>
     </row>
-    <row r="769" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:21">
       <c r="A769" s="7"/>
       <c r="B769" s="3"/>
       <c r="C769" s="1"/>
@@ -18654,7 +18700,7 @@
       <c r="T769" s="1"/>
       <c r="U769" s="1"/>
     </row>
-    <row r="770" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:21">
       <c r="A770" s="7"/>
       <c r="B770" s="3"/>
       <c r="C770" s="1"/>
@@ -18677,7 +18723,7 @@
       <c r="T770" s="1"/>
       <c r="U770" s="1"/>
     </row>
-    <row r="771" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:21">
       <c r="A771" s="7"/>
       <c r="B771" s="3"/>
       <c r="C771" s="1"/>
@@ -18700,7 +18746,7 @@
       <c r="T771" s="1"/>
       <c r="U771" s="1"/>
     </row>
-    <row r="772" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:21">
       <c r="A772" s="7"/>
       <c r="B772" s="3"/>
       <c r="C772" s="1"/>
@@ -18723,7 +18769,7 @@
       <c r="T772" s="1"/>
       <c r="U772" s="1"/>
     </row>
-    <row r="773" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:21">
       <c r="A773" s="7"/>
       <c r="B773" s="3"/>
       <c r="C773" s="1"/>
@@ -18746,7 +18792,7 @@
       <c r="T773" s="1"/>
       <c r="U773" s="1"/>
     </row>
-    <row r="774" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:21">
       <c r="A774" s="7"/>
       <c r="B774" s="3"/>
       <c r="C774" s="1"/>
@@ -18769,7 +18815,7 @@
       <c r="T774" s="1"/>
       <c r="U774" s="1"/>
     </row>
-    <row r="775" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:21">
       <c r="A775" s="7"/>
       <c r="B775" s="3"/>
       <c r="C775" s="1"/>
@@ -18792,7 +18838,7 @@
       <c r="T775" s="1"/>
       <c r="U775" s="1"/>
     </row>
-    <row r="776" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:21">
       <c r="A776" s="7"/>
       <c r="B776" s="3"/>
       <c r="C776" s="1"/>
@@ -18815,7 +18861,7 @@
       <c r="T776" s="1"/>
       <c r="U776" s="1"/>
     </row>
-    <row r="777" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:21">
       <c r="A777" s="7"/>
       <c r="B777" s="3"/>
       <c r="C777" s="1"/>
@@ -18838,7 +18884,7 @@
       <c r="T777" s="1"/>
       <c r="U777" s="1"/>
     </row>
-    <row r="778" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:21">
       <c r="A778" s="7"/>
       <c r="B778" s="3"/>
       <c r="C778" s="1"/>
@@ -18861,7 +18907,7 @@
       <c r="T778" s="1"/>
       <c r="U778" s="1"/>
     </row>
-    <row r="779" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:21">
       <c r="A779" s="7"/>
       <c r="B779" s="3"/>
       <c r="C779" s="1"/>
@@ -18884,7 +18930,7 @@
       <c r="T779" s="1"/>
       <c r="U779" s="1"/>
     </row>
-    <row r="780" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:21">
       <c r="A780" s="7"/>
       <c r="B780" s="3"/>
       <c r="C780" s="1"/>
@@ -18907,7 +18953,7 @@
       <c r="T780" s="1"/>
       <c r="U780" s="1"/>
     </row>
-    <row r="781" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:21">
       <c r="A781" s="7"/>
       <c r="B781" s="3"/>
       <c r="C781" s="1"/>
@@ -18930,7 +18976,7 @@
       <c r="T781" s="1"/>
       <c r="U781" s="1"/>
     </row>
-    <row r="782" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:21">
       <c r="A782" s="7"/>
       <c r="B782" s="3"/>
       <c r="C782" s="1"/>
@@ -18953,7 +18999,7 @@
       <c r="T782" s="1"/>
       <c r="U782" s="1"/>
     </row>
-    <row r="783" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:21">
       <c r="A783" s="7"/>
       <c r="B783" s="3"/>
       <c r="C783" s="1"/>
@@ -18976,7 +19022,7 @@
       <c r="T783" s="1"/>
       <c r="U783" s="1"/>
     </row>
-    <row r="784" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:21">
       <c r="A784" s="7"/>
       <c r="B784" s="3"/>
       <c r="C784" s="1"/>
@@ -18999,7 +19045,7 @@
       <c r="T784" s="1"/>
       <c r="U784" s="1"/>
     </row>
-    <row r="785" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:21">
       <c r="A785" s="7"/>
       <c r="B785" s="3"/>
       <c r="C785" s="1"/>
@@ -19022,7 +19068,7 @@
       <c r="T785" s="1"/>
       <c r="U785" s="1"/>
     </row>
-    <row r="786" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:21">
       <c r="A786" s="7"/>
       <c r="B786" s="3"/>
       <c r="C786" s="1"/>
@@ -19045,7 +19091,7 @@
       <c r="T786" s="1"/>
       <c r="U786" s="1"/>
     </row>
-    <row r="787" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:21">
       <c r="A787" s="7"/>
       <c r="B787" s="3"/>
       <c r="C787" s="1"/>
@@ -19068,7 +19114,7 @@
       <c r="T787" s="1"/>
       <c r="U787" s="1"/>
     </row>
-    <row r="788" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:21">
       <c r="A788" s="7"/>
       <c r="B788" s="3"/>
       <c r="C788" s="1"/>
@@ -19091,7 +19137,7 @@
       <c r="T788" s="1"/>
       <c r="U788" s="1"/>
     </row>
-    <row r="789" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:21">
       <c r="A789" s="7"/>
       <c r="B789" s="3"/>
       <c r="C789" s="1"/>
@@ -19114,7 +19160,7 @@
       <c r="T789" s="1"/>
       <c r="U789" s="1"/>
     </row>
-    <row r="790" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:21">
       <c r="A790" s="7"/>
       <c r="B790" s="3"/>
       <c r="C790" s="1"/>
@@ -19137,7 +19183,7 @@
       <c r="T790" s="1"/>
       <c r="U790" s="1"/>
     </row>
-    <row r="791" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:21">
       <c r="A791" s="7"/>
       <c r="B791" s="3"/>
       <c r="C791" s="1"/>
@@ -19160,7 +19206,7 @@
       <c r="T791" s="1"/>
       <c r="U791" s="1"/>
     </row>
-    <row r="792" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:21">
       <c r="A792" s="7"/>
       <c r="B792" s="3"/>
       <c r="C792" s="1"/>
@@ -19183,7 +19229,7 @@
       <c r="T792" s="1"/>
       <c r="U792" s="1"/>
     </row>
-    <row r="793" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:21">
       <c r="A793" s="7"/>
       <c r="B793" s="3"/>
       <c r="C793" s="1"/>
@@ -19206,7 +19252,7 @@
       <c r="T793" s="1"/>
       <c r="U793" s="1"/>
     </row>
-    <row r="794" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:21">
       <c r="A794" s="7"/>
       <c r="B794" s="3"/>
       <c r="C794" s="1"/>
@@ -19229,7 +19275,7 @@
       <c r="T794" s="1"/>
       <c r="U794" s="1"/>
     </row>
-    <row r="795" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:21">
       <c r="A795" s="7"/>
       <c r="B795" s="3"/>
       <c r="C795" s="1"/>
@@ -19252,7 +19298,7 @@
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
     </row>
-    <row r="796" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:21">
       <c r="A796" s="7"/>
       <c r="B796" s="3"/>
       <c r="C796" s="1"/>
@@ -19275,7 +19321,7 @@
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
     </row>
-    <row r="797" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:21">
       <c r="A797" s="7"/>
       <c r="B797" s="3"/>
       <c r="C797" s="1"/>
@@ -19298,7 +19344,7 @@
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
     </row>
-    <row r="798" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:21">
       <c r="A798" s="7"/>
       <c r="B798" s="3"/>
       <c r="C798" s="1"/>
@@ -19321,7 +19367,7 @@
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
     </row>
-    <row r="799" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:21">
       <c r="A799" s="7"/>
       <c r="B799" s="3"/>
       <c r="C799" s="1"/>
@@ -19344,7 +19390,7 @@
       <c r="T799" s="1"/>
       <c r="U799" s="1"/>
     </row>
-    <row r="800" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:21">
       <c r="A800" s="7"/>
       <c r="B800" s="3"/>
       <c r="C800" s="1"/>
@@ -19367,7 +19413,7 @@
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
     </row>
-    <row r="801" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:21">
       <c r="A801" s="7"/>
       <c r="B801" s="3"/>
       <c r="C801" s="1"/>
@@ -19390,7 +19436,7 @@
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
     </row>
-    <row r="802" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:21">
       <c r="A802" s="7"/>
       <c r="B802" s="3"/>
       <c r="C802" s="1"/>
@@ -19413,7 +19459,7 @@
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
     </row>
-    <row r="803" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:21">
       <c r="A803" s="7"/>
       <c r="B803" s="3"/>
       <c r="C803" s="1"/>
@@ -19436,7 +19482,7 @@
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
     </row>
-    <row r="804" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:21">
       <c r="A804" s="7"/>
       <c r="B804" s="3"/>
       <c r="C804" s="1"/>
@@ -19459,7 +19505,7 @@
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
     </row>
-    <row r="805" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:21">
       <c r="A805" s="7"/>
       <c r="B805" s="3"/>
       <c r="C805" s="1"/>
@@ -19482,7 +19528,7 @@
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
     </row>
-    <row r="806" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:21">
       <c r="A806" s="7"/>
       <c r="B806" s="3"/>
       <c r="C806" s="1"/>
@@ -19505,7 +19551,7 @@
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
     </row>
-    <row r="807" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:21">
       <c r="A807" s="7"/>
       <c r="B807" s="3"/>
       <c r="C807" s="1"/>
@@ -19528,7 +19574,7 @@
       <c r="T807" s="1"/>
       <c r="U807" s="1"/>
     </row>
-    <row r="808" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:21">
       <c r="A808" s="7"/>
       <c r="B808" s="3"/>
       <c r="C808" s="1"/>
@@ -19551,7 +19597,7 @@
       <c r="T808" s="1"/>
       <c r="U808" s="1"/>
     </row>
-    <row r="809" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:21">
       <c r="A809" s="7"/>
       <c r="B809" s="3"/>
       <c r="C809" s="1"/>
@@ -19574,7 +19620,7 @@
       <c r="T809" s="1"/>
       <c r="U809" s="1"/>
     </row>
-    <row r="810" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:21">
       <c r="A810" s="7"/>
       <c r="B810" s="3"/>
       <c r="C810" s="1"/>
@@ -19597,7 +19643,7 @@
       <c r="T810" s="1"/>
       <c r="U810" s="1"/>
     </row>
-    <row r="811" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:21">
       <c r="A811" s="7"/>
       <c r="B811" s="3"/>
       <c r="C811" s="1"/>
@@ -19620,7 +19666,7 @@
       <c r="T811" s="1"/>
       <c r="U811" s="1"/>
     </row>
-    <row r="812" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:21">
       <c r="A812" s="7"/>
       <c r="B812" s="3"/>
       <c r="C812" s="1"/>
@@ -19643,7 +19689,7 @@
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
     </row>
-    <row r="813" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:21">
       <c r="A813" s="7"/>
       <c r="B813" s="3"/>
       <c r="C813" s="1"/>
@@ -19666,7 +19712,7 @@
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
     </row>
-    <row r="814" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:21">
       <c r="A814" s="7"/>
       <c r="B814" s="3"/>
       <c r="C814" s="1"/>
@@ -19689,7 +19735,7 @@
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
     </row>
-    <row r="815" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:21">
       <c r="A815" s="7"/>
       <c r="B815" s="3"/>
       <c r="C815" s="1"/>
@@ -19712,7 +19758,7 @@
       <c r="T815" s="1"/>
       <c r="U815" s="1"/>
     </row>
-    <row r="816" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:21">
       <c r="A816" s="7"/>
       <c r="B816" s="3"/>
       <c r="C816" s="1"/>
@@ -19735,7 +19781,7 @@
       <c r="T816" s="1"/>
       <c r="U816" s="1"/>
     </row>
-    <row r="817" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:21">
       <c r="A817" s="7"/>
       <c r="B817" s="3"/>
       <c r="C817" s="1"/>
@@ -19758,7 +19804,7 @@
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
     </row>
-    <row r="818" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:21">
       <c r="A818" s="7"/>
       <c r="B818" s="3"/>
       <c r="C818" s="1"/>
@@ -19781,7 +19827,7 @@
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
     </row>
-    <row r="819" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:21">
       <c r="A819" s="7"/>
       <c r="B819" s="3"/>
       <c r="C819" s="1"/>
@@ -19804,7 +19850,7 @@
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
     </row>
-    <row r="820" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:21">
       <c r="A820" s="7"/>
       <c r="B820" s="3"/>
       <c r="C820" s="1"/>
@@ -19827,7 +19873,7 @@
       <c r="T820" s="1"/>
       <c r="U820" s="1"/>
     </row>
-    <row r="821" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:21">
       <c r="A821" s="7"/>
       <c r="B821" s="3"/>
       <c r="C821" s="1"/>
@@ -19850,7 +19896,7 @@
       <c r="T821" s="1"/>
       <c r="U821" s="1"/>
     </row>
-    <row r="822" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:21">
       <c r="A822" s="7"/>
       <c r="B822" s="3"/>
       <c r="C822" s="1"/>
@@ -19873,7 +19919,7 @@
       <c r="T822" s="1"/>
       <c r="U822" s="1"/>
     </row>
-    <row r="823" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:21">
       <c r="A823" s="7"/>
       <c r="B823" s="3"/>
       <c r="C823" s="1"/>
@@ -19896,7 +19942,7 @@
       <c r="T823" s="1"/>
       <c r="U823" s="1"/>
     </row>
-    <row r="824" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:21">
       <c r="A824" s="7"/>
       <c r="B824" s="3"/>
       <c r="C824" s="1"/>
@@ -19919,7 +19965,7 @@
       <c r="T824" s="1"/>
       <c r="U824" s="1"/>
     </row>
-    <row r="825" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:21">
       <c r="A825" s="7"/>
       <c r="B825" s="3"/>
       <c r="C825" s="1"/>
@@ -19942,7 +19988,7 @@
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
     </row>
-    <row r="826" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:21">
       <c r="A826" s="7"/>
       <c r="B826" s="3"/>
       <c r="C826" s="1"/>
@@ -19965,7 +20011,7 @@
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
     </row>
-    <row r="827" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:21">
       <c r="A827" s="7"/>
       <c r="B827" s="3"/>
       <c r="C827" s="1"/>
@@ -19988,7 +20034,7 @@
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
     </row>
-    <row r="828" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:21">
       <c r="A828" s="7"/>
       <c r="B828" s="3"/>
       <c r="C828" s="1"/>
@@ -20011,7 +20057,7 @@
       <c r="T828" s="1"/>
       <c r="U828" s="1"/>
     </row>
-    <row r="829" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:21">
       <c r="A829" s="7"/>
       <c r="B829" s="3"/>
       <c r="C829" s="1"/>
@@ -20034,7 +20080,7 @@
       <c r="T829" s="1"/>
       <c r="U829" s="1"/>
     </row>
-    <row r="830" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:21">
       <c r="A830" s="7"/>
       <c r="B830" s="3"/>
       <c r="C830" s="1"/>
@@ -20057,7 +20103,7 @@
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
     </row>
-    <row r="831" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:21">
       <c r="A831" s="7"/>
       <c r="B831" s="3"/>
       <c r="C831" s="1"/>
@@ -20080,7 +20126,7 @@
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
     </row>
-    <row r="832" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:21">
       <c r="A832" s="7"/>
       <c r="B832" s="3"/>
       <c r="C832" s="1"/>
@@ -20103,7 +20149,7 @@
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
     </row>
-    <row r="833" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:21">
       <c r="A833" s="7"/>
       <c r="B833" s="3"/>
       <c r="C833" s="1"/>
@@ -20126,7 +20172,7 @@
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
     </row>
-    <row r="834" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:21">
       <c r="A834" s="7"/>
       <c r="B834" s="3"/>
       <c r="C834" s="1"/>
@@ -20149,7 +20195,7 @@
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
     </row>
-    <row r="835" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:21">
       <c r="A835" s="7"/>
       <c r="B835" s="3"/>
       <c r="C835" s="1"/>
@@ -20172,7 +20218,7 @@
       <c r="T835" s="1"/>
       <c r="U835" s="1"/>
     </row>
-    <row r="836" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:21">
       <c r="A836" s="7"/>
       <c r="B836" s="3"/>
       <c r="C836" s="1"/>
@@ -20195,7 +20241,7 @@
       <c r="T836" s="1"/>
       <c r="U836" s="1"/>
     </row>
-    <row r="837" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:21">
       <c r="A837" s="7"/>
       <c r="B837" s="3"/>
       <c r="C837" s="1"/>
@@ -20218,7 +20264,7 @@
       <c r="T837" s="1"/>
       <c r="U837" s="1"/>
     </row>
-    <row r="838" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:21">
       <c r="A838" s="7"/>
       <c r="B838" s="3"/>
       <c r="C838" s="1"/>
@@ -20241,7 +20287,7 @@
       <c r="T838" s="1"/>
       <c r="U838" s="1"/>
     </row>
-    <row r="839" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:21">
       <c r="A839" s="7"/>
       <c r="B839" s="3"/>
       <c r="C839" s="1"/>
@@ -20264,7 +20310,7 @@
       <c r="T839" s="1"/>
       <c r="U839" s="1"/>
     </row>
-    <row r="840" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:21">
       <c r="A840" s="7"/>
       <c r="B840" s="3"/>
       <c r="C840" s="1"/>
@@ -20287,7 +20333,7 @@
       <c r="T840" s="1"/>
       <c r="U840" s="1"/>
     </row>
-    <row r="841" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:21">
       <c r="A841" s="7"/>
       <c r="B841" s="3"/>
       <c r="C841" s="1"/>
@@ -20310,7 +20356,7 @@
       <c r="T841" s="1"/>
       <c r="U841" s="1"/>
     </row>
-    <row r="842" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:21">
       <c r="A842" s="7"/>
       <c r="B842" s="3"/>
       <c r="C842" s="1"/>
@@ -20333,7 +20379,7 @@
       <c r="T842" s="1"/>
       <c r="U842" s="1"/>
     </row>
-    <row r="843" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:21">
       <c r="A843" s="7"/>
       <c r="B843" s="3"/>
       <c r="C843" s="1"/>
@@ -20356,7 +20402,7 @@
       <c r="T843" s="1"/>
       <c r="U843" s="1"/>
     </row>
-    <row r="844" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:21">
       <c r="A844" s="7"/>
       <c r="B844" s="3"/>
       <c r="C844" s="1"/>
@@ -20379,7 +20425,7 @@
       <c r="T844" s="1"/>
       <c r="U844" s="1"/>
     </row>
-    <row r="845" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:21">
       <c r="A845" s="7"/>
       <c r="B845" s="3"/>
       <c r="C845" s="1"/>
@@ -20402,7 +20448,7 @@
       <c r="T845" s="1"/>
       <c r="U845" s="1"/>
     </row>
-    <row r="846" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:21">
       <c r="A846" s="7"/>
       <c r="B846" s="3"/>
       <c r="C846" s="1"/>
@@ -20425,7 +20471,7 @@
       <c r="T846" s="1"/>
       <c r="U846" s="1"/>
     </row>
-    <row r="847" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:21">
       <c r="A847" s="7"/>
       <c r="B847" s="3"/>
       <c r="C847" s="1"/>
@@ -20448,7 +20494,7 @@
       <c r="T847" s="1"/>
       <c r="U847" s="1"/>
     </row>
-    <row r="848" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:21">
       <c r="A848" s="7"/>
       <c r="B848" s="3"/>
       <c r="C848" s="1"/>
@@ -20471,7 +20517,7 @@
       <c r="T848" s="1"/>
       <c r="U848" s="1"/>
     </row>
-    <row r="849" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:21">
       <c r="A849" s="7"/>
       <c r="B849" s="3"/>
       <c r="C849" s="1"/>
@@ -20494,7 +20540,7 @@
       <c r="T849" s="1"/>
       <c r="U849" s="1"/>
     </row>
-    <row r="850" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:21">
       <c r="A850" s="7"/>
       <c r="B850" s="3"/>
       <c r="C850" s="1"/>
@@ -20517,7 +20563,7 @@
       <c r="T850" s="1"/>
       <c r="U850" s="1"/>
     </row>
-    <row r="851" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:21">
       <c r="A851" s="7"/>
       <c r="B851" s="3"/>
       <c r="C851" s="1"/>
@@ -20540,7 +20586,7 @@
       <c r="T851" s="1"/>
       <c r="U851" s="1"/>
     </row>
-    <row r="852" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:21">
       <c r="A852" s="7"/>
       <c r="B852" s="3"/>
       <c r="C852" s="1"/>
@@ -20563,7 +20609,7 @@
       <c r="T852" s="1"/>
       <c r="U852" s="1"/>
     </row>
-    <row r="853" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:21">
       <c r="A853" s="7"/>
       <c r="B853" s="3"/>
       <c r="C853" s="1"/>
@@ -20586,7 +20632,7 @@
       <c r="T853" s="1"/>
       <c r="U853" s="1"/>
     </row>
-    <row r="854" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:21">
       <c r="A854" s="7"/>
       <c r="B854" s="3"/>
       <c r="C854" s="1"/>
@@ -20609,7 +20655,7 @@
       <c r="T854" s="1"/>
       <c r="U854" s="1"/>
     </row>
-    <row r="855" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:21">
       <c r="A855" s="7"/>
       <c r="B855" s="3"/>
       <c r="C855" s="1"/>
@@ -20632,7 +20678,7 @@
       <c r="T855" s="1"/>
       <c r="U855" s="1"/>
     </row>
-    <row r="856" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:21">
       <c r="A856" s="7"/>
       <c r="B856" s="3"/>
       <c r="C856" s="1"/>
@@ -20655,7 +20701,7 @@
       <c r="T856" s="1"/>
       <c r="U856" s="1"/>
     </row>
-    <row r="857" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:21">
       <c r="A857" s="7"/>
       <c r="B857" s="3"/>
       <c r="C857" s="1"/>
@@ -20678,7 +20724,7 @@
       <c r="T857" s="1"/>
       <c r="U857" s="1"/>
     </row>
-    <row r="858" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:21">
       <c r="A858" s="7"/>
       <c r="B858" s="3"/>
       <c r="C858" s="1"/>
@@ -20701,7 +20747,7 @@
       <c r="T858" s="1"/>
       <c r="U858" s="1"/>
     </row>
-    <row r="859" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:21">
       <c r="A859" s="7"/>
       <c r="B859" s="3"/>
       <c r="C859" s="1"/>
@@ -20724,7 +20770,7 @@
       <c r="T859" s="1"/>
       <c r="U859" s="1"/>
     </row>
-    <row r="860" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:21">
       <c r="A860" s="7"/>
       <c r="B860" s="3"/>
       <c r="C860" s="1"/>
@@ -20747,7 +20793,7 @@
       <c r="T860" s="1"/>
       <c r="U860" s="1"/>
     </row>
-    <row r="861" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:21">
       <c r="A861" s="7"/>
       <c r="B861" s="3"/>
       <c r="C861" s="1"/>
@@ -20770,7 +20816,7 @@
       <c r="T861" s="1"/>
       <c r="U861" s="1"/>
     </row>
-    <row r="862" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:21">
       <c r="A862" s="7"/>
       <c r="B862" s="3"/>
       <c r="C862" s="1"/>
@@ -20793,7 +20839,7 @@
       <c r="T862" s="1"/>
       <c r="U862" s="1"/>
     </row>
-    <row r="863" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:21">
       <c r="A863" s="7"/>
       <c r="B863" s="3"/>
       <c r="C863" s="1"/>
@@ -20816,7 +20862,7 @@
       <c r="T863" s="1"/>
       <c r="U863" s="1"/>
     </row>
-    <row r="864" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:21">
       <c r="A864" s="7"/>
       <c r="B864" s="3"/>
       <c r="C864" s="1"/>
@@ -20839,7 +20885,7 @@
       <c r="T864" s="1"/>
       <c r="U864" s="1"/>
     </row>
-    <row r="865" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:21">
       <c r="A865" s="7"/>
       <c r="B865" s="3"/>
       <c r="C865" s="1"/>
@@ -20862,7 +20908,7 @@
       <c r="T865" s="1"/>
       <c r="U865" s="1"/>
     </row>
-    <row r="866" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:21">
       <c r="A866" s="7"/>
       <c r="B866" s="3"/>
       <c r="C866" s="1"/>
@@ -20885,7 +20931,7 @@
       <c r="T866" s="1"/>
       <c r="U866" s="1"/>
     </row>
-    <row r="867" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:21">
       <c r="A867" s="7"/>
       <c r="B867" s="3"/>
       <c r="C867" s="1"/>
@@ -20908,7 +20954,7 @@
       <c r="T867" s="1"/>
       <c r="U867" s="1"/>
     </row>
-    <row r="868" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:21">
       <c r="A868" s="7"/>
       <c r="B868" s="3"/>
       <c r="C868" s="1"/>
@@ -20931,7 +20977,7 @@
       <c r="T868" s="1"/>
       <c r="U868" s="1"/>
     </row>
-    <row r="869" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:21">
       <c r="A869" s="7"/>
       <c r="B869" s="3"/>
       <c r="C869" s="1"/>
@@ -20954,7 +21000,7 @@
       <c r="T869" s="1"/>
       <c r="U869" s="1"/>
     </row>
-    <row r="870" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:21">
       <c r="A870" s="7"/>
       <c r="B870" s="3"/>
       <c r="C870" s="1"/>
@@ -20977,7 +21023,7 @@
       <c r="T870" s="1"/>
       <c r="U870" s="1"/>
     </row>
-    <row r="871" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:21">
       <c r="A871" s="7"/>
       <c r="B871" s="3"/>
       <c r="C871" s="1"/>
@@ -21000,7 +21046,7 @@
       <c r="T871" s="1"/>
       <c r="U871" s="1"/>
     </row>
-    <row r="872" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:21">
       <c r="A872" s="7"/>
       <c r="B872" s="3"/>
       <c r="C872" s="1"/>
@@ -21023,7 +21069,7 @@
       <c r="T872" s="1"/>
       <c r="U872" s="1"/>
     </row>
-    <row r="873" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:21">
       <c r="A873" s="7"/>
       <c r="B873" s="3"/>
       <c r="C873" s="1"/>
@@ -21046,7 +21092,7 @@
       <c r="T873" s="1"/>
       <c r="U873" s="1"/>
     </row>
-    <row r="874" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:21">
       <c r="A874" s="7"/>
       <c r="B874" s="3"/>
       <c r="C874" s="1"/>
@@ -21069,7 +21115,7 @@
       <c r="T874" s="1"/>
       <c r="U874" s="1"/>
     </row>
-    <row r="875" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:21">
       <c r="A875" s="7"/>
       <c r="B875" s="3"/>
       <c r="C875" s="1"/>
@@ -21092,7 +21138,7 @@
       <c r="T875" s="1"/>
       <c r="U875" s="1"/>
     </row>
-    <row r="876" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:21">
       <c r="A876" s="7"/>
       <c r="B876" s="3"/>
       <c r="C876" s="1"/>
@@ -21115,7 +21161,7 @@
       <c r="T876" s="1"/>
       <c r="U876" s="1"/>
     </row>
-    <row r="877" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:21">
       <c r="A877" s="7"/>
       <c r="B877" s="3"/>
       <c r="C877" s="1"/>
@@ -21138,7 +21184,7 @@
       <c r="T877" s="1"/>
       <c r="U877" s="1"/>
     </row>
-    <row r="878" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:21">
       <c r="A878" s="7"/>
       <c r="B878" s="3"/>
       <c r="C878" s="1"/>
@@ -21161,7 +21207,7 @@
       <c r="T878" s="1"/>
       <c r="U878" s="1"/>
     </row>
-    <row r="879" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:21">
       <c r="A879" s="7"/>
       <c r="B879" s="3"/>
       <c r="C879" s="1"/>
@@ -21184,7 +21230,7 @@
       <c r="T879" s="1"/>
       <c r="U879" s="1"/>
     </row>
-    <row r="880" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:21">
       <c r="A880" s="7"/>
       <c r="B880" s="3"/>
       <c r="C880" s="1"/>
@@ -21207,7 +21253,7 @@
       <c r="T880" s="1"/>
       <c r="U880" s="1"/>
     </row>
-    <row r="881" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:21">
       <c r="A881" s="7"/>
       <c r="B881" s="3"/>
       <c r="C881" s="1"/>
@@ -21230,7 +21276,7 @@
       <c r="T881" s="1"/>
       <c r="U881" s="1"/>
     </row>
-    <row r="882" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:21">
       <c r="A882" s="7"/>
       <c r="B882" s="3"/>
       <c r="C882" s="1"/>
@@ -21253,7 +21299,7 @@
       <c r="T882" s="1"/>
       <c r="U882" s="1"/>
     </row>
-    <row r="883" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:21">
       <c r="A883" s="7"/>
       <c r="B883" s="3"/>
       <c r="C883" s="1"/>
@@ -21276,7 +21322,7 @@
       <c r="T883" s="1"/>
       <c r="U883" s="1"/>
     </row>
-    <row r="884" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:21">
       <c r="A884" s="7"/>
       <c r="B884" s="3"/>
       <c r="C884" s="1"/>
@@ -21299,7 +21345,7 @@
       <c r="T884" s="1"/>
       <c r="U884" s="1"/>
     </row>
-    <row r="885" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:21">
       <c r="A885" s="7"/>
       <c r="B885" s="3"/>
       <c r="C885" s="1"/>
@@ -21322,7 +21368,7 @@
       <c r="T885" s="1"/>
       <c r="U885" s="1"/>
     </row>
-    <row r="886" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:21">
       <c r="A886" s="7"/>
       <c r="B886" s="3"/>
       <c r="C886" s="1"/>
@@ -21345,7 +21391,7 @@
       <c r="T886" s="1"/>
       <c r="U886" s="1"/>
     </row>
-    <row r="887" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:21">
       <c r="A887" s="7"/>
       <c r="B887" s="3"/>
       <c r="C887" s="1"/>
@@ -21368,7 +21414,7 @@
       <c r="T887" s="1"/>
       <c r="U887" s="1"/>
     </row>
-    <row r="888" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:21">
       <c r="A888" s="7"/>
       <c r="B888" s="3"/>
       <c r="C888" s="1"/>
@@ -21391,7 +21437,7 @@
       <c r="T888" s="1"/>
       <c r="U888" s="1"/>
     </row>
-    <row r="889" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:21">
       <c r="A889" s="7"/>
       <c r="B889" s="3"/>
       <c r="C889" s="1"/>
@@ -21414,7 +21460,7 @@
       <c r="T889" s="1"/>
       <c r="U889" s="1"/>
     </row>
-    <row r="890" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:21">
       <c r="A890" s="7"/>
       <c r="B890" s="3"/>
       <c r="C890" s="1"/>
@@ -21437,7 +21483,7 @@
       <c r="T890" s="1"/>
       <c r="U890" s="1"/>
     </row>
-    <row r="891" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:21">
       <c r="A891" s="7"/>
       <c r="B891" s="3"/>
       <c r="C891" s="1"/>
@@ -21460,7 +21506,7 @@
       <c r="T891" s="1"/>
       <c r="U891" s="1"/>
     </row>
-    <row r="892" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:21">
       <c r="A892" s="7"/>
       <c r="B892" s="3"/>
       <c r="C892" s="1"/>
@@ -21483,7 +21529,7 @@
       <c r="T892" s="1"/>
       <c r="U892" s="1"/>
     </row>
-    <row r="893" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:21">
       <c r="A893" s="7"/>
       <c r="B893" s="3"/>
       <c r="C893" s="1"/>
@@ -21506,7 +21552,7 @@
       <c r="T893" s="1"/>
       <c r="U893" s="1"/>
     </row>
-    <row r="894" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:21">
       <c r="A894" s="7"/>
       <c r="B894" s="3"/>
       <c r="C894" s="1"/>
@@ -21529,7 +21575,7 @@
       <c r="T894" s="1"/>
       <c r="U894" s="1"/>
     </row>
-    <row r="895" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:21">
       <c r="A895" s="7"/>
       <c r="B895" s="3"/>
       <c r="C895" s="1"/>
@@ -21552,7 +21598,7 @@
       <c r="T895" s="1"/>
       <c r="U895" s="1"/>
     </row>
-    <row r="896" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:21">
       <c r="A896" s="7"/>
       <c r="B896" s="3"/>
       <c r="C896" s="1"/>
@@ -21575,7 +21621,7 @@
       <c r="T896" s="1"/>
       <c r="U896" s="1"/>
     </row>
-    <row r="897" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:21">
       <c r="A897" s="7"/>
       <c r="B897" s="3"/>
       <c r="C897" s="1"/>
@@ -21598,7 +21644,7 @@
       <c r="T897" s="1"/>
       <c r="U897" s="1"/>
     </row>
-    <row r="898" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:21">
       <c r="A898" s="7"/>
       <c r="B898" s="3"/>
       <c r="C898" s="1"/>
@@ -21621,7 +21667,7 @@
       <c r="T898" s="1"/>
       <c r="U898" s="1"/>
     </row>
-    <row r="899" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:21">
       <c r="A899" s="7"/>
       <c r="B899" s="3"/>
       <c r="C899" s="1"/>
@@ -21644,7 +21690,7 @@
       <c r="T899" s="1"/>
       <c r="U899" s="1"/>
     </row>
-    <row r="900" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:21">
       <c r="A900" s="7"/>
       <c r="B900" s="3"/>
       <c r="C900" s="1"/>
@@ -21667,7 +21713,7 @@
       <c r="T900" s="1"/>
       <c r="U900" s="1"/>
     </row>
-    <row r="901" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:21">
       <c r="A901" s="7"/>
       <c r="B901" s="3"/>
       <c r="C901" s="1"/>
@@ -21690,7 +21736,7 @@
       <c r="T901" s="1"/>
       <c r="U901" s="1"/>
     </row>
-    <row r="902" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:21">
       <c r="A902" s="7"/>
       <c r="B902" s="3"/>
       <c r="C902" s="1"/>
@@ -21713,7 +21759,7 @@
       <c r="T902" s="1"/>
       <c r="U902" s="1"/>
     </row>
-    <row r="903" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:21">
       <c r="A903" s="7"/>
       <c r="B903" s="3"/>
       <c r="C903" s="1"/>
@@ -21736,7 +21782,7 @@
       <c r="T903" s="1"/>
       <c r="U903" s="1"/>
     </row>
-    <row r="904" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:21">
       <c r="A904" s="7"/>
       <c r="B904" s="3"/>
       <c r="C904" s="1"/>
@@ -21759,7 +21805,7 @@
       <c r="T904" s="1"/>
       <c r="U904" s="1"/>
     </row>
-    <row r="905" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:21">
       <c r="A905" s="7"/>
       <c r="B905" s="3"/>
       <c r="C905" s="1"/>
@@ -21782,7 +21828,7 @@
       <c r="T905" s="1"/>
       <c r="U905" s="1"/>
     </row>
-    <row r="906" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:21">
       <c r="A906" s="7"/>
       <c r="B906" s="3"/>
       <c r="C906" s="1"/>
@@ -21805,7 +21851,7 @@
       <c r="T906" s="1"/>
       <c r="U906" s="1"/>
     </row>
-    <row r="907" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:21">
       <c r="A907" s="7"/>
       <c r="B907" s="3"/>
       <c r="C907" s="1"/>
@@ -21828,7 +21874,7 @@
       <c r="T907" s="1"/>
       <c r="U907" s="1"/>
     </row>
-    <row r="908" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:21">
       <c r="A908" s="7"/>
       <c r="B908" s="3"/>
       <c r="C908" s="1"/>
@@ -21851,7 +21897,7 @@
       <c r="T908" s="1"/>
       <c r="U908" s="1"/>
     </row>
-    <row r="909" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:21">
       <c r="A909" s="7"/>
       <c r="B909" s="3"/>
       <c r="C909" s="1"/>
@@ -21874,7 +21920,7 @@
       <c r="T909" s="1"/>
       <c r="U909" s="1"/>
     </row>
-    <row r="910" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:21">
       <c r="A910" s="7"/>
       <c r="B910" s="3"/>
       <c r="C910" s="1"/>
@@ -21897,7 +21943,7 @@
       <c r="T910" s="1"/>
       <c r="U910" s="1"/>
     </row>
-    <row r="911" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:21">
       <c r="A911" s="7"/>
       <c r="B911" s="3"/>
       <c r="C911" s="1"/>
@@ -21920,7 +21966,7 @@
       <c r="T911" s="1"/>
       <c r="U911" s="1"/>
     </row>
-    <row r="912" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:21">
       <c r="A912" s="7"/>
       <c r="B912" s="3"/>
       <c r="C912" s="1"/>
@@ -21943,7 +21989,7 @@
       <c r="T912" s="1"/>
       <c r="U912" s="1"/>
     </row>
-    <row r="913" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:21">
       <c r="A913" s="7"/>
       <c r="B913" s="3"/>
       <c r="C913" s="1"/>
@@ -21966,7 +22012,7 @@
       <c r="T913" s="1"/>
       <c r="U913" s="1"/>
     </row>
-    <row r="914" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:21">
       <c r="A914" s="7"/>
       <c r="B914" s="3"/>
       <c r="C914" s="1"/>
@@ -21989,7 +22035,7 @@
       <c r="T914" s="1"/>
       <c r="U914" s="1"/>
     </row>
-    <row r="915" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:21">
       <c r="A915" s="7"/>
       <c r="B915" s="3"/>
       <c r="C915" s="1"/>
@@ -22012,7 +22058,7 @@
       <c r="T915" s="1"/>
       <c r="U915" s="1"/>
     </row>
-    <row r="916" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:21">
       <c r="A916" s="7"/>
       <c r="B916" s="3"/>
       <c r="C916" s="1"/>
@@ -22035,7 +22081,7 @@
       <c r="T916" s="1"/>
       <c r="U916" s="1"/>
     </row>
-    <row r="917" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:21">
       <c r="A917" s="7"/>
       <c r="B917" s="3"/>
       <c r="C917" s="1"/>
@@ -22058,7 +22104,7 @@
       <c r="T917" s="1"/>
       <c r="U917" s="1"/>
     </row>
-    <row r="918" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:21">
       <c r="A918" s="7"/>
       <c r="B918" s="3"/>
       <c r="C918" s="1"/>
@@ -22081,7 +22127,7 @@
       <c r="T918" s="1"/>
       <c r="U918" s="1"/>
     </row>
-    <row r="919" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:21">
       <c r="A919" s="7"/>
       <c r="B919" s="3"/>
       <c r="C919" s="1"/>
@@ -22104,7 +22150,7 @@
       <c r="T919" s="1"/>
       <c r="U919" s="1"/>
     </row>
-    <row r="920" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:21">
       <c r="A920" s="7"/>
       <c r="B920" s="3"/>
       <c r="C920" s="1"/>
@@ -22127,7 +22173,7 @@
       <c r="T920" s="1"/>
       <c r="U920" s="1"/>
     </row>
-    <row r="921" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:21">
       <c r="A921" s="7"/>
       <c r="B921" s="3"/>
       <c r="C921" s="1"/>
@@ -22150,7 +22196,7 @@
       <c r="T921" s="1"/>
       <c r="U921" s="1"/>
     </row>
-    <row r="922" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:21">
       <c r="A922" s="7"/>
       <c r="B922" s="3"/>
       <c r="C922" s="1"/>
@@ -22173,7 +22219,7 @@
       <c r="T922" s="1"/>
       <c r="U922" s="1"/>
     </row>
-    <row r="923" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:21">
       <c r="A923" s="7"/>
       <c r="B923" s="3"/>
       <c r="C923" s="1"/>
@@ -22196,7 +22242,7 @@
       <c r="T923" s="1"/>
       <c r="U923" s="1"/>
     </row>
-    <row r="924" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:21">
       <c r="A924" s="7"/>
       <c r="B924" s="3"/>
       <c r="C924" s="1"/>
@@ -22219,7 +22265,7 @@
       <c r="T924" s="1"/>
       <c r="U924" s="1"/>
     </row>
-    <row r="925" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:21">
       <c r="A925" s="7"/>
       <c r="B925" s="3"/>
       <c r="C925" s="1"/>
@@ -22242,7 +22288,7 @@
       <c r="T925" s="1"/>
       <c r="U925" s="1"/>
     </row>
-    <row r="926" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:21">
       <c r="A926" s="7"/>
       <c r="B926" s="3"/>
       <c r="C926" s="1"/>
@@ -22265,7 +22311,7 @@
       <c r="T926" s="1"/>
       <c r="U926" s="1"/>
     </row>
-    <row r="927" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:21">
       <c r="A927" s="7"/>
       <c r="B927" s="3"/>
       <c r="C927" s="1"/>
@@ -22288,7 +22334,7 @@
       <c r="T927" s="1"/>
       <c r="U927" s="1"/>
     </row>
-    <row r="928" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:21">
       <c r="A928" s="7"/>
       <c r="B928" s="3"/>
       <c r="C928" s="1"/>
@@ -22311,7 +22357,7 @@
       <c r="T928" s="1"/>
       <c r="U928" s="1"/>
     </row>
-    <row r="929" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:21">
       <c r="A929" s="7"/>
       <c r="B929" s="3"/>
       <c r="C929" s="1"/>
@@ -22334,7 +22380,7 @@
       <c r="T929" s="1"/>
       <c r="U929" s="1"/>
     </row>
-    <row r="930" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:21">
       <c r="A930" s="7"/>
       <c r="B930" s="3"/>
       <c r="C930" s="1"/>
@@ -22357,7 +22403,7 @@
       <c r="T930" s="1"/>
       <c r="U930" s="1"/>
     </row>
-    <row r="931" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:21">
       <c r="A931" s="7"/>
       <c r="B931" s="3"/>
       <c r="C931" s="1"/>
@@ -22380,7 +22426,7 @@
       <c r="T931" s="1"/>
       <c r="U931" s="1"/>
     </row>
-    <row r="932" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:21">
       <c r="A932" s="7"/>
       <c r="B932" s="3"/>
       <c r="C932" s="1"/>
@@ -22403,7 +22449,7 @@
       <c r="T932" s="1"/>
       <c r="U932" s="1"/>
     </row>
-    <row r="933" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:21">
       <c r="A933" s="7"/>
       <c r="B933" s="3"/>
       <c r="C933" s="1"/>
@@ -22426,7 +22472,7 @@
       <c r="T933" s="1"/>
       <c r="U933" s="1"/>
     </row>
-    <row r="934" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:21">
       <c r="A934" s="7"/>
       <c r="B934" s="3"/>
       <c r="C934" s="1"/>
@@ -22449,7 +22495,7 @@
       <c r="T934" s="1"/>
       <c r="U934" s="1"/>
     </row>
-    <row r="935" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:21">
       <c r="A935" s="7"/>
       <c r="B935" s="3"/>
       <c r="C935" s="1"/>
@@ -22472,7 +22518,7 @@
       <c r="T935" s="1"/>
       <c r="U935" s="1"/>
     </row>
-    <row r="936" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:21">
       <c r="A936" s="7"/>
       <c r="B936" s="3"/>
       <c r="C936" s="1"/>
@@ -22495,7 +22541,7 @@
       <c r="T936" s="1"/>
       <c r="U936" s="1"/>
     </row>
-    <row r="937" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:21">
       <c r="A937" s="7"/>
       <c r="B937" s="3"/>
       <c r="C937" s="1"/>
@@ -22518,7 +22564,7 @@
       <c r="T937" s="1"/>
       <c r="U937" s="1"/>
     </row>
-    <row r="938" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:21">
       <c r="A938" s="7"/>
       <c r="B938" s="3"/>
       <c r="C938" s="1"/>
@@ -22541,7 +22587,7 @@
       <c r="T938" s="1"/>
       <c r="U938" s="1"/>
     </row>
-    <row r="939" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:21">
       <c r="A939" s="7"/>
       <c r="B939" s="3"/>
       <c r="C939" s="1"/>
@@ -22564,7 +22610,7 @@
       <c r="T939" s="1"/>
       <c r="U939" s="1"/>
     </row>
-    <row r="940" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:21">
       <c r="A940" s="7"/>
       <c r="B940" s="3"/>
       <c r="C940" s="1"/>
@@ -22587,7 +22633,7 @@
       <c r="T940" s="1"/>
       <c r="U940" s="1"/>
     </row>
-    <row r="941" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:21">
       <c r="A941" s="7"/>
       <c r="B941" s="3"/>
       <c r="C941" s="1"/>
@@ -22610,7 +22656,7 @@
       <c r="T941" s="1"/>
       <c r="U941" s="1"/>
     </row>
-    <row r="942" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:21">
       <c r="A942" s="7"/>
       <c r="B942" s="3"/>
       <c r="C942" s="1"/>
@@ -22633,7 +22679,7 @@
       <c r="T942" s="1"/>
       <c r="U942" s="1"/>
     </row>
-    <row r="943" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:21">
       <c r="A943" s="7"/>
       <c r="B943" s="3"/>
       <c r="C943" s="1"/>
@@ -22675,21 +22721,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -22872,38 +22903,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBAD5A3-24EF-4F6A-BE26-85289F4A1E2D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBAD5A3-24EF-4F6A-BE26-85289F4A1E2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56c8121-053f-455f-842b-cd566811d075"/>
-    <ds:schemaRef ds:uri="76f06672-c643-4888-a225-c4422b0e89ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
 </file>
--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD-TEST.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD-TEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/test_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{BA3699C8-9B2C-5B45-9094-3BE167760E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE61E4B9-376A-4E5D-982F-7A07779ABCBD}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{BA3699C8-9B2C-5B45-9094-3BE167760E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E2A5C0-F026-43C0-9AE8-26812EDA786F}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1620" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Regression Test Plan - ${APP_VERSION} - ${BUILD_ENV}  </t>
   </si>
@@ -53,7 +53,43 @@
     <t>Build Info</t>
   </si>
   <si>
-    <t>Time and Date Testing Was Completed:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6 AM and 5 PM, Mon-Fri</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
+    </r>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -131,6 +167,9 @@
     <t>Notification Tool (PROD-TEST)</t>
   </si>
   <si>
+    <t>Notified test requester that you have completed testing (mark this box green after you have informed the test requester that you have finished testing)</t>
+  </si>
+  <si>
     <t>Barcode Generator (Code128) - Random</t>
   </si>
   <si>
@@ -148,12 +187,18 @@
   <si>
     <t>Barcode Generator (2D) - Invalid Barcode</t>
   </si>
+  <si>
+    <t>Services Duty Cycle</t>
+  </si>
+  <si>
+    <t>Platform Duty Cycle - ESR iPaaS - UCSD Collab (atlassian.net)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,8 +288,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE3AA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -478,9 +547,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -511,19 +577,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -533,17 +589,29 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -944,12 +1012,12 @@
   <dimension ref="A1:U943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="A2:XFD3"/>
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="103.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="96.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
@@ -957,8 +1025,8 @@
     <col min="6" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="49.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -985,13 +1053,13 @@
       <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="12"/>
@@ -1012,18 +1080,18 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
@@ -1044,15 +1112,15 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1"/>
@@ -1073,14 +1141,14 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="28.5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1"/>
@@ -1101,7 +1169,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="15"/>
@@ -1128,10 +1196,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1154,10 +1222,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1180,10 +1248,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1206,10 +1274,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1232,10 +1300,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1283,10 +1351,10 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1305,14 +1373,14 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1330,12 +1398,14 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:21" ht="28.5">
+      <c r="A15" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="33" t="s">
-        <v>31</v>
+      <c r="D15" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="1"/>
@@ -1359,8 +1429,8 @@
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="34" t="s">
-        <v>32</v>
+      <c r="D16" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="1"/>
@@ -1384,8 +1454,8 @@
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="33" t="s">
-        <v>33</v>
+      <c r="D17" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1408,8 +1478,8 @@
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="34" t="s">
-        <v>34</v>
+      <c r="D18" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1432,8 +1502,8 @@
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="33" t="s">
-        <v>35</v>
+      <c r="D19" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1456,8 +1526,8 @@
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="34" t="s">
-        <v>36</v>
+      <c r="D20" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1480,7 +1550,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="35"/>
+      <c r="D21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1502,6 +1575,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
+      <c r="D22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="29"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -22712,15 +22789,25 @@
     <hyperlink ref="D18" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{97C410DD-CEBD-BB47-8BCE-8A3ECDFD22E1}"/>
     <hyperlink ref="D19" r:id="rId6" xr:uid="{B2639174-1B80-FD44-BC53-302C7826664D}"/>
     <hyperlink ref="D20" r:id="rId7" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{4A5607DC-EBC6-7444-BC6B-F0310D1DC3E6}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{287C25BE-5567-48BA-9AB4-9B3C4AE8C359}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -22903,15 +22990,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -22919,11 +22997,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBAD5A3-24EF-4F6A-BE26-85289F4A1E2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBAD5A3-24EF-4F6A-BE26-85289F4A1E2D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD-TEST.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD-TEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/test_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{BA3699C8-9B2C-5B45-9094-3BE167760E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E2A5C0-F026-43C0-9AE8-26812EDA786F}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{BA3699C8-9B2C-5B45-9094-3BE167760E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B35FBFA-3527-46A5-9FE0-9B6EA2EE471B}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1620" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,43 +53,7 @@
     <t>Build Info</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>6 AM and 5 PM, Mon-Fri</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
-    </r>
+    <t>Time and Date Testing Was Complete (Testing can be completed any time/date):</t>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -198,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,18 +254,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1012,7 +964,7 @@
   <dimension ref="A1:U943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
@@ -1080,7 +1032,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="31.5" customHeight="1">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
@@ -22799,15 +22751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -22990,6 +22933,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -22997,11 +22949,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBAD5A3-24EF-4F6A-BE26-85289F4A1E2D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBAD5A3-24EF-4F6A-BE26-85289F4A1E2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
